--- a/AutoloadHeightCalculator.xlsx
+++ b/AutoloadHeightCalculator.xlsx
@@ -554,682 +554,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1554,16 +879,16 @@
   <dimension ref="A1:AW48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="32" width="9.140625" style="2"/>
     <col min="33" max="38" width="9.140625" style="1"/>
     <col min="39" max="39" width="9.140625" style="3"/>
@@ -1792,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="26">
-        <f>G3*D3</f>
+        <f>D3/G3</f>
         <v>2.4</v>
       </c>
       <c r="I3" s="11">
@@ -1983,71 +1308,71 @@
         <v>1</v>
       </c>
       <c r="H4" s="27">
-        <f>G4*D4</f>
+        <f t="shared" ref="H4:H48" si="1">D4/G4</f>
         <v>2.38</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" ref="I4:X48" si="1">I$1/$H4</f>
+        <f t="shared" ref="I4:X13" si="2">I$1/$H4</f>
         <v>0.42016806722689076</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44117647058823534</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46218487394957991</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48319327731092437</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50420168067226889</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52521008403361347</v>
       </c>
       <c r="O4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54621848739495804</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56722689075630262</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60924369747899165</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63025210084033612</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65126050420168069</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67226890756302526</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69327731092436973</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="Y4" s="16">
@@ -2174,11 +1499,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="27">
-        <f>G5*D5</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J5" s="16">
@@ -2365,11 +1690,11 @@
         <v>1</v>
       </c>
       <c r="H6" s="27">
-        <f>G6*D6</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J6" s="16">
@@ -2556,11 +1881,11 @@
         <v>1</v>
       </c>
       <c r="H7" s="27">
-        <f>G7*D7</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J7" s="16">
@@ -2747,11 +2072,11 @@
         <v>1</v>
       </c>
       <c r="H8" s="27">
-        <f>G8*D8</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J8" s="16">
@@ -2938,11 +2263,11 @@
         <v>1</v>
       </c>
       <c r="H9" s="27">
-        <f>G9*D9</f>
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0989010989010988</v>
       </c>
       <c r="J9" s="16">
@@ -3066,43 +2391,43 @@
         <v>2.7472527472527473</v>
       </c>
       <c r="AN9" s="16">
-        <f>AN$1/$H9</f>
+        <f t="shared" ref="AN9:AW18" si="3">AN$1/$H9</f>
         <v>2.802197802197802</v>
       </c>
       <c r="AO9" s="16">
-        <f>AO$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AP9" s="16">
-        <f>AP$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>2.912087912087912</v>
       </c>
       <c r="AQ9" s="16">
-        <f>AQ$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>2.9670329670329672</v>
       </c>
       <c r="AR9" s="16">
-        <f>AR$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>3.0219780219780219</v>
       </c>
       <c r="AS9" s="16">
-        <f>AS$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>3.0769230769230766</v>
       </c>
       <c r="AT9" s="16">
-        <f>AT$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>3.1318681318681318</v>
       </c>
       <c r="AU9" s="16">
-        <f>AU$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>3.1868131868131866</v>
       </c>
       <c r="AV9" s="16">
-        <f>AV$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>3.2967032967032965</v>
       </c>
       <c r="AW9" s="17">
-        <f>AW$1/$H9</f>
+        <f t="shared" si="3"/>
         <v>3.4065934065934065</v>
       </c>
     </row>
@@ -3129,171 +2454,171 @@
         <v>1</v>
       </c>
       <c r="H10" s="27">
-        <f>G10*D10</f>
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0989010989010988</v>
       </c>
       <c r="J10" s="16">
-        <f>J$1/$H10</f>
+        <f t="shared" ref="J10:S19" si="4">J$1/$H10</f>
         <v>1.153846153846154</v>
       </c>
       <c r="K10" s="16">
-        <f>K$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.2087912087912089</v>
       </c>
       <c r="L10" s="16">
-        <f>L$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.2637362637362637</v>
       </c>
       <c r="M10" s="16">
-        <f>M$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.3186813186813187</v>
       </c>
       <c r="N10" s="16">
-        <f>N$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.3736263736263736</v>
       </c>
       <c r="O10" s="16">
-        <f>O$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="P10" s="16">
-        <f>P$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.4835164835164836</v>
       </c>
       <c r="Q10" s="16">
-        <f>Q$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.5384615384615383</v>
       </c>
       <c r="R10" s="16">
-        <f>R$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.5934065934065933</v>
       </c>
       <c r="S10" s="16">
-        <f>S$1/$H10</f>
+        <f t="shared" si="4"/>
         <v>1.6483516483516483</v>
       </c>
       <c r="T10" s="16">
-        <f>T$1/$H10</f>
+        <f t="shared" ref="T10:AC19" si="5">T$1/$H10</f>
         <v>1.7032967032967032</v>
       </c>
       <c r="U10" s="16">
-        <f>U$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>1.7582417582417582</v>
       </c>
       <c r="V10" s="16">
-        <f>V$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>1.813186813186813</v>
       </c>
       <c r="W10" s="16">
-        <f>W$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>1.8681318681318679</v>
       </c>
       <c r="X10" s="16">
-        <f>X$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>1.9230769230769229</v>
       </c>
       <c r="Y10" s="16">
-        <f>Y$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>1.9780219780219781</v>
       </c>
       <c r="Z10" s="16">
-        <f>Z$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>2.0329670329670328</v>
       </c>
       <c r="AA10" s="16">
-        <f>AA$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>2.0879120879120876</v>
       </c>
       <c r="AB10" s="16">
-        <f>AB$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="AC10" s="16">
-        <f>AC$1/$H10</f>
+        <f t="shared" si="5"/>
         <v>2.1978021978021975</v>
       </c>
       <c r="AD10" s="16">
-        <f>AD$1/$H10</f>
+        <f t="shared" ref="AD10:AM19" si="6">AD$1/$H10</f>
         <v>2.2527472527472523</v>
       </c>
       <c r="AE10" s="16">
-        <f>AE$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.3076923076923079</v>
       </c>
       <c r="AF10" s="16">
-        <f>AF$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.3626373626373622</v>
       </c>
       <c r="AG10" s="16">
-        <f>AG$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.4175824175824179</v>
       </c>
       <c r="AH10" s="16">
-        <f>AH$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.4725274725274726</v>
       </c>
       <c r="AI10" s="16">
-        <f>AI$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.5274725274725274</v>
       </c>
       <c r="AJ10" s="16">
-        <f>AJ$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.5824175824175826</v>
       </c>
       <c r="AK10" s="16">
-        <f>AK$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.6373626373626373</v>
       </c>
       <c r="AL10" s="16">
-        <f>AL$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.6923076923076925</v>
       </c>
       <c r="AM10" s="4">
-        <f>AM$1/$H10</f>
+        <f t="shared" si="6"/>
         <v>2.7472527472527473</v>
       </c>
       <c r="AN10" s="16">
-        <f>AN$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>2.802197802197802</v>
       </c>
       <c r="AO10" s="16">
-        <f>AO$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AP10" s="16">
-        <f>AP$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>2.912087912087912</v>
       </c>
       <c r="AQ10" s="16">
-        <f>AQ$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>2.9670329670329672</v>
       </c>
       <c r="AR10" s="16">
-        <f>AR$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>3.0219780219780219</v>
       </c>
       <c r="AS10" s="16">
-        <f>AS$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>3.0769230769230766</v>
       </c>
       <c r="AT10" s="16">
-        <f>AT$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>3.1318681318681318</v>
       </c>
       <c r="AU10" s="16">
-        <f>AU$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>3.1868131868131866</v>
       </c>
       <c r="AV10" s="16">
-        <f>AV$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>3.2967032967032965</v>
       </c>
       <c r="AW10" s="17">
-        <f>AW$1/$H10</f>
+        <f t="shared" si="3"/>
         <v>3.4065934065934065</v>
       </c>
     </row>
@@ -3320,171 +2645,171 @@
         <v>1</v>
       </c>
       <c r="H11" s="27">
-        <f>G11*D11</f>
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0989010989010988</v>
       </c>
       <c r="J11" s="16">
-        <f>J$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.153846153846154</v>
       </c>
       <c r="K11" s="16">
-        <f>K$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.2087912087912089</v>
       </c>
       <c r="L11" s="16">
-        <f>L$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.2637362637362637</v>
       </c>
       <c r="M11" s="16">
-        <f>M$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.3186813186813187</v>
       </c>
       <c r="N11" s="16">
-        <f>N$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.3736263736263736</v>
       </c>
       <c r="O11" s="16">
-        <f>O$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="P11" s="16">
-        <f>P$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.4835164835164836</v>
       </c>
       <c r="Q11" s="16">
-        <f>Q$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.5384615384615383</v>
       </c>
       <c r="R11" s="16">
-        <f>R$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.5934065934065933</v>
       </c>
       <c r="S11" s="16">
-        <f>S$1/$H11</f>
+        <f t="shared" si="4"/>
         <v>1.6483516483516483</v>
       </c>
       <c r="T11" s="16">
-        <f>T$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>1.7032967032967032</v>
       </c>
       <c r="U11" s="16">
-        <f>U$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>1.7582417582417582</v>
       </c>
       <c r="V11" s="16">
-        <f>V$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>1.813186813186813</v>
       </c>
       <c r="W11" s="16">
-        <f>W$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>1.8681318681318679</v>
       </c>
       <c r="X11" s="16">
-        <f>X$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>1.9230769230769229</v>
       </c>
       <c r="Y11" s="16">
-        <f>Y$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>1.9780219780219781</v>
       </c>
       <c r="Z11" s="16">
-        <f>Z$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>2.0329670329670328</v>
       </c>
       <c r="AA11" s="16">
-        <f>AA$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>2.0879120879120876</v>
       </c>
       <c r="AB11" s="16">
-        <f>AB$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="AC11" s="16">
-        <f>AC$1/$H11</f>
+        <f t="shared" si="5"/>
         <v>2.1978021978021975</v>
       </c>
       <c r="AD11" s="16">
-        <f>AD$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.2527472527472523</v>
       </c>
       <c r="AE11" s="16">
-        <f>AE$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.3076923076923079</v>
       </c>
       <c r="AF11" s="16">
-        <f>AF$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.3626373626373622</v>
       </c>
       <c r="AG11" s="16">
-        <f>AG$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.4175824175824179</v>
       </c>
       <c r="AH11" s="16">
-        <f>AH$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.4725274725274726</v>
       </c>
       <c r="AI11" s="16">
-        <f>AI$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.5274725274725274</v>
       </c>
       <c r="AJ11" s="16">
-        <f>AJ$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.5824175824175826</v>
       </c>
       <c r="AK11" s="16">
-        <f>AK$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.6373626373626373</v>
       </c>
       <c r="AL11" s="16">
-        <f>AL$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.6923076923076925</v>
       </c>
       <c r="AM11" s="4">
-        <f>AM$1/$H11</f>
+        <f t="shared" si="6"/>
         <v>2.7472527472527473</v>
       </c>
       <c r="AN11" s="16">
-        <f>AN$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>2.802197802197802</v>
       </c>
       <c r="AO11" s="16">
-        <f>AO$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AP11" s="16">
-        <f>AP$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>2.912087912087912</v>
       </c>
       <c r="AQ11" s="16">
-        <f>AQ$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>2.9670329670329672</v>
       </c>
       <c r="AR11" s="16">
-        <f>AR$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>3.0219780219780219</v>
       </c>
       <c r="AS11" s="16">
-        <f>AS$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>3.0769230769230766</v>
       </c>
       <c r="AT11" s="16">
-        <f>AT$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>3.1318681318681318</v>
       </c>
       <c r="AU11" s="16">
-        <f>AU$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>3.1868131868131866</v>
       </c>
       <c r="AV11" s="16">
-        <f>AV$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>3.2967032967032965</v>
       </c>
       <c r="AW11" s="17">
-        <f>AW$1/$H11</f>
+        <f t="shared" si="3"/>
         <v>3.4065934065934065</v>
       </c>
     </row>
@@ -3511,171 +2836,171 @@
         <v>1</v>
       </c>
       <c r="H12" s="27">
-        <f>G12*D12</f>
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0989010989010988</v>
       </c>
       <c r="J12" s="16">
-        <f>J$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.153846153846154</v>
       </c>
       <c r="K12" s="16">
-        <f>K$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.2087912087912089</v>
       </c>
       <c r="L12" s="16">
-        <f>L$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.2637362637362637</v>
       </c>
       <c r="M12" s="16">
-        <f>M$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.3186813186813187</v>
       </c>
       <c r="N12" s="16">
-        <f>N$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.3736263736263736</v>
       </c>
       <c r="O12" s="16">
-        <f>O$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="P12" s="16">
-        <f>P$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.4835164835164836</v>
       </c>
       <c r="Q12" s="16">
-        <f>Q$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.5384615384615383</v>
       </c>
       <c r="R12" s="16">
-        <f>R$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.5934065934065933</v>
       </c>
       <c r="S12" s="16">
-        <f>S$1/$H12</f>
+        <f t="shared" si="4"/>
         <v>1.6483516483516483</v>
       </c>
       <c r="T12" s="16">
-        <f>T$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>1.7032967032967032</v>
       </c>
       <c r="U12" s="16">
-        <f>U$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>1.7582417582417582</v>
       </c>
       <c r="V12" s="16">
-        <f>V$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>1.813186813186813</v>
       </c>
       <c r="W12" s="16">
-        <f>W$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>1.8681318681318679</v>
       </c>
       <c r="X12" s="16">
-        <f>X$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>1.9230769230769229</v>
       </c>
       <c r="Y12" s="16">
-        <f>Y$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>1.9780219780219781</v>
       </c>
       <c r="Z12" s="16">
-        <f>Z$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>2.0329670329670328</v>
       </c>
       <c r="AA12" s="16">
-        <f>AA$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>2.0879120879120876</v>
       </c>
       <c r="AB12" s="16">
-        <f>AB$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="AC12" s="16">
-        <f>AC$1/$H12</f>
+        <f t="shared" si="5"/>
         <v>2.1978021978021975</v>
       </c>
       <c r="AD12" s="16">
-        <f>AD$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.2527472527472523</v>
       </c>
       <c r="AE12" s="16">
-        <f>AE$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.3076923076923079</v>
       </c>
       <c r="AF12" s="16">
-        <f>AF$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.3626373626373622</v>
       </c>
       <c r="AG12" s="16">
-        <f>AG$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.4175824175824179</v>
       </c>
       <c r="AH12" s="16">
-        <f>AH$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.4725274725274726</v>
       </c>
       <c r="AI12" s="16">
-        <f>AI$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.5274725274725274</v>
       </c>
       <c r="AJ12" s="16">
-        <f>AJ$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.5824175824175826</v>
       </c>
       <c r="AK12" s="16">
-        <f>AK$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.6373626373626373</v>
       </c>
       <c r="AL12" s="16">
-        <f>AL$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.6923076923076925</v>
       </c>
       <c r="AM12" s="4">
-        <f>AM$1/$H12</f>
+        <f t="shared" si="6"/>
         <v>2.7472527472527473</v>
       </c>
       <c r="AN12" s="16">
-        <f>AN$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>2.802197802197802</v>
       </c>
       <c r="AO12" s="16">
-        <f>AO$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AP12" s="16">
-        <f>AP$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>2.912087912087912</v>
       </c>
       <c r="AQ12" s="16">
-        <f>AQ$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>2.9670329670329672</v>
       </c>
       <c r="AR12" s="16">
-        <f>AR$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>3.0219780219780219</v>
       </c>
       <c r="AS12" s="16">
-        <f>AS$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>3.0769230769230766</v>
       </c>
       <c r="AT12" s="16">
-        <f>AT$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>3.1318681318681318</v>
       </c>
       <c r="AU12" s="16">
-        <f>AU$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>3.1868131868131866</v>
       </c>
       <c r="AV12" s="16">
-        <f>AV$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>3.2967032967032965</v>
       </c>
       <c r="AW12" s="17">
-        <f>AW$1/$H12</f>
+        <f t="shared" si="3"/>
         <v>3.4065934065934065</v>
       </c>
     </row>
@@ -3702,171 +3027,171 @@
         <v>1</v>
       </c>
       <c r="H13" s="28">
-        <f>G13*D13</f>
+        <f>D13/G13</f>
         <v>0.35499999999999998</v>
       </c>
       <c r="I13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8169014084507045</v>
       </c>
       <c r="J13" s="21">
-        <f>J$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>2.9577464788732395</v>
       </c>
       <c r="K13" s="21">
-        <f>K$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>3.098591549295775</v>
       </c>
       <c r="L13" s="21">
-        <f>L$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>3.23943661971831</v>
       </c>
       <c r="M13" s="21">
-        <f>M$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>3.380281690140845</v>
       </c>
       <c r="N13" s="21">
-        <f>N$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>3.5211267605633805</v>
       </c>
       <c r="O13" s="21">
-        <f>O$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>3.6619718309859159</v>
       </c>
       <c r="P13" s="21">
-        <f>P$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>3.802816901408451</v>
       </c>
       <c r="Q13" s="21">
-        <f>Q$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>3.943661971830986</v>
       </c>
       <c r="R13" s="21">
-        <f>R$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>4.084507042253521</v>
       </c>
       <c r="S13" s="21">
-        <f>S$1/$H13</f>
+        <f t="shared" si="4"/>
         <v>4.2253521126760569</v>
       </c>
       <c r="T13" s="21">
-        <f>T$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>4.3661971830985919</v>
       </c>
       <c r="U13" s="21">
-        <f>U$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>4.507042253521127</v>
       </c>
       <c r="V13" s="21">
-        <f>V$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>4.647887323943662</v>
       </c>
       <c r="W13" s="21">
-        <f>W$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>4.788732394366197</v>
       </c>
       <c r="X13" s="21">
-        <f>X$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>4.9295774647887329</v>
       </c>
       <c r="Y13" s="21">
-        <f>Y$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>5.070422535211268</v>
       </c>
       <c r="Z13" s="21">
-        <f>Z$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>5.211267605633803</v>
       </c>
       <c r="AA13" s="21">
-        <f>AA$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>5.352112676056338</v>
       </c>
       <c r="AB13" s="21">
-        <f>AB$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>5.492957746478873</v>
       </c>
       <c r="AC13" s="21">
-        <f>AC$1/$H13</f>
+        <f t="shared" si="5"/>
         <v>5.6338028169014089</v>
       </c>
       <c r="AD13" s="21">
-        <f>AD$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>5.7746478873239431</v>
       </c>
       <c r="AE13" s="21">
-        <f>AE$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>5.915492957746479</v>
       </c>
       <c r="AF13" s="21">
-        <f>AF$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>6.056338028169014</v>
       </c>
       <c r="AG13" s="21">
-        <f>AG$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>6.1971830985915499</v>
       </c>
       <c r="AH13" s="21">
-        <f>AH$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>6.3380281690140849</v>
       </c>
       <c r="AI13" s="21">
-        <f>AI$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>6.47887323943662</v>
       </c>
       <c r="AJ13" s="21">
-        <f>AJ$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>6.6197183098591559</v>
       </c>
       <c r="AK13" s="21">
-        <f>AK$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>6.76056338028169</v>
       </c>
       <c r="AL13" s="21">
-        <f>AL$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>6.9014084507042259</v>
       </c>
       <c r="AM13" s="5">
-        <f>AM$1/$H13</f>
+        <f t="shared" si="6"/>
         <v>7.042253521126761</v>
       </c>
       <c r="AN13" s="21">
-        <f>AN$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>7.183098591549296</v>
       </c>
       <c r="AO13" s="21">
-        <f>AO$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>7.3239436619718319</v>
       </c>
       <c r="AP13" s="21">
-        <f>AP$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>7.464788732394366</v>
       </c>
       <c r="AQ13" s="21">
-        <f>AQ$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>7.6056338028169019</v>
       </c>
       <c r="AR13" s="21">
-        <f>AR$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>7.746478873239437</v>
       </c>
       <c r="AS13" s="21">
-        <f>AS$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>7.887323943661972</v>
       </c>
       <c r="AT13" s="21">
-        <f>AT$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>8.0281690140845079</v>
       </c>
       <c r="AU13" s="21">
-        <f>AU$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>8.169014084507042</v>
       </c>
       <c r="AV13" s="21">
-        <f>AV$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>8.4507042253521139</v>
       </c>
       <c r="AW13" s="22">
-        <f>AW$1/$H13</f>
+        <f t="shared" si="3"/>
         <v>8.7323943661971839</v>
       </c>
     </row>
@@ -3893,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="26">
-        <f>G14*D14</f>
+        <f>D14/G14</f>
         <v>2.5</v>
       </c>
       <c r="I14" s="11">
@@ -4084,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="27">
-        <f>G15*D15</f>
+        <f>D15/G15</f>
         <v>1.6659999999999999</v>
       </c>
       <c r="I15" s="16">
@@ -4275,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="27">
-        <f>G16*D16</f>
+        <f>D16/G16</f>
         <v>1.5</v>
       </c>
       <c r="I16" s="16">
@@ -4466,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="27">
-        <f>G17*D17</f>
+        <f>D17/G17</f>
         <v>1.25</v>
       </c>
       <c r="I17" s="16">
@@ -4639,7 +3964,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -4651,178 +3976,178 @@
         <v>0.85</v>
       </c>
       <c r="F18" s="15">
-        <v>0.19241830214955</v>
+        <v>0.74457518334481998</v>
       </c>
       <c r="G18" s="15">
-        <v>1</v>
+        <v>0.91847493888506004</v>
       </c>
       <c r="H18" s="27">
-        <f>G18*D18</f>
-        <v>1.125</v>
+        <f>D18/G18</f>
+        <v>1.2248565011100265</v>
       </c>
       <c r="I18" s="16">
         <f>I$1/$H18</f>
-        <v>0.88888888888888884</v>
+        <v>0.81642216789783106</v>
       </c>
       <c r="J18" s="16">
         <f>J$1/$H18</f>
-        <v>0.93333333333333335</v>
+        <v>0.85724327629272268</v>
       </c>
       <c r="K18" s="16">
         <f>K$1/$H18</f>
-        <v>0.97777777777777786</v>
+        <v>0.89806438468761429</v>
       </c>
       <c r="L18" s="16">
         <f>L$1/$H18</f>
-        <v>1.0222222222222221</v>
+        <v>0.93888549308250568</v>
       </c>
       <c r="M18" s="16">
         <f>M$1/$H18</f>
-        <v>1.0666666666666667</v>
+        <v>0.9797066014773973</v>
       </c>
       <c r="N18" s="16">
         <f>N$1/$H18</f>
-        <v>1.1111111111111112</v>
+        <v>1.0205277098722889</v>
       </c>
       <c r="O18" s="16">
         <f>O$1/$H18</f>
-        <v>1.1555555555555557</v>
+        <v>1.0613488182671804</v>
       </c>
       <c r="P18" s="16">
         <f>P$1/$H18</f>
-        <v>1.2000000000000002</v>
+        <v>1.1021699266620719</v>
       </c>
       <c r="Q18" s="16">
         <f>Q$1/$H18</f>
-        <v>1.2444444444444445</v>
+        <v>1.1429910350569634</v>
       </c>
       <c r="R18" s="16">
         <f>R$1/$H18</f>
-        <v>1.2888888888888888</v>
+        <v>1.1838121434518549</v>
       </c>
       <c r="S18" s="16">
         <f>S$1/$H18</f>
-        <v>1.3333333333333333</v>
+        <v>1.2246332518467467</v>
       </c>
       <c r="T18" s="16">
         <f>T$1/$H18</f>
-        <v>1.3777777777777778</v>
+        <v>1.2654543602416382</v>
       </c>
       <c r="U18" s="16">
         <f>U$1/$H18</f>
-        <v>1.4222222222222223</v>
+        <v>1.3062754686365299</v>
       </c>
       <c r="V18" s="16">
         <f>V$1/$H18</f>
-        <v>1.4666666666666666</v>
+        <v>1.3470965770314212</v>
       </c>
       <c r="W18" s="16">
         <f>W$1/$H18</f>
-        <v>1.5111111111111111</v>
+        <v>1.3879176854263129</v>
       </c>
       <c r="X18" s="16">
         <f>X$1/$H18</f>
-        <v>1.5555555555555556</v>
+        <v>1.4287387938212044</v>
       </c>
       <c r="Y18" s="16">
         <f>Y$1/$H18</f>
-        <v>1.6</v>
+        <v>1.4695599022160959</v>
       </c>
       <c r="Z18" s="16">
         <f>Z$1/$H18</f>
-        <v>1.6444444444444446</v>
+        <v>1.5103810106109876</v>
       </c>
       <c r="AA18" s="16">
         <f>AA$1/$H18</f>
-        <v>1.6888888888888889</v>
+        <v>1.5512021190058789</v>
       </c>
       <c r="AB18" s="16">
         <f>AB$1/$H18</f>
-        <v>1.7333333333333334</v>
+        <v>1.5920232274007706</v>
       </c>
       <c r="AC18" s="16">
         <f>AC$1/$H18</f>
-        <v>1.7777777777777777</v>
+        <v>1.6328443357956621</v>
       </c>
       <c r="AD18" s="16">
         <f>AD$1/$H18</f>
-        <v>1.822222222222222</v>
+        <v>1.6736654441905536</v>
       </c>
       <c r="AE18" s="16">
         <f>AE$1/$H18</f>
-        <v>1.8666666666666667</v>
+        <v>1.7144865525854454</v>
       </c>
       <c r="AF18" s="16">
         <f>AF$1/$H18</f>
-        <v>1.911111111111111</v>
+        <v>1.7553076609803369</v>
       </c>
       <c r="AG18" s="16">
         <f>AG$1/$H18</f>
-        <v>1.9555555555555557</v>
+        <v>1.7961287693752286</v>
       </c>
       <c r="AH18" s="16">
         <f>AH$1/$H18</f>
-        <v>2</v>
+        <v>1.8369498777701199</v>
       </c>
       <c r="AI18" s="16">
         <f>AI$1/$H18</f>
-        <v>2.0444444444444443</v>
+        <v>1.8777709861650114</v>
       </c>
       <c r="AJ18" s="16">
         <f>AJ$1/$H18</f>
-        <v>2.088888888888889</v>
+        <v>1.9185920945599031</v>
       </c>
       <c r="AK18" s="16">
         <f>AK$1/$H18</f>
-        <v>2.1333333333333333</v>
+        <v>1.9594132029547946</v>
       </c>
       <c r="AL18" s="16">
         <f>AL$1/$H18</f>
-        <v>2.177777777777778</v>
+        <v>2.0002343113496863</v>
       </c>
       <c r="AM18" s="4">
         <f>AM$1/$H18</f>
-        <v>2.2222222222222223</v>
+        <v>2.0410554197445778</v>
       </c>
       <c r="AN18" s="16">
         <f>AN$1/$H18</f>
-        <v>2.2666666666666666</v>
+        <v>2.0818765281394693</v>
       </c>
       <c r="AO18" s="16">
         <f>AO$1/$H18</f>
-        <v>2.3111111111111113</v>
+        <v>2.1226976365343608</v>
       </c>
       <c r="AP18" s="16">
         <f>AP$1/$H18</f>
-        <v>2.3555555555555556</v>
+        <v>2.1635187449292523</v>
       </c>
       <c r="AQ18" s="16">
         <f>AQ$1/$H18</f>
-        <v>2.4000000000000004</v>
+        <v>2.2043398533241438</v>
       </c>
       <c r="AR18" s="16">
         <f>AR$1/$H18</f>
-        <v>2.4444444444444446</v>
+        <v>2.2451609617190353</v>
       </c>
       <c r="AS18" s="16">
         <f>AS$1/$H18</f>
-        <v>2.4888888888888889</v>
+        <v>2.2859820701139268</v>
       </c>
       <c r="AT18" s="16">
         <f>AT$1/$H18</f>
-        <v>2.5333333333333332</v>
+        <v>2.3268031785088188</v>
       </c>
       <c r="AU18" s="16">
         <f>AU$1/$H18</f>
-        <v>2.5777777777777775</v>
+        <v>2.3676242869037099</v>
       </c>
       <c r="AV18" s="16">
         <f>AV$1/$H18</f>
-        <v>2.6666666666666665</v>
+        <v>2.4492665036934933</v>
       </c>
       <c r="AW18" s="17">
         <f>AW$1/$H18</f>
-        <v>2.7555555555555555</v>
+        <v>2.5309087204832763</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
@@ -4830,572 +4155,572 @@
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
       <c r="D19" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="E19" s="30">
         <v>0.85</v>
       </c>
       <c r="F19" s="15">
-        <v>0.56470589051272002</v>
+        <v>0.19241830214955</v>
       </c>
       <c r="G19" s="15">
-        <v>0.97843136982908996</v>
+        <v>1</v>
       </c>
       <c r="H19" s="27">
-        <f>G19*D19</f>
-        <v>1.076274506811999</v>
+        <f>D19/G19</f>
+        <v>1.125</v>
       </c>
       <c r="I19" s="16">
         <f>I$1/$H19</f>
-        <v>0.92913099183410985</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="J19" s="16">
         <f>J$1/$H19</f>
-        <v>0.97558754142581539</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="K19" s="16">
         <f>K$1/$H19</f>
-        <v>1.0220440910175208</v>
+        <v>0.97777777777777786</v>
       </c>
       <c r="L19" s="16">
         <f>L$1/$H19</f>
-        <v>1.0685006406092261</v>
+        <v>1.0222222222222221</v>
       </c>
       <c r="M19" s="16">
         <f>M$1/$H19</f>
-        <v>1.1149571902009316</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="N19" s="16">
         <f>N$1/$H19</f>
-        <v>1.1614137397926372</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="O19" s="16">
         <f>O$1/$H19</f>
-        <v>1.2078702893843427</v>
+        <v>1.1555555555555557</v>
       </c>
       <c r="P19" s="16">
         <f>P$1/$H19</f>
-        <v>1.2543268389760482</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="Q19" s="16">
         <f>Q$1/$H19</f>
-        <v>1.3007833885677536</v>
+        <v>1.2444444444444445</v>
       </c>
       <c r="R19" s="16">
         <f>R$1/$H19</f>
-        <v>1.3472399381594591</v>
+        <v>1.2888888888888888</v>
       </c>
       <c r="S19" s="16">
         <f>S$1/$H19</f>
-        <v>1.3936964877511646</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T19" s="16">
         <f>T$1/$H19</f>
-        <v>1.4401530373428701</v>
+        <v>1.3777777777777778</v>
       </c>
       <c r="U19" s="16">
         <f>U$1/$H19</f>
-        <v>1.4866095869345757</v>
+        <v>1.4222222222222223</v>
       </c>
       <c r="V19" s="16">
         <f>V$1/$H19</f>
-        <v>1.5330661365262812</v>
+        <v>1.4666666666666666</v>
       </c>
       <c r="W19" s="16">
         <f>W$1/$H19</f>
-        <v>1.5795226861179867</v>
+        <v>1.5111111111111111</v>
       </c>
       <c r="X19" s="16">
         <f>X$1/$H19</f>
-        <v>1.6259792357096923</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="Y19" s="16">
         <f>Y$1/$H19</f>
-        <v>1.6724357853013978</v>
+        <v>1.6</v>
       </c>
       <c r="Z19" s="16">
         <f>Z$1/$H19</f>
-        <v>1.7188923348931033</v>
+        <v>1.6444444444444446</v>
       </c>
       <c r="AA19" s="16">
         <f>AA$1/$H19</f>
-        <v>1.7653488844848086</v>
+        <v>1.6888888888888889</v>
       </c>
       <c r="AB19" s="16">
         <f>AB$1/$H19</f>
-        <v>1.8118054340765142</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="AC19" s="16">
         <f>AC$1/$H19</f>
-        <v>1.8582619836682197</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="AD19" s="16">
         <f>AD$1/$H19</f>
-        <v>1.904718533259925</v>
+        <v>1.822222222222222</v>
       </c>
       <c r="AE19" s="16">
         <f>AE$1/$H19</f>
-        <v>1.9511750828516308</v>
+        <v>1.8666666666666667</v>
       </c>
       <c r="AF19" s="16">
         <f>AF$1/$H19</f>
-        <v>1.9976316324433361</v>
+        <v>1.911111111111111</v>
       </c>
       <c r="AG19" s="16">
         <f>AG$1/$H19</f>
-        <v>2.0440881820350416</v>
+        <v>1.9555555555555557</v>
       </c>
       <c r="AH19" s="16">
         <f>AH$1/$H19</f>
-        <v>2.0905447316267471</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="16">
         <f>AI$1/$H19</f>
-        <v>2.1370012812184522</v>
+        <v>2.0444444444444443</v>
       </c>
       <c r="AJ19" s="16">
         <f>AJ$1/$H19</f>
-        <v>2.1834578308101582</v>
+        <v>2.088888888888889</v>
       </c>
       <c r="AK19" s="16">
         <f>AK$1/$H19</f>
-        <v>2.2299143804018633</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="AL19" s="16">
         <f>AL$1/$H19</f>
-        <v>2.2763709299935693</v>
+        <v>2.177777777777778</v>
       </c>
       <c r="AM19" s="4">
         <f>AM$1/$H19</f>
-        <v>2.3228274795852744</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="AN19" s="16">
         <f>AN$1/$H19</f>
-        <v>2.3692840291769799</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="AO19" s="16">
         <f>AO$1/$H19</f>
-        <v>2.4157405787686854</v>
+        <v>2.3111111111111113</v>
       </c>
       <c r="AP19" s="16">
         <f>AP$1/$H19</f>
-        <v>2.462197128360391</v>
+        <v>2.3555555555555556</v>
       </c>
       <c r="AQ19" s="16">
         <f>AQ$1/$H19</f>
-        <v>2.5086536779520965</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AR19" s="16">
         <f>AR$1/$H19</f>
-        <v>2.555110227543802</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="AS19" s="16">
         <f>AS$1/$H19</f>
-        <v>2.6015667771355071</v>
+        <v>2.4888888888888889</v>
       </c>
       <c r="AT19" s="16">
         <f>AT$1/$H19</f>
-        <v>2.6480233267272131</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="AU19" s="16">
         <f>AU$1/$H19</f>
-        <v>2.6944798763189182</v>
+        <v>2.5777777777777775</v>
       </c>
       <c r="AV19" s="16">
         <f>AV$1/$H19</f>
-        <v>2.7873929755023292</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AW19" s="17">
         <f>AW$1/$H19</f>
-        <v>2.8803060746857403</v>
+        <v>2.7555555555555555</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C20" s="13">
-        <v>1.5249999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="D20" s="14">
-        <v>1.075</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E20" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>61</v>
+        <v>0.85</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.56470589051272002</v>
       </c>
       <c r="G20" s="15">
-        <v>1</v>
+        <v>0.97843136982908996</v>
       </c>
       <c r="H20" s="27">
-        <f>G20*D20</f>
-        <v>1.075</v>
+        <f>D20/G20</f>
+        <v>1.124248500119273</v>
       </c>
       <c r="I20" s="16">
         <f>I$1/$H20</f>
-        <v>0.93023255813953487</v>
+        <v>0.88948306348099082</v>
       </c>
       <c r="J20" s="16">
         <f>J$1/$H20</f>
-        <v>0.9767441860465117</v>
+        <v>0.93395721665504039</v>
       </c>
       <c r="K20" s="16">
         <f>K$1/$H20</f>
-        <v>1.0232558139534884</v>
+        <v>0.97843136982908996</v>
       </c>
       <c r="L20" s="16">
         <f>L$1/$H20</f>
-        <v>1.069767441860465</v>
+        <v>1.0229055230031394</v>
       </c>
       <c r="M20" s="16">
         <f>M$1/$H20</f>
-        <v>1.1162790697674418</v>
+        <v>1.067379676177189</v>
       </c>
       <c r="N20" s="16">
         <f>N$1/$H20</f>
-        <v>1.1627906976744187</v>
+        <v>1.1118538293512386</v>
       </c>
       <c r="O20" s="16">
         <f>O$1/$H20</f>
-        <v>1.2093023255813955</v>
+        <v>1.1563279825252881</v>
       </c>
       <c r="P20" s="16">
         <f>P$1/$H20</f>
-        <v>1.2558139534883723</v>
+        <v>1.2008021356993377</v>
       </c>
       <c r="Q20" s="16">
         <f>Q$1/$H20</f>
-        <v>1.3023255813953487</v>
+        <v>1.245276288873387</v>
       </c>
       <c r="R20" s="16">
         <f>R$1/$H20</f>
-        <v>1.3488372093023255</v>
+        <v>1.2897504420474366</v>
       </c>
       <c r="S20" s="16">
         <f>S$1/$H20</f>
-        <v>1.3953488372093024</v>
+        <v>1.3342245952214862</v>
       </c>
       <c r="T20" s="16">
         <f>T$1/$H20</f>
-        <v>1.4418604651162792</v>
+        <v>1.3786987483955357</v>
       </c>
       <c r="U20" s="16">
         <f>U$1/$H20</f>
-        <v>1.488372093023256</v>
+        <v>1.4231729015695853</v>
       </c>
       <c r="V20" s="16">
         <f>V$1/$H20</f>
-        <v>1.5348837209302326</v>
+        <v>1.4676470547436347</v>
       </c>
       <c r="W20" s="16">
         <f>W$1/$H20</f>
-        <v>1.5813953488372092</v>
+        <v>1.5121212079176842</v>
       </c>
       <c r="X20" s="16">
         <f>X$1/$H20</f>
-        <v>1.6279069767441861</v>
+        <v>1.5565953610917338</v>
       </c>
       <c r="Y20" s="16">
         <f>Y$1/$H20</f>
-        <v>1.6744186046511629</v>
+        <v>1.6010695142657834</v>
       </c>
       <c r="Z20" s="16">
         <f>Z$1/$H20</f>
-        <v>1.7209302325581397</v>
+        <v>1.6455436674398329</v>
       </c>
       <c r="AA20" s="16">
         <f>AA$1/$H20</f>
-        <v>1.7674418604651163</v>
+        <v>1.6900178206138825</v>
       </c>
       <c r="AB20" s="16">
         <f>AB$1/$H20</f>
-        <v>1.8139534883720931</v>
+        <v>1.7344919737879321</v>
       </c>
       <c r="AC20" s="16">
         <f>AC$1/$H20</f>
-        <v>1.8604651162790697</v>
+        <v>1.7789661269619816</v>
       </c>
       <c r="AD20" s="16">
         <f>AD$1/$H20</f>
-        <v>1.9069767441860463</v>
+        <v>1.823440280136031</v>
       </c>
       <c r="AE20" s="16">
         <f>AE$1/$H20</f>
-        <v>1.9534883720930234</v>
+        <v>1.8679144333100808</v>
       </c>
       <c r="AF20" s="16">
         <f>AF$1/$H20</f>
-        <v>2</v>
+        <v>1.9123885864841301</v>
       </c>
       <c r="AG20" s="16">
         <f>AG$1/$H20</f>
-        <v>2.0465116279069768</v>
+        <v>1.9568627396581799</v>
       </c>
       <c r="AH20" s="16">
         <f>AH$1/$H20</f>
-        <v>2.0930232558139537</v>
+        <v>2.0013368928322293</v>
       </c>
       <c r="AI20" s="16">
         <f>AI$1/$H20</f>
-        <v>2.13953488372093</v>
+        <v>2.0458110460062788</v>
       </c>
       <c r="AJ20" s="16">
         <f>AJ$1/$H20</f>
-        <v>2.1860465116279073</v>
+        <v>2.0902851991803284</v>
       </c>
       <c r="AK20" s="16">
         <f>AK$1/$H20</f>
-        <v>2.2325581395348837</v>
+        <v>2.134759352354378</v>
       </c>
       <c r="AL20" s="16">
         <f>AL$1/$H20</f>
-        <v>2.2790697674418605</v>
+        <v>2.1792335055284275</v>
       </c>
       <c r="AM20" s="4">
         <f>AM$1/$H20</f>
-        <v>2.3255813953488373</v>
+        <v>2.2237076587024771</v>
       </c>
       <c r="AN20" s="16">
         <f>AN$1/$H20</f>
-        <v>2.3720930232558137</v>
+        <v>2.2681818118765262</v>
       </c>
       <c r="AO20" s="16">
         <f>AO$1/$H20</f>
-        <v>2.418604651162791</v>
+        <v>2.3126559650505762</v>
       </c>
       <c r="AP20" s="16">
         <f>AP$1/$H20</f>
-        <v>2.4651162790697674</v>
+        <v>2.3571301182246254</v>
       </c>
       <c r="AQ20" s="16">
         <f>AQ$1/$H20</f>
-        <v>2.5116279069767447</v>
+        <v>2.4016042713986754</v>
       </c>
       <c r="AR20" s="16">
         <f>AR$1/$H20</f>
-        <v>2.558139534883721</v>
+        <v>2.4460784245727245</v>
       </c>
       <c r="AS20" s="16">
         <f>AS$1/$H20</f>
-        <v>2.6046511627906974</v>
+        <v>2.4905525777467741</v>
       </c>
       <c r="AT20" s="16">
         <f>AT$1/$H20</f>
-        <v>2.6511627906976747</v>
+        <v>2.5350267309208236</v>
       </c>
       <c r="AU20" s="16">
         <f>AU$1/$H20</f>
-        <v>2.6976744186046511</v>
+        <v>2.5795008840948732</v>
       </c>
       <c r="AV20" s="16">
         <f>AV$1/$H20</f>
-        <v>2.7906976744186047</v>
+        <v>2.6684491904429724</v>
       </c>
       <c r="AW20" s="17">
         <f>AW$1/$H20</f>
-        <v>2.8837209302325584</v>
+        <v>2.7573974967910715</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C21" s="13">
-        <v>1.25</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="D21" s="14">
-        <v>1.125</v>
+        <v>1.075</v>
       </c>
       <c r="E21" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0.74457518334481998</v>
+        <v>1.2</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G21" s="15">
-        <v>0.91847493888506004</v>
+        <v>1</v>
       </c>
       <c r="H21" s="27">
-        <f>G21*D21</f>
-        <v>1.0332843062456925</v>
+        <f>D21/G21</f>
+        <v>1.075</v>
       </c>
       <c r="I21" s="16">
         <f>I$1/$H21</f>
-        <v>0.96778785272890988</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="J21" s="16">
         <f>J$1/$H21</f>
-        <v>1.0161772453653555</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="K21" s="16">
         <f>K$1/$H21</f>
-        <v>1.0645666380018008</v>
+        <v>1.0232558139534884</v>
       </c>
       <c r="L21" s="16">
         <f>L$1/$H21</f>
-        <v>1.1129560306382462</v>
+        <v>1.069767441860465</v>
       </c>
       <c r="M21" s="16">
         <f>M$1/$H21</f>
-        <v>1.1613454232746918</v>
+        <v>1.1162790697674418</v>
       </c>
       <c r="N21" s="16">
         <f>N$1/$H21</f>
-        <v>1.2097348159111374</v>
+        <v>1.1627906976744187</v>
       </c>
       <c r="O21" s="16">
         <f>O$1/$H21</f>
-        <v>1.2581242085475828</v>
+        <v>1.2093023255813955</v>
       </c>
       <c r="P21" s="16">
         <f>P$1/$H21</f>
-        <v>1.3065136011840284</v>
+        <v>1.2558139534883723</v>
       </c>
       <c r="Q21" s="16">
         <f>Q$1/$H21</f>
-        <v>1.3549029938204737</v>
+        <v>1.3023255813953487</v>
       </c>
       <c r="R21" s="16">
         <f>R$1/$H21</f>
-        <v>1.4032923864569193</v>
+        <v>1.3488372093023255</v>
       </c>
       <c r="S21" s="16">
         <f>S$1/$H21</f>
-        <v>1.4516817790933647</v>
+        <v>1.3953488372093024</v>
       </c>
       <c r="T21" s="16">
         <f>T$1/$H21</f>
-        <v>1.5000711717298103</v>
+        <v>1.4418604651162792</v>
       </c>
       <c r="U21" s="16">
         <f>U$1/$H21</f>
-        <v>1.5484605643662559</v>
+        <v>1.488372093023256</v>
       </c>
       <c r="V21" s="16">
         <f>V$1/$H21</f>
-        <v>1.5968499570027013</v>
+        <v>1.5348837209302326</v>
       </c>
       <c r="W21" s="16">
         <f>W$1/$H21</f>
-        <v>1.6452393496391466</v>
+        <v>1.5813953488372092</v>
       </c>
       <c r="X21" s="16">
         <f>X$1/$H21</f>
-        <v>1.6936287422755922</v>
+        <v>1.6279069767441861</v>
       </c>
       <c r="Y21" s="16">
         <f>Y$1/$H21</f>
-        <v>1.7420181349120378</v>
+        <v>1.6744186046511629</v>
       </c>
       <c r="Z21" s="16">
         <f>Z$1/$H21</f>
-        <v>1.7904075275484834</v>
+        <v>1.7209302325581397</v>
       </c>
       <c r="AA21" s="16">
         <f>AA$1/$H21</f>
-        <v>1.8387969201849286</v>
+        <v>1.7674418604651163</v>
       </c>
       <c r="AB21" s="16">
         <f>AB$1/$H21</f>
-        <v>1.8871863128213742</v>
+        <v>1.8139534883720931</v>
       </c>
       <c r="AC21" s="16">
         <f>AC$1/$H21</f>
-        <v>1.9355757054578198</v>
+        <v>1.8604651162790697</v>
       </c>
       <c r="AD21" s="16">
         <f>AD$1/$H21</f>
-        <v>1.9839650980942651</v>
+        <v>1.9069767441860463</v>
       </c>
       <c r="AE21" s="16">
         <f>AE$1/$H21</f>
-        <v>2.0323544907307109</v>
+        <v>1.9534883720930234</v>
       </c>
       <c r="AF21" s="16">
         <f>AF$1/$H21</f>
-        <v>2.0807438833671563</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="16">
         <f>AG$1/$H21</f>
-        <v>2.1291332760036017</v>
+        <v>2.0465116279069768</v>
       </c>
       <c r="AH21" s="16">
         <f>AH$1/$H21</f>
-        <v>2.1775226686400471</v>
+        <v>2.0930232558139537</v>
       </c>
       <c r="AI21" s="16">
         <f>AI$1/$H21</f>
-        <v>2.2259120612764924</v>
+        <v>2.13953488372093</v>
       </c>
       <c r="AJ21" s="16">
         <f>AJ$1/$H21</f>
-        <v>2.2743014539129383</v>
+        <v>2.1860465116279073</v>
       </c>
       <c r="AK21" s="16">
         <f>AK$1/$H21</f>
-        <v>2.3226908465493836</v>
+        <v>2.2325581395348837</v>
       </c>
       <c r="AL21" s="16">
         <f>AL$1/$H21</f>
-        <v>2.3710802391858294</v>
+        <v>2.2790697674418605</v>
       </c>
       <c r="AM21" s="4">
         <f>AM$1/$H21</f>
-        <v>2.4194696318222748</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="AN21" s="16">
         <f>AN$1/$H21</f>
-        <v>2.4678590244587202</v>
+        <v>2.3720930232558137</v>
       </c>
       <c r="AO21" s="16">
         <f>AO$1/$H21</f>
-        <v>2.5162484170951656</v>
+        <v>2.418604651162791</v>
       </c>
       <c r="AP21" s="16">
         <f>AP$1/$H21</f>
-        <v>2.5646378097316109</v>
+        <v>2.4651162790697674</v>
       </c>
       <c r="AQ21" s="16">
         <f>AQ$1/$H21</f>
-        <v>2.6130272023680567</v>
+        <v>2.5116279069767447</v>
       </c>
       <c r="AR21" s="16">
         <f>AR$1/$H21</f>
-        <v>2.6614165950045021</v>
+        <v>2.558139534883721</v>
       </c>
       <c r="AS21" s="16">
         <f>AS$1/$H21</f>
-        <v>2.7098059876409475</v>
+        <v>2.6046511627906974</v>
       </c>
       <c r="AT21" s="16">
         <f>AT$1/$H21</f>
-        <v>2.7581953802773933</v>
+        <v>2.6511627906976747</v>
       </c>
       <c r="AU21" s="16">
         <f>AU$1/$H21</f>
-        <v>2.8065847729138387</v>
+        <v>2.6976744186046511</v>
       </c>
       <c r="AV21" s="16">
         <f>AV$1/$H21</f>
-        <v>2.9033635581867294</v>
+        <v>2.7906976744186047</v>
       </c>
       <c r="AW21" s="17">
         <f>AW$1/$H21</f>
-        <v>3.0001423434596206</v>
+        <v>2.8837209302325584</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
@@ -5403,190 +4728,190 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
       <c r="D22" s="14">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="E22" s="30">
         <v>0.85</v>
       </c>
       <c r="F22" s="15">
-        <v>0.33882354063145997</v>
+        <v>1.2628443782576</v>
       </c>
       <c r="G22" s="15">
-        <v>1</v>
+        <v>0.74571854058079001</v>
       </c>
       <c r="H22" s="27">
-        <f>G22*D22</f>
-        <v>1</v>
+        <f>D22/G22</f>
+        <v>1.0593809286070883</v>
       </c>
       <c r="I22" s="16">
         <f>I$1/$H22</f>
-        <v>1</v>
+        <v>0.943947519722519</v>
       </c>
       <c r="J22" s="16">
         <f>J$1/$H22</f>
-        <v>1.05</v>
+        <v>0.99114489570864495</v>
       </c>
       <c r="K22" s="16">
         <f>K$1/$H22</f>
-        <v>1.1000000000000001</v>
+        <v>1.038342271694771</v>
       </c>
       <c r="L22" s="16">
         <f>L$1/$H22</f>
-        <v>1.1499999999999999</v>
+        <v>1.0855396476808967</v>
       </c>
       <c r="M22" s="16">
         <f>M$1/$H22</f>
-        <v>1.2</v>
+        <v>1.1327370236670227</v>
       </c>
       <c r="N22" s="16">
         <f>N$1/$H22</f>
-        <v>1.25</v>
+        <v>1.1799343996531488</v>
       </c>
       <c r="O22" s="16">
         <f>O$1/$H22</f>
-        <v>1.3</v>
+        <v>1.2271317756392748</v>
       </c>
       <c r="P22" s="16">
         <f>P$1/$H22</f>
-        <v>1.35</v>
+        <v>1.2743291516254007</v>
       </c>
       <c r="Q22" s="16">
         <f>Q$1/$H22</f>
-        <v>1.4</v>
+        <v>1.3215265276115264</v>
       </c>
       <c r="R22" s="16">
         <f>R$1/$H22</f>
-        <v>1.45</v>
+        <v>1.3687239035976526</v>
       </c>
       <c r="S22" s="16">
         <f>S$1/$H22</f>
-        <v>1.5</v>
+        <v>1.4159212795837786</v>
       </c>
       <c r="T22" s="16">
         <f>T$1/$H22</f>
-        <v>1.55</v>
+        <v>1.4631186555699045</v>
       </c>
       <c r="U22" s="16">
         <f>U$1/$H22</f>
-        <v>1.6</v>
+        <v>1.5103160315560304</v>
       </c>
       <c r="V22" s="16">
         <f>V$1/$H22</f>
-        <v>1.65</v>
+        <v>1.5575134075421562</v>
       </c>
       <c r="W22" s="16">
         <f>W$1/$H22</f>
-        <v>1.7</v>
+        <v>1.6047107835282823</v>
       </c>
       <c r="X22" s="16">
         <f>X$1/$H22</f>
-        <v>1.75</v>
+        <v>1.6519081595144083</v>
       </c>
       <c r="Y22" s="16">
         <f>Y$1/$H22</f>
-        <v>1.8</v>
+        <v>1.6991055355005342</v>
       </c>
       <c r="Z22" s="16">
         <f>Z$1/$H22</f>
-        <v>1.85</v>
+        <v>1.7463029114866602</v>
       </c>
       <c r="AA22" s="16">
         <f>AA$1/$H22</f>
-        <v>1.9</v>
+        <v>1.7935002874727861</v>
       </c>
       <c r="AB22" s="16">
         <f>AB$1/$H22</f>
-        <v>1.95</v>
+        <v>1.8406976634589121</v>
       </c>
       <c r="AC22" s="16">
         <f>AC$1/$H22</f>
-        <v>2</v>
+        <v>1.887895039445038</v>
       </c>
       <c r="AD22" s="16">
         <f>AD$1/$H22</f>
-        <v>2.0499999999999998</v>
+        <v>1.9350924154311637</v>
       </c>
       <c r="AE22" s="16">
         <f>AE$1/$H22</f>
-        <v>2.1</v>
+        <v>1.9822897914172899</v>
       </c>
       <c r="AF22" s="16">
         <f>AF$1/$H22</f>
-        <v>2.15</v>
+        <v>2.0294871674034156</v>
       </c>
       <c r="AG22" s="16">
         <f>AG$1/$H22</f>
-        <v>2.2000000000000002</v>
+        <v>2.076684543389542</v>
       </c>
       <c r="AH22" s="16">
         <f>AH$1/$H22</f>
-        <v>2.25</v>
+        <v>2.1238819193756679</v>
       </c>
       <c r="AI22" s="16">
         <f>AI$1/$H22</f>
-        <v>2.2999999999999998</v>
+        <v>2.1710792953617934</v>
       </c>
       <c r="AJ22" s="16">
         <f>AJ$1/$H22</f>
-        <v>2.35</v>
+        <v>2.2182766713479198</v>
       </c>
       <c r="AK22" s="16">
         <f>AK$1/$H22</f>
-        <v>2.4</v>
+        <v>2.2654740473340453</v>
       </c>
       <c r="AL22" s="16">
         <f>AL$1/$H22</f>
-        <v>2.4500000000000002</v>
+        <v>2.3126714233201717</v>
       </c>
       <c r="AM22" s="4">
         <f>AM$1/$H22</f>
-        <v>2.5</v>
+        <v>2.3598687993062977</v>
       </c>
       <c r="AN22" s="16">
         <f>AN$1/$H22</f>
-        <v>2.5499999999999998</v>
+        <v>2.4070661752924232</v>
       </c>
       <c r="AO22" s="16">
         <f>AO$1/$H22</f>
-        <v>2.6</v>
+        <v>2.4542635512785496</v>
       </c>
       <c r="AP22" s="16">
         <f>AP$1/$H22</f>
-        <v>2.65</v>
+        <v>2.5014609272646751</v>
       </c>
       <c r="AQ22" s="16">
         <f>AQ$1/$H22</f>
-        <v>2.7</v>
+        <v>2.5486583032508014</v>
       </c>
       <c r="AR22" s="16">
         <f>AR$1/$H22</f>
-        <v>2.75</v>
+        <v>2.5958556792369274</v>
       </c>
       <c r="AS22" s="16">
         <f>AS$1/$H22</f>
-        <v>2.8</v>
+        <v>2.6430530552230529</v>
       </c>
       <c r="AT22" s="16">
         <f>AT$1/$H22</f>
-        <v>2.85</v>
+        <v>2.6902504312091793</v>
       </c>
       <c r="AU22" s="16">
         <f>AU$1/$H22</f>
-        <v>2.9</v>
+        <v>2.7374478071953052</v>
       </c>
       <c r="AV22" s="16">
         <f>AV$1/$H22</f>
-        <v>3</v>
+        <v>2.8318425591675571</v>
       </c>
       <c r="AW22" s="17">
         <f>AW$1/$H22</f>
-        <v>3.1</v>
+        <v>2.926237311139809</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
@@ -5594,190 +4919,190 @@
         <v>19</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
       <c r="D23" s="14">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="E23" s="30">
         <v>0.85</v>
       </c>
       <c r="F23" s="15">
-        <v>0.52705882352941003</v>
+        <v>1.2509307520477</v>
       </c>
       <c r="G23" s="15">
-        <v>0.99098039215685996</v>
+        <v>0.74968974931745003</v>
       </c>
       <c r="H23" s="27">
-        <f>G23*D23</f>
-        <v>0.99098039215685996</v>
+        <f>D23/G23</f>
+        <v>1.0537692435027293</v>
       </c>
       <c r="I23" s="16">
         <f>I$1/$H23</f>
-        <v>1.0091017016224801</v>
+        <v>0.94897436622462017</v>
       </c>
       <c r="J23" s="16">
         <f>J$1/$H23</f>
-        <v>1.0595567867036042</v>
+        <v>0.99642308453585127</v>
       </c>
       <c r="K23" s="16">
         <f>K$1/$H23</f>
-        <v>1.1100118717847283</v>
+        <v>1.0438718028470824</v>
       </c>
       <c r="L23" s="16">
         <f>L$1/$H23</f>
-        <v>1.1604669568658521</v>
+        <v>1.0913205211583132</v>
       </c>
       <c r="M23" s="16">
         <f>M$1/$H23</f>
-        <v>1.2109220419469759</v>
+        <v>1.1387692394695441</v>
       </c>
       <c r="N23" s="16">
         <f>N$1/$H23</f>
-        <v>1.2613771270281</v>
+        <v>1.1862179577807752</v>
       </c>
       <c r="O23" s="16">
         <f>O$1/$H23</f>
-        <v>1.3118322121092241</v>
+        <v>1.2336666760920063</v>
       </c>
       <c r="P23" s="16">
         <f>P$1/$H23</f>
-        <v>1.3622872971903481</v>
+        <v>1.2811153944032374</v>
       </c>
       <c r="Q23" s="16">
         <f>Q$1/$H23</f>
-        <v>1.412742382271472</v>
+        <v>1.3285641127144683</v>
       </c>
       <c r="R23" s="16">
         <f>R$1/$H23</f>
-        <v>1.463197467352596</v>
+        <v>1.3760128310256992</v>
       </c>
       <c r="S23" s="16">
         <f>S$1/$H23</f>
-        <v>1.5136525524337201</v>
+        <v>1.4234615493369303</v>
       </c>
       <c r="T23" s="16">
         <f>T$1/$H23</f>
-        <v>1.5641076375148442</v>
+        <v>1.4709102676481614</v>
       </c>
       <c r="U23" s="16">
         <f>U$1/$H23</f>
-        <v>1.6145627225959682</v>
+        <v>1.5183589859593924</v>
       </c>
       <c r="V23" s="16">
         <f>V$1/$H23</f>
-        <v>1.6650178076770921</v>
+        <v>1.5658077042706233</v>
       </c>
       <c r="W23" s="16">
         <f>W$1/$H23</f>
-        <v>1.7154728927582161</v>
+        <v>1.6132564225818544</v>
       </c>
       <c r="X23" s="16">
         <f>X$1/$H23</f>
-        <v>1.7659279778393402</v>
+        <v>1.6607051408930853</v>
       </c>
       <c r="Y23" s="16">
         <f>Y$1/$H23</f>
-        <v>1.8163830629204643</v>
+        <v>1.7081538592043164</v>
       </c>
       <c r="Z23" s="16">
         <f>Z$1/$H23</f>
-        <v>1.8668381480015883</v>
+        <v>1.7556025775155475</v>
       </c>
       <c r="AA23" s="16">
         <f>AA$1/$H23</f>
-        <v>1.9172932330827122</v>
+        <v>1.8030512958267784</v>
       </c>
       <c r="AB23" s="16">
         <f>AB$1/$H23</f>
-        <v>1.9677483181638362</v>
+        <v>1.8505000141380095</v>
       </c>
       <c r="AC23" s="16">
         <f>AC$1/$H23</f>
-        <v>2.0182034032449603</v>
+        <v>1.8979487324492403</v>
       </c>
       <c r="AD23" s="16">
         <f>AD$1/$H23</f>
-        <v>2.0686584883260841</v>
+        <v>1.9453974507604712</v>
       </c>
       <c r="AE23" s="16">
         <f>AE$1/$H23</f>
-        <v>2.1191135734072084</v>
+        <v>1.9928461690717025</v>
       </c>
       <c r="AF23" s="16">
         <f>AF$1/$H23</f>
-        <v>2.1695686584883322</v>
+        <v>2.0402948873829332</v>
       </c>
       <c r="AG23" s="16">
         <f>AG$1/$H23</f>
-        <v>2.2200237435694565</v>
+        <v>2.0877436056941647</v>
       </c>
       <c r="AH23" s="16">
         <f>AH$1/$H23</f>
-        <v>2.2704788286505804</v>
+        <v>2.1351923240053954</v>
       </c>
       <c r="AI23" s="16">
         <f>AI$1/$H23</f>
-        <v>2.3209339137317042</v>
+        <v>2.1826410423166265</v>
       </c>
       <c r="AJ23" s="16">
         <f>AJ$1/$H23</f>
-        <v>2.3713889988128285</v>
+        <v>2.2300897606278576</v>
       </c>
       <c r="AK23" s="16">
         <f>AK$1/$H23</f>
-        <v>2.4218440838939519</v>
+        <v>2.2775384789390882</v>
       </c>
       <c r="AL23" s="16">
         <f>AL$1/$H23</f>
-        <v>2.4722991689750762</v>
+        <v>2.3249871972503198</v>
       </c>
       <c r="AM23" s="4">
         <f>AM$1/$H23</f>
-        <v>2.5227542540562</v>
+        <v>2.3724359155615504</v>
       </c>
       <c r="AN23" s="16">
         <f>AN$1/$H23</f>
-        <v>2.5732093391373239</v>
+        <v>2.4198846338727815</v>
       </c>
       <c r="AO23" s="16">
         <f>AO$1/$H23</f>
-        <v>2.6236644242184481</v>
+        <v>2.4673333521840126</v>
       </c>
       <c r="AP23" s="16">
         <f>AP$1/$H23</f>
-        <v>2.674119509299572</v>
+        <v>2.5147820704952433</v>
       </c>
       <c r="AQ23" s="16">
         <f>AQ$1/$H23</f>
-        <v>2.7245745943806963</v>
+        <v>2.5622307888064748</v>
       </c>
       <c r="AR23" s="16">
         <f>AR$1/$H23</f>
-        <v>2.7750296794618201</v>
+        <v>2.6096795071177055</v>
       </c>
       <c r="AS23" s="16">
         <f>AS$1/$H23</f>
-        <v>2.8254847645429439</v>
+        <v>2.6571282254289366</v>
       </c>
       <c r="AT23" s="16">
         <f>AT$1/$H23</f>
-        <v>2.8759398496240682</v>
+        <v>2.7045769437401677</v>
       </c>
       <c r="AU23" s="16">
         <f>AU$1/$H23</f>
-        <v>2.9263949347051921</v>
+        <v>2.7520256620513983</v>
       </c>
       <c r="AV23" s="16">
         <f>AV$1/$H23</f>
-        <v>3.0273051048674402</v>
+        <v>2.8469230986738605</v>
       </c>
       <c r="AW23" s="17">
         <f>AW$1/$H23</f>
-        <v>3.1282152750296883</v>
+        <v>2.9418205352963227</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
@@ -5785,190 +5110,190 @@
         <v>19</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
       <c r="D24" s="14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E24" s="30">
         <v>0.85</v>
       </c>
       <c r="F24" s="15">
-        <v>0.28644500759146002</v>
+        <v>0.52705882352941003</v>
       </c>
       <c r="G24" s="15">
-        <v>1</v>
+        <v>0.99098039215685996</v>
       </c>
       <c r="H24" s="27">
-        <f>G24*D24</f>
-        <v>0.92</v>
+        <f>D24/G24</f>
+        <v>1.0091017016224801</v>
       </c>
       <c r="I24" s="16">
         <f>I$1/$H24</f>
-        <v>1.0869565217391304</v>
+        <v>0.99098039215685996</v>
       </c>
       <c r="J24" s="16">
         <f>J$1/$H24</f>
-        <v>1.1413043478260869</v>
+        <v>1.040529411764703</v>
       </c>
       <c r="K24" s="16">
         <f>K$1/$H24</f>
-        <v>1.1956521739130435</v>
+        <v>1.090078431372546</v>
       </c>
       <c r="L24" s="16">
         <f>L$1/$H24</f>
-        <v>1.2499999999999998</v>
+        <v>1.1396274509803888</v>
       </c>
       <c r="M24" s="16">
         <f>M$1/$H24</f>
-        <v>1.3043478260869563</v>
+        <v>1.1891764705882319</v>
       </c>
       <c r="N24" s="16">
         <f>N$1/$H24</f>
-        <v>1.3586956521739131</v>
+        <v>1.2387254901960749</v>
       </c>
       <c r="O24" s="16">
         <f>O$1/$H24</f>
-        <v>1.4130434782608696</v>
+        <v>1.2882745098039179</v>
       </c>
       <c r="P24" s="16">
         <f>P$1/$H24</f>
-        <v>1.4673913043478262</v>
+        <v>1.3378235294117609</v>
       </c>
       <c r="Q24" s="16">
         <f>Q$1/$H24</f>
-        <v>1.5217391304347825</v>
+        <v>1.3873725490196038</v>
       </c>
       <c r="R24" s="16">
         <f>R$1/$H24</f>
-        <v>1.576086956521739</v>
+        <v>1.4369215686274468</v>
       </c>
       <c r="S24" s="16">
         <f>S$1/$H24</f>
-        <v>1.6304347826086956</v>
+        <v>1.4864705882352898</v>
       </c>
       <c r="T24" s="16">
         <f>T$1/$H24</f>
-        <v>1.6847826086956521</v>
+        <v>1.536019607843133</v>
       </c>
       <c r="U24" s="16">
         <f>U$1/$H24</f>
-        <v>1.7391304347826086</v>
+        <v>1.5855686274509759</v>
       </c>
       <c r="V24" s="16">
         <f>V$1/$H24</f>
-        <v>1.793478260869565</v>
+        <v>1.6351176470588187</v>
       </c>
       <c r="W24" s="16">
         <f>W$1/$H24</f>
-        <v>1.8478260869565215</v>
+        <v>1.6846666666666619</v>
       </c>
       <c r="X24" s="16">
         <f>X$1/$H24</f>
-        <v>1.9021739130434783</v>
+        <v>1.7342156862745048</v>
       </c>
       <c r="Y24" s="16">
         <f>Y$1/$H24</f>
-        <v>1.9565217391304348</v>
+        <v>1.7837647058823478</v>
       </c>
       <c r="Z24" s="16">
         <f>Z$1/$H24</f>
-        <v>2.0108695652173911</v>
+        <v>1.833313725490191</v>
       </c>
       <c r="AA24" s="16">
         <f>AA$1/$H24</f>
-        <v>2.0652173913043477</v>
+        <v>1.8828627450980338</v>
       </c>
       <c r="AB24" s="16">
         <f>AB$1/$H24</f>
-        <v>2.1195652173913042</v>
+        <v>1.9324117647058767</v>
       </c>
       <c r="AC24" s="16">
         <f>AC$1/$H24</f>
-        <v>2.1739130434782608</v>
+        <v>1.9819607843137199</v>
       </c>
       <c r="AD24" s="16">
         <f>AD$1/$H24</f>
-        <v>2.2282608695652173</v>
+        <v>2.0315098039215624</v>
       </c>
       <c r="AE24" s="16">
         <f>AE$1/$H24</f>
-        <v>2.2826086956521738</v>
+        <v>2.0810588235294061</v>
       </c>
       <c r="AF24" s="16">
         <f>AF$1/$H24</f>
-        <v>2.3369565217391304</v>
+        <v>2.1306078431372488</v>
       </c>
       <c r="AG24" s="16">
         <f>AG$1/$H24</f>
-        <v>2.3913043478260869</v>
+        <v>2.180156862745092</v>
       </c>
       <c r="AH24" s="16">
         <f>AH$1/$H24</f>
-        <v>2.4456521739130435</v>
+        <v>2.2297058823529348</v>
       </c>
       <c r="AI24" s="16">
         <f>AI$1/$H24</f>
-        <v>2.4999999999999996</v>
+        <v>2.2792549019607775</v>
       </c>
       <c r="AJ24" s="16">
         <f>AJ$1/$H24</f>
-        <v>2.5543478260869565</v>
+        <v>2.3288039215686207</v>
       </c>
       <c r="AK24" s="16">
         <f>AK$1/$H24</f>
-        <v>2.6086956521739126</v>
+        <v>2.3783529411764639</v>
       </c>
       <c r="AL24" s="16">
         <f>AL$1/$H24</f>
-        <v>2.6630434782608696</v>
+        <v>2.4279019607843071</v>
       </c>
       <c r="AM24" s="4">
         <f>AM$1/$H24</f>
-        <v>2.7173913043478262</v>
+        <v>2.4774509803921498</v>
       </c>
       <c r="AN24" s="16">
         <f>AN$1/$H24</f>
-        <v>2.7717391304347823</v>
+        <v>2.5269999999999926</v>
       </c>
       <c r="AO24" s="16">
         <f>AO$1/$H24</f>
-        <v>2.8260869565217392</v>
+        <v>2.5765490196078358</v>
       </c>
       <c r="AP24" s="16">
         <f>AP$1/$H24</f>
-        <v>2.8804347826086953</v>
+        <v>2.6260980392156785</v>
       </c>
       <c r="AQ24" s="16">
         <f>AQ$1/$H24</f>
-        <v>2.9347826086956523</v>
+        <v>2.6756470588235217</v>
       </c>
       <c r="AR24" s="16">
         <f>AR$1/$H24</f>
-        <v>2.9891304347826084</v>
+        <v>2.7251960784313649</v>
       </c>
       <c r="AS24" s="16">
         <f>AS$1/$H24</f>
-        <v>3.043478260869565</v>
+        <v>2.7747450980392077</v>
       </c>
       <c r="AT24" s="16">
         <f>AT$1/$H24</f>
-        <v>3.0978260869565215</v>
+        <v>2.8242941176470509</v>
       </c>
       <c r="AU24" s="16">
         <f>AU$1/$H24</f>
-        <v>3.152173913043478</v>
+        <v>2.8738431372548936</v>
       </c>
       <c r="AV24" s="16">
         <f>AV$1/$H24</f>
-        <v>3.2608695652173911</v>
+        <v>2.9729411764705795</v>
       </c>
       <c r="AW24" s="17">
         <f>AW$1/$H24</f>
-        <v>3.3695652173913042</v>
+        <v>3.0720392156862659</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
@@ -5976,190 +5301,190 @@
         <v>19</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C25" s="13">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="D25" s="14">
-        <v>0.83299999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="E25" s="30">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="F25" s="15">
-        <v>0.43827055091860001</v>
+        <v>1.1437080877535999</v>
       </c>
       <c r="G25" s="15">
-        <v>1</v>
+        <v>0.78543063741548003</v>
       </c>
       <c r="H25" s="27">
-        <f>G25*D25</f>
-        <v>0.83299999999999996</v>
+        <f>D25/G25</f>
+        <v>1.0058176525931759</v>
       </c>
       <c r="I25" s="16">
         <f>I$1/$H25</f>
-        <v>1.2004801920768309</v>
+        <v>0.99421599672845573</v>
       </c>
       <c r="J25" s="16">
         <f>J$1/$H25</f>
-        <v>1.2605042016806725</v>
+        <v>1.0439267965648786</v>
       </c>
       <c r="K25" s="16">
         <f>K$1/$H25</f>
-        <v>1.320528211284514</v>
+        <v>1.0936375964013014</v>
       </c>
       <c r="L25" s="16">
         <f>L$1/$H25</f>
-        <v>1.3805522208883554</v>
+        <v>1.143348396237724</v>
       </c>
       <c r="M25" s="16">
         <f>M$1/$H25</f>
-        <v>1.440576230492197</v>
+        <v>1.1930591960741468</v>
       </c>
       <c r="N25" s="16">
         <f>N$1/$H25</f>
-        <v>1.5006002400960385</v>
+        <v>1.2427699959105696</v>
       </c>
       <c r="O25" s="16">
         <f>O$1/$H25</f>
-        <v>1.5606242496998801</v>
+        <v>1.2924807957469926</v>
       </c>
       <c r="P25" s="16">
         <f>P$1/$H25</f>
-        <v>1.6206482593037217</v>
+        <v>1.3421915955834154</v>
       </c>
       <c r="Q25" s="16">
         <f>Q$1/$H25</f>
-        <v>1.680672268907563</v>
+        <v>1.391902395419838</v>
       </c>
       <c r="R25" s="16">
         <f>R$1/$H25</f>
-        <v>1.7406962785114046</v>
+        <v>1.4416131952562607</v>
       </c>
       <c r="S25" s="16">
         <f>S$1/$H25</f>
-        <v>1.8007202881152462</v>
+        <v>1.4913239950926835</v>
       </c>
       <c r="T25" s="16">
         <f>T$1/$H25</f>
-        <v>1.8607442977190878</v>
+        <v>1.5410347949291063</v>
       </c>
       <c r="U25" s="16">
         <f>U$1/$H25</f>
-        <v>1.9207683073229294</v>
+        <v>1.5907455947655293</v>
       </c>
       <c r="V25" s="16">
         <f>V$1/$H25</f>
-        <v>1.9807923169267707</v>
+        <v>1.6404563946019519</v>
       </c>
       <c r="W25" s="16">
         <f>W$1/$H25</f>
-        <v>2.0408163265306123</v>
+        <v>1.6901671944383747</v>
       </c>
       <c r="X25" s="16">
         <f>X$1/$H25</f>
-        <v>2.1008403361344539</v>
+        <v>1.7398779942747975</v>
       </c>
       <c r="Y25" s="16">
         <f>Y$1/$H25</f>
-        <v>2.1608643457382954</v>
+        <v>1.7895887941112203</v>
       </c>
       <c r="Z25" s="16">
         <f>Z$1/$H25</f>
-        <v>2.220888355342137</v>
+        <v>1.8392995939476431</v>
       </c>
       <c r="AA25" s="16">
         <f>AA$1/$H25</f>
-        <v>2.2809123649459786</v>
+        <v>1.8890103937840659</v>
       </c>
       <c r="AB25" s="16">
         <f>AB$1/$H25</f>
-        <v>2.3409363745498202</v>
+        <v>1.9387211936204887</v>
       </c>
       <c r="AC25" s="16">
         <f>AC$1/$H25</f>
-        <v>2.4009603841536618</v>
+        <v>1.9884319934569115</v>
       </c>
       <c r="AD25" s="16">
         <f>AD$1/$H25</f>
-        <v>2.4609843937575029</v>
+        <v>2.0381427932933343</v>
       </c>
       <c r="AE25" s="16">
         <f>AE$1/$H25</f>
-        <v>2.5210084033613449</v>
+        <v>2.0878535931297573</v>
       </c>
       <c r="AF25" s="16">
         <f>AF$1/$H25</f>
-        <v>2.581032412965186</v>
+        <v>2.1375643929661798</v>
       </c>
       <c r="AG25" s="16">
         <f>AG$1/$H25</f>
-        <v>2.6410564225690281</v>
+        <v>2.1872751928026029</v>
       </c>
       <c r="AH25" s="16">
         <f>AH$1/$H25</f>
-        <v>2.7010804321728692</v>
+        <v>2.2369859926390254</v>
       </c>
       <c r="AI25" s="16">
         <f>AI$1/$H25</f>
-        <v>2.7611044417767108</v>
+        <v>2.286696792475448</v>
       </c>
       <c r="AJ25" s="16">
         <f>AJ$1/$H25</f>
-        <v>2.8211284513805523</v>
+        <v>2.336407592311871</v>
       </c>
       <c r="AK25" s="16">
         <f>AK$1/$H25</f>
-        <v>2.8811524609843939</v>
+        <v>2.3861183921482936</v>
       </c>
       <c r="AL25" s="16">
         <f>AL$1/$H25</f>
-        <v>2.9411764705882355</v>
+        <v>2.4358291919847166</v>
       </c>
       <c r="AM25" s="4">
         <f>AM$1/$H25</f>
-        <v>3.0012004801920771</v>
+        <v>2.4855399918211392</v>
       </c>
       <c r="AN25" s="16">
         <f>AN$1/$H25</f>
-        <v>3.0612244897959182</v>
+        <v>2.5352507916575617</v>
       </c>
       <c r="AO25" s="16">
         <f>AO$1/$H25</f>
-        <v>3.1212484993997602</v>
+        <v>2.5849615914939852</v>
       </c>
       <c r="AP25" s="16">
         <f>AP$1/$H25</f>
-        <v>3.1812725090036014</v>
+        <v>2.6346723913304078</v>
       </c>
       <c r="AQ25" s="16">
         <f>AQ$1/$H25</f>
-        <v>3.2412965186074434</v>
+        <v>2.6843831911668308</v>
       </c>
       <c r="AR25" s="16">
         <f>AR$1/$H25</f>
-        <v>3.3013205282112845</v>
+        <v>2.7340939910032533</v>
       </c>
       <c r="AS25" s="16">
         <f>AS$1/$H25</f>
-        <v>3.3613445378151261</v>
+        <v>2.7838047908396759</v>
       </c>
       <c r="AT25" s="16">
         <f>AT$1/$H25</f>
-        <v>3.4213685474189677</v>
+        <v>2.8335155906760989</v>
       </c>
       <c r="AU25" s="16">
         <f>AU$1/$H25</f>
-        <v>3.4813925570228093</v>
+        <v>2.8832263905125215</v>
       </c>
       <c r="AV25" s="16">
         <f>AV$1/$H25</f>
-        <v>3.6014405762304924</v>
+        <v>2.9826479901853671</v>
       </c>
       <c r="AW25" s="17">
         <f>AW$1/$H25</f>
-        <v>3.7214885954381756</v>
+        <v>3.0820695898582127</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
@@ -6167,190 +5492,190 @@
         <v>19</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C26" s="13">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="D26" s="14">
-        <v>0.85499999999999998</v>
+        <v>1</v>
       </c>
       <c r="E26" s="30">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="F26" s="15">
-        <v>0.61883103893387004</v>
+        <v>0.33882354063145997</v>
       </c>
       <c r="G26" s="15">
-        <v>0.96038965368870999</v>
+        <v>1</v>
       </c>
       <c r="H26" s="27">
-        <f>G26*D26</f>
-        <v>0.821133153903847</v>
+        <f>D26/G26</f>
+        <v>1</v>
       </c>
       <c r="I26" s="16">
         <f>I$1/$H26</f>
-        <v>1.217829282919318</v>
+        <v>1</v>
       </c>
       <c r="J26" s="16">
         <f>J$1/$H26</f>
-        <v>1.2787207470652839</v>
+        <v>1.05</v>
       </c>
       <c r="K26" s="16">
         <f>K$1/$H26</f>
-        <v>1.3396122112112498</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L26" s="16">
         <f>L$1/$H26</f>
-        <v>1.4005036753572155</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M26" s="16">
         <f>M$1/$H26</f>
-        <v>1.4613951395031817</v>
+        <v>1.2</v>
       </c>
       <c r="N26" s="16">
         <f>N$1/$H26</f>
-        <v>1.5222866036491476</v>
+        <v>1.25</v>
       </c>
       <c r="O26" s="16">
         <f>O$1/$H26</f>
-        <v>1.5831780677951135</v>
+        <v>1.3</v>
       </c>
       <c r="P26" s="16">
         <f>P$1/$H26</f>
-        <v>1.6440695319410794</v>
+        <v>1.35</v>
       </c>
       <c r="Q26" s="16">
         <f>Q$1/$H26</f>
-        <v>1.7049609960870451</v>
+        <v>1.4</v>
       </c>
       <c r="R26" s="16">
         <f>R$1/$H26</f>
-        <v>1.765852460233011</v>
+        <v>1.45</v>
       </c>
       <c r="S26" s="16">
         <f>S$1/$H26</f>
-        <v>1.8267439243789771</v>
+        <v>1.5</v>
       </c>
       <c r="T26" s="16">
         <f>T$1/$H26</f>
-        <v>1.8876353885249431</v>
+        <v>1.55</v>
       </c>
       <c r="U26" s="16">
         <f>U$1/$H26</f>
-        <v>1.948526852670909</v>
+        <v>1.6</v>
       </c>
       <c r="V26" s="16">
         <f>V$1/$H26</f>
-        <v>2.0094183168168747</v>
+        <v>1.65</v>
       </c>
       <c r="W26" s="16">
         <f>W$1/$H26</f>
-        <v>2.0703097809628406</v>
+        <v>1.7</v>
       </c>
       <c r="X26" s="16">
         <f>X$1/$H26</f>
-        <v>2.1312012451088065</v>
+        <v>1.75</v>
       </c>
       <c r="Y26" s="16">
         <f>Y$1/$H26</f>
-        <v>2.1920927092547724</v>
+        <v>1.8</v>
       </c>
       <c r="Z26" s="16">
         <f>Z$1/$H26</f>
-        <v>2.2529841734007383</v>
+        <v>1.85</v>
       </c>
       <c r="AA26" s="16">
         <f>AA$1/$H26</f>
-        <v>2.3138756375467042</v>
+        <v>1.9</v>
       </c>
       <c r="AB26" s="16">
         <f>AB$1/$H26</f>
-        <v>2.3747671016926701</v>
+        <v>1.95</v>
       </c>
       <c r="AC26" s="16">
         <f>AC$1/$H26</f>
-        <v>2.435658565838636</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="16">
         <f>AD$1/$H26</f>
-        <v>2.4965500299846015</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="AE26" s="16">
         <f>AE$1/$H26</f>
-        <v>2.5574414941305679</v>
+        <v>2.1</v>
       </c>
       <c r="AF26" s="16">
         <f>AF$1/$H26</f>
-        <v>2.6183329582765338</v>
+        <v>2.15</v>
       </c>
       <c r="AG26" s="16">
         <f>AG$1/$H26</f>
-        <v>2.6792244224224997</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AH26" s="16">
         <f>AH$1/$H26</f>
-        <v>2.7401158865684656</v>
+        <v>2.25</v>
       </c>
       <c r="AI26" s="16">
         <f>AI$1/$H26</f>
-        <v>2.8010073507144311</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AJ26" s="16">
         <f>AJ$1/$H26</f>
-        <v>2.8618988148603974</v>
+        <v>2.35</v>
       </c>
       <c r="AK26" s="16">
         <f>AK$1/$H26</f>
-        <v>2.9227902790063633</v>
+        <v>2.4</v>
       </c>
       <c r="AL26" s="16">
         <f>AL$1/$H26</f>
-        <v>2.9836817431523293</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AM26" s="4">
         <f>AM$1/$H26</f>
-        <v>3.0445732072982952</v>
+        <v>2.5</v>
       </c>
       <c r="AN26" s="16">
         <f>AN$1/$H26</f>
-        <v>3.1054646714442606</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AO26" s="16">
         <f>AO$1/$H26</f>
-        <v>3.166356135590227</v>
+        <v>2.6</v>
       </c>
       <c r="AP26" s="16">
         <f>AP$1/$H26</f>
-        <v>3.2272475997361925</v>
+        <v>2.65</v>
       </c>
       <c r="AQ26" s="16">
         <f>AQ$1/$H26</f>
-        <v>3.2881390638821588</v>
+        <v>2.7</v>
       </c>
       <c r="AR26" s="16">
         <f>AR$1/$H26</f>
-        <v>3.3490305280281247</v>
+        <v>2.75</v>
       </c>
       <c r="AS26" s="16">
         <f>AS$1/$H26</f>
-        <v>3.4099219921740902</v>
+        <v>2.8</v>
       </c>
       <c r="AT26" s="16">
         <f>AT$1/$H26</f>
-        <v>3.4708134563200566</v>
+        <v>2.85</v>
       </c>
       <c r="AU26" s="16">
         <f>AU$1/$H26</f>
-        <v>3.531704920466022</v>
+        <v>2.9</v>
       </c>
       <c r="AV26" s="16">
         <f>AV$1/$H26</f>
-        <v>3.6534878487579543</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="17">
         <f>AW$1/$H26</f>
-        <v>3.7752707770498861</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -6358,190 +5683,190 @@
         <v>19</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
       <c r="D27" s="14">
-        <v>0.8</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="E27" s="30">
         <v>0.85</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>61</v>
+      <c r="F27" s="15">
+        <v>1.497968537487</v>
       </c>
       <c r="G27" s="15">
-        <v>1</v>
+        <v>0.66734382083765997</v>
       </c>
       <c r="H27" s="27">
-        <f>G27*D27</f>
-        <v>0.8</v>
+        <f>D27/G27</f>
+        <v>0.99798631410721217</v>
       </c>
       <c r="I27" s="16">
         <f>I$1/$H27</f>
-        <v>1.25</v>
+        <v>1.0020177490054953</v>
       </c>
       <c r="J27" s="16">
         <f>J$1/$H27</f>
-        <v>1.3125</v>
+        <v>1.0521186364557702</v>
       </c>
       <c r="K27" s="16">
         <f>K$1/$H27</f>
-        <v>1.375</v>
+        <v>1.1022195239060451</v>
       </c>
       <c r="L27" s="16">
         <f>L$1/$H27</f>
-        <v>1.4374999999999998</v>
+        <v>1.1523204113563197</v>
       </c>
       <c r="M27" s="16">
         <f>M$1/$H27</f>
-        <v>1.4999999999999998</v>
+        <v>1.2024212988065943</v>
       </c>
       <c r="N27" s="16">
         <f>N$1/$H27</f>
-        <v>1.5625</v>
+        <v>1.2525221862568692</v>
       </c>
       <c r="O27" s="16">
         <f>O$1/$H27</f>
-        <v>1.625</v>
+        <v>1.302623073707144</v>
       </c>
       <c r="P27" s="16">
         <f>P$1/$H27</f>
-        <v>1.6875</v>
+        <v>1.3527239611574189</v>
       </c>
       <c r="Q27" s="16">
         <f>Q$1/$H27</f>
-        <v>1.7499999999999998</v>
+        <v>1.4028248486076935</v>
       </c>
       <c r="R27" s="16">
         <f>R$1/$H27</f>
-        <v>1.8124999999999998</v>
+        <v>1.4529257360579682</v>
       </c>
       <c r="S27" s="16">
         <f>S$1/$H27</f>
-        <v>1.875</v>
+        <v>1.503026623508243</v>
       </c>
       <c r="T27" s="16">
         <f>T$1/$H27</f>
-        <v>1.9375</v>
+        <v>1.5531275109585179</v>
       </c>
       <c r="U27" s="16">
         <f>U$1/$H27</f>
-        <v>2</v>
+        <v>1.6032283984087927</v>
       </c>
       <c r="V27" s="16">
         <f>V$1/$H27</f>
-        <v>2.0624999999999996</v>
+        <v>1.6533292858590674</v>
       </c>
       <c r="W27" s="16">
         <f>W$1/$H27</f>
-        <v>2.125</v>
+        <v>1.7034301733093422</v>
       </c>
       <c r="X27" s="16">
         <f>X$1/$H27</f>
-        <v>2.1875</v>
+        <v>1.7535310607596168</v>
       </c>
       <c r="Y27" s="16">
         <f>Y$1/$H27</f>
-        <v>2.25</v>
+        <v>1.8036319482098917</v>
       </c>
       <c r="Z27" s="16">
         <f>Z$1/$H27</f>
-        <v>2.3125</v>
+        <v>1.8537328356601666</v>
       </c>
       <c r="AA27" s="16">
         <f>AA$1/$H27</f>
-        <v>2.3749999999999996</v>
+        <v>1.9038337231104412</v>
       </c>
       <c r="AB27" s="16">
         <f>AB$1/$H27</f>
-        <v>2.4375</v>
+        <v>1.953934610560716</v>
       </c>
       <c r="AC27" s="16">
         <f>AC$1/$H27</f>
-        <v>2.5</v>
+        <v>2.0040354980109907</v>
       </c>
       <c r="AD27" s="16">
         <f>AD$1/$H27</f>
-        <v>2.5624999999999996</v>
+        <v>2.0541363854612653</v>
       </c>
       <c r="AE27" s="16">
         <f>AE$1/$H27</f>
-        <v>2.625</v>
+        <v>2.1042372729115404</v>
       </c>
       <c r="AF27" s="16">
         <f>AF$1/$H27</f>
-        <v>2.6874999999999996</v>
+        <v>2.154338160361815</v>
       </c>
       <c r="AG27" s="16">
         <f>AG$1/$H27</f>
-        <v>2.75</v>
+        <v>2.2044390478120901</v>
       </c>
       <c r="AH27" s="16">
         <f>AH$1/$H27</f>
-        <v>2.8125</v>
+        <v>2.2545399352623647</v>
       </c>
       <c r="AI27" s="16">
         <f>AI$1/$H27</f>
-        <v>2.8749999999999996</v>
+        <v>2.3046408227126394</v>
       </c>
       <c r="AJ27" s="16">
         <f>AJ$1/$H27</f>
-        <v>2.9375</v>
+        <v>2.3547417101629144</v>
       </c>
       <c r="AK27" s="16">
         <f>AK$1/$H27</f>
-        <v>2.9999999999999996</v>
+        <v>2.4048425976131886</v>
       </c>
       <c r="AL27" s="16">
         <f>AL$1/$H27</f>
-        <v>3.0625</v>
+        <v>2.4549434850634637</v>
       </c>
       <c r="AM27" s="4">
         <f>AM$1/$H27</f>
-        <v>3.125</v>
+        <v>2.5050443725137383</v>
       </c>
       <c r="AN27" s="16">
         <f>AN$1/$H27</f>
-        <v>3.1874999999999996</v>
+        <v>2.555145259964013</v>
       </c>
       <c r="AO27" s="16">
         <f>AO$1/$H27</f>
-        <v>3.25</v>
+        <v>2.6052461474142881</v>
       </c>
       <c r="AP27" s="16">
         <f>AP$1/$H27</f>
-        <v>3.3124999999999996</v>
+        <v>2.6553470348645627</v>
       </c>
       <c r="AQ27" s="16">
         <f>AQ$1/$H27</f>
-        <v>3.375</v>
+        <v>2.7054479223148378</v>
       </c>
       <c r="AR27" s="16">
         <f>AR$1/$H27</f>
-        <v>3.4375</v>
+        <v>2.7555488097651124</v>
       </c>
       <c r="AS27" s="16">
         <f>AS$1/$H27</f>
-        <v>3.4999999999999996</v>
+        <v>2.805649697215387</v>
       </c>
       <c r="AT27" s="16">
         <f>AT$1/$H27</f>
-        <v>3.5625</v>
+        <v>2.8557505846656621</v>
       </c>
       <c r="AU27" s="16">
         <f>AU$1/$H27</f>
-        <v>3.6249999999999996</v>
+        <v>2.9058514721159363</v>
       </c>
       <c r="AV27" s="16">
         <f>AV$1/$H27</f>
-        <v>3.75</v>
+        <v>3.006053247016486</v>
       </c>
       <c r="AW27" s="17">
         <f>AW$1/$H27</f>
-        <v>3.875</v>
+        <v>3.1062550219170357</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
@@ -6549,190 +5874,190 @@
         <v>19</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
       <c r="D28" s="14">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="E28" s="30">
         <v>0.85</v>
       </c>
       <c r="F28" s="15">
-        <v>0.47654504839910999</v>
+        <v>0.28644500759146002</v>
       </c>
       <c r="G28" s="15">
         <v>1</v>
       </c>
       <c r="H28" s="27">
-        <f>G28*D28</f>
-        <v>0.79</v>
+        <f>D28/G28</f>
+        <v>0.92</v>
       </c>
       <c r="I28" s="16">
         <f>I$1/$H28</f>
-        <v>1.2658227848101264</v>
+        <v>1.0869565217391304</v>
       </c>
       <c r="J28" s="16">
         <f>J$1/$H28</f>
-        <v>1.3291139240506329</v>
+        <v>1.1413043478260869</v>
       </c>
       <c r="K28" s="16">
         <f>K$1/$H28</f>
-        <v>1.3924050632911393</v>
+        <v>1.1956521739130435</v>
       </c>
       <c r="L28" s="16">
         <f>L$1/$H28</f>
-        <v>1.4556962025316453</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="M28" s="16">
         <f>M$1/$H28</f>
-        <v>1.5189873417721518</v>
+        <v>1.3043478260869563</v>
       </c>
       <c r="N28" s="16">
         <f>N$1/$H28</f>
-        <v>1.5822784810126582</v>
+        <v>1.3586956521739131</v>
       </c>
       <c r="O28" s="16">
         <f>O$1/$H28</f>
-        <v>1.6455696202531644</v>
+        <v>1.4130434782608696</v>
       </c>
       <c r="P28" s="16">
         <f>P$1/$H28</f>
-        <v>1.7088607594936709</v>
+        <v>1.4673913043478262</v>
       </c>
       <c r="Q28" s="16">
         <f>Q$1/$H28</f>
-        <v>1.7721518987341771</v>
+        <v>1.5217391304347825</v>
       </c>
       <c r="R28" s="16">
         <f>R$1/$H28</f>
-        <v>1.8354430379746833</v>
+        <v>1.576086956521739</v>
       </c>
       <c r="S28" s="16">
         <f>S$1/$H28</f>
-        <v>1.8987341772151898</v>
+        <v>1.6304347826086956</v>
       </c>
       <c r="T28" s="16">
         <f>T$1/$H28</f>
-        <v>1.9620253164556962</v>
+        <v>1.6847826086956521</v>
       </c>
       <c r="U28" s="16">
         <f>U$1/$H28</f>
-        <v>2.0253164556962027</v>
+        <v>1.7391304347826086</v>
       </c>
       <c r="V28" s="16">
         <f>V$1/$H28</f>
-        <v>2.0886075949367084</v>
+        <v>1.793478260869565</v>
       </c>
       <c r="W28" s="16">
         <f>W$1/$H28</f>
-        <v>2.1518987341772151</v>
+        <v>1.8478260869565215</v>
       </c>
       <c r="X28" s="16">
         <f>X$1/$H28</f>
-        <v>2.2151898734177213</v>
+        <v>1.9021739130434783</v>
       </c>
       <c r="Y28" s="16">
         <f>Y$1/$H28</f>
-        <v>2.278481012658228</v>
+        <v>1.9565217391304348</v>
       </c>
       <c r="Z28" s="16">
         <f>Z$1/$H28</f>
-        <v>2.3417721518987342</v>
+        <v>2.0108695652173911</v>
       </c>
       <c r="AA28" s="16">
         <f>AA$1/$H28</f>
-        <v>2.4050632911392404</v>
+        <v>2.0652173913043477</v>
       </c>
       <c r="AB28" s="16">
         <f>AB$1/$H28</f>
-        <v>2.4683544303797467</v>
+        <v>2.1195652173913042</v>
       </c>
       <c r="AC28" s="16">
         <f>AC$1/$H28</f>
-        <v>2.5316455696202529</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="AD28" s="16">
         <f>AD$1/$H28</f>
-        <v>2.5949367088607591</v>
+        <v>2.2282608695652173</v>
       </c>
       <c r="AE28" s="16">
         <f>AE$1/$H28</f>
-        <v>2.6582278481012658</v>
+        <v>2.2826086956521738</v>
       </c>
       <c r="AF28" s="16">
         <f>AF$1/$H28</f>
-        <v>2.721518987341772</v>
+        <v>2.3369565217391304</v>
       </c>
       <c r="AG28" s="16">
         <f>AG$1/$H28</f>
-        <v>2.7848101265822787</v>
+        <v>2.3913043478260869</v>
       </c>
       <c r="AH28" s="16">
         <f>AH$1/$H28</f>
-        <v>2.8481012658227849</v>
+        <v>2.4456521739130435</v>
       </c>
       <c r="AI28" s="16">
         <f>AI$1/$H28</f>
-        <v>2.9113924050632907</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="AJ28" s="16">
         <f>AJ$1/$H28</f>
-        <v>2.9746835443037973</v>
+        <v>2.5543478260869565</v>
       </c>
       <c r="AK28" s="16">
         <f>AK$1/$H28</f>
-        <v>3.0379746835443036</v>
+        <v>2.6086956521739126</v>
       </c>
       <c r="AL28" s="16">
         <f>AL$1/$H28</f>
-        <v>3.1012658227848102</v>
+        <v>2.6630434782608696</v>
       </c>
       <c r="AM28" s="4">
         <f>AM$1/$H28</f>
-        <v>3.1645569620253164</v>
+        <v>2.7173913043478262</v>
       </c>
       <c r="AN28" s="16">
         <f>AN$1/$H28</f>
-        <v>3.2278481012658222</v>
+        <v>2.7717391304347823</v>
       </c>
       <c r="AO28" s="16">
         <f>AO$1/$H28</f>
-        <v>3.2911392405063289</v>
+        <v>2.8260869565217392</v>
       </c>
       <c r="AP28" s="16">
         <f>AP$1/$H28</f>
-        <v>3.3544303797468351</v>
+        <v>2.8804347826086953</v>
       </c>
       <c r="AQ28" s="16">
         <f>AQ$1/$H28</f>
-        <v>3.4177215189873418</v>
+        <v>2.9347826086956523</v>
       </c>
       <c r="AR28" s="16">
         <f>AR$1/$H28</f>
-        <v>3.481012658227848</v>
+        <v>2.9891304347826084</v>
       </c>
       <c r="AS28" s="16">
         <f>AS$1/$H28</f>
-        <v>3.5443037974683542</v>
+        <v>3.043478260869565</v>
       </c>
       <c r="AT28" s="16">
         <f>AT$1/$H28</f>
-        <v>3.6075949367088609</v>
+        <v>3.0978260869565215</v>
       </c>
       <c r="AU28" s="16">
         <f>AU$1/$H28</f>
-        <v>3.6708860759493667</v>
+        <v>3.152173913043478</v>
       </c>
       <c r="AV28" s="16">
         <f>AV$1/$H28</f>
-        <v>3.7974683544303796</v>
+        <v>3.2608695652173911</v>
       </c>
       <c r="AW28" s="17">
         <f>AW$1/$H28</f>
-        <v>3.9240506329113924</v>
+        <v>3.3695652173913042</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
@@ -6740,190 +6065,190 @@
         <v>19</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
       </c>
       <c r="D29" s="14">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="E29" s="30">
         <v>0.85</v>
       </c>
       <c r="F29" s="15">
-        <v>0.47654504839910999</v>
+        <v>2.0078431405793</v>
       </c>
       <c r="G29" s="15">
-        <v>1</v>
+        <v>0.49738561980690998</v>
       </c>
       <c r="H29" s="27">
-        <f>G29*D29</f>
-        <v>0.79</v>
+        <f>D29/G29</f>
+        <v>0.90473061962405443</v>
       </c>
       <c r="I29" s="16">
         <f>I$1/$H29</f>
-        <v>1.2658227848101264</v>
+        <v>1.1053013773486888</v>
       </c>
       <c r="J29" s="16">
         <f>J$1/$H29</f>
-        <v>1.3291139240506329</v>
+        <v>1.1605664462161234</v>
       </c>
       <c r="K29" s="16">
         <f>K$1/$H29</f>
-        <v>1.3924050632911393</v>
+        <v>1.2158315150835577</v>
       </c>
       <c r="L29" s="16">
         <f>L$1/$H29</f>
-        <v>1.4556962025316453</v>
+        <v>1.271096583950992</v>
       </c>
       <c r="M29" s="16">
         <f>M$1/$H29</f>
-        <v>1.5189873417721518</v>
+        <v>1.3263616528184266</v>
       </c>
       <c r="N29" s="16">
         <f>N$1/$H29</f>
-        <v>1.5822784810126582</v>
+        <v>1.3816267216858609</v>
       </c>
       <c r="O29" s="16">
         <f>O$1/$H29</f>
-        <v>1.6455696202531644</v>
+        <v>1.4368917905532954</v>
       </c>
       <c r="P29" s="16">
         <f>P$1/$H29</f>
-        <v>1.7088607594936709</v>
+        <v>1.49215685942073</v>
       </c>
       <c r="Q29" s="16">
         <f>Q$1/$H29</f>
-        <v>1.7721518987341771</v>
+        <v>1.5474219282881643</v>
       </c>
       <c r="R29" s="16">
         <f>R$1/$H29</f>
-        <v>1.8354430379746833</v>
+        <v>1.6026869971555986</v>
       </c>
       <c r="S29" s="16">
         <f>S$1/$H29</f>
-        <v>1.8987341772151898</v>
+        <v>1.6579520660230331</v>
       </c>
       <c r="T29" s="16">
         <f>T$1/$H29</f>
-        <v>1.9620253164556962</v>
+        <v>1.7132171348904677</v>
       </c>
       <c r="U29" s="16">
         <f>U$1/$H29</f>
-        <v>2.0253164556962027</v>
+        <v>1.7684822037579022</v>
       </c>
       <c r="V29" s="16">
         <f>V$1/$H29</f>
-        <v>2.0886075949367084</v>
+        <v>1.8237472726253363</v>
       </c>
       <c r="W29" s="16">
         <f>W$1/$H29</f>
-        <v>2.1518987341772151</v>
+        <v>1.8790123414927709</v>
       </c>
       <c r="X29" s="16">
         <f>X$1/$H29</f>
-        <v>2.2151898734177213</v>
+        <v>1.9342774103602054</v>
       </c>
       <c r="Y29" s="16">
         <f>Y$1/$H29</f>
-        <v>2.278481012658228</v>
+        <v>1.9895424792276399</v>
       </c>
       <c r="Z29" s="16">
         <f>Z$1/$H29</f>
-        <v>2.3417721518987342</v>
+        <v>2.0448075480950743</v>
       </c>
       <c r="AA29" s="16">
         <f>AA$1/$H29</f>
-        <v>2.4050632911392404</v>
+        <v>2.1000726169625086</v>
       </c>
       <c r="AB29" s="16">
         <f>AB$1/$H29</f>
-        <v>2.4683544303797467</v>
+        <v>2.1553376858299429</v>
       </c>
       <c r="AC29" s="16">
         <f>AC$1/$H29</f>
-        <v>2.5316455696202529</v>
+        <v>2.2106027546973777</v>
       </c>
       <c r="AD29" s="16">
         <f>AD$1/$H29</f>
-        <v>2.5949367088607591</v>
+        <v>2.265867823564812</v>
       </c>
       <c r="AE29" s="16">
         <f>AE$1/$H29</f>
-        <v>2.6582278481012658</v>
+        <v>2.3211328924322467</v>
       </c>
       <c r="AF29" s="16">
         <f>AF$1/$H29</f>
-        <v>2.721518987341772</v>
+        <v>2.3763979612996806</v>
       </c>
       <c r="AG29" s="16">
         <f>AG$1/$H29</f>
-        <v>2.7848101265822787</v>
+        <v>2.4316630301671154</v>
       </c>
       <c r="AH29" s="16">
         <f>AH$1/$H29</f>
-        <v>2.8481012658227849</v>
+        <v>2.4869280990345497</v>
       </c>
       <c r="AI29" s="16">
         <f>AI$1/$H29</f>
-        <v>2.9113924050632907</v>
+        <v>2.542193167901984</v>
       </c>
       <c r="AJ29" s="16">
         <f>AJ$1/$H29</f>
-        <v>2.9746835443037973</v>
+        <v>2.5974582367694188</v>
       </c>
       <c r="AK29" s="16">
         <f>AK$1/$H29</f>
-        <v>3.0379746835443036</v>
+        <v>2.6527233056368531</v>
       </c>
       <c r="AL29" s="16">
         <f>AL$1/$H29</f>
-        <v>3.1012658227848102</v>
+        <v>2.7079883745042879</v>
       </c>
       <c r="AM29" s="4">
         <f>AM$1/$H29</f>
-        <v>3.1645569620253164</v>
+        <v>2.7632534433717217</v>
       </c>
       <c r="AN29" s="16">
         <f>AN$1/$H29</f>
-        <v>3.2278481012658222</v>
+        <v>2.8185185122391561</v>
       </c>
       <c r="AO29" s="16">
         <f>AO$1/$H29</f>
-        <v>3.2911392405063289</v>
+        <v>2.8737835811065908</v>
       </c>
       <c r="AP29" s="16">
         <f>AP$1/$H29</f>
-        <v>3.3544303797468351</v>
+        <v>2.9290486499740251</v>
       </c>
       <c r="AQ29" s="16">
         <f>AQ$1/$H29</f>
-        <v>3.4177215189873418</v>
+        <v>2.9843137188414599</v>
       </c>
       <c r="AR29" s="16">
         <f>AR$1/$H29</f>
-        <v>3.481012658227848</v>
+        <v>3.0395787877088942</v>
       </c>
       <c r="AS29" s="16">
         <f>AS$1/$H29</f>
-        <v>3.5443037974683542</v>
+        <v>3.0948438565763285</v>
       </c>
       <c r="AT29" s="16">
         <f>AT$1/$H29</f>
-        <v>3.6075949367088609</v>
+        <v>3.1501089254437633</v>
       </c>
       <c r="AU29" s="16">
         <f>AU$1/$H29</f>
-        <v>3.6708860759493667</v>
+        <v>3.2053739943111972</v>
       </c>
       <c r="AV29" s="16">
         <f>AV$1/$H29</f>
-        <v>3.7974683544303796</v>
+        <v>3.3159041320460663</v>
       </c>
       <c r="AW29" s="17">
         <f>AW$1/$H29</f>
-        <v>3.9240506329113924</v>
+        <v>3.4264342697809353</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
@@ -6931,190 +6256,190 @@
         <v>19</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
       <c r="D30" s="14">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="E30" s="30">
         <v>0.85</v>
       </c>
       <c r="F30" s="15">
-        <v>0.47654504839910999</v>
+        <v>2.0078431405793</v>
       </c>
       <c r="G30" s="15">
-        <v>1</v>
+        <v>0.49738561980690998</v>
       </c>
       <c r="H30" s="27">
-        <f>G30*D30</f>
-        <v>0.79</v>
+        <f>D30/G30</f>
+        <v>0.90473061962405443</v>
       </c>
       <c r="I30" s="16">
         <f>I$1/$H30</f>
-        <v>1.2658227848101264</v>
+        <v>1.1053013773486888</v>
       </c>
       <c r="J30" s="16">
         <f>J$1/$H30</f>
-        <v>1.3291139240506329</v>
+        <v>1.1605664462161234</v>
       </c>
       <c r="K30" s="16">
         <f>K$1/$H30</f>
-        <v>1.3924050632911393</v>
+        <v>1.2158315150835577</v>
       </c>
       <c r="L30" s="16">
         <f>L$1/$H30</f>
-        <v>1.4556962025316453</v>
+        <v>1.271096583950992</v>
       </c>
       <c r="M30" s="16">
         <f>M$1/$H30</f>
-        <v>1.5189873417721518</v>
+        <v>1.3263616528184266</v>
       </c>
       <c r="N30" s="16">
         <f>N$1/$H30</f>
-        <v>1.5822784810126582</v>
+        <v>1.3816267216858609</v>
       </c>
       <c r="O30" s="16">
         <f>O$1/$H30</f>
-        <v>1.6455696202531644</v>
+        <v>1.4368917905532954</v>
       </c>
       <c r="P30" s="16">
         <f>P$1/$H30</f>
-        <v>1.7088607594936709</v>
+        <v>1.49215685942073</v>
       </c>
       <c r="Q30" s="16">
         <f>Q$1/$H30</f>
-        <v>1.7721518987341771</v>
+        <v>1.5474219282881643</v>
       </c>
       <c r="R30" s="16">
         <f>R$1/$H30</f>
-        <v>1.8354430379746833</v>
+        <v>1.6026869971555986</v>
       </c>
       <c r="S30" s="16">
         <f>S$1/$H30</f>
-        <v>1.8987341772151898</v>
+        <v>1.6579520660230331</v>
       </c>
       <c r="T30" s="16">
         <f>T$1/$H30</f>
-        <v>1.9620253164556962</v>
+        <v>1.7132171348904677</v>
       </c>
       <c r="U30" s="16">
         <f>U$1/$H30</f>
-        <v>2.0253164556962027</v>
+        <v>1.7684822037579022</v>
       </c>
       <c r="V30" s="16">
         <f>V$1/$H30</f>
-        <v>2.0886075949367084</v>
+        <v>1.8237472726253363</v>
       </c>
       <c r="W30" s="16">
         <f>W$1/$H30</f>
-        <v>2.1518987341772151</v>
+        <v>1.8790123414927709</v>
       </c>
       <c r="X30" s="16">
         <f>X$1/$H30</f>
-        <v>2.2151898734177213</v>
+        <v>1.9342774103602054</v>
       </c>
       <c r="Y30" s="16">
         <f>Y$1/$H30</f>
-        <v>2.278481012658228</v>
+        <v>1.9895424792276399</v>
       </c>
       <c r="Z30" s="16">
         <f>Z$1/$H30</f>
-        <v>2.3417721518987342</v>
+        <v>2.0448075480950743</v>
       </c>
       <c r="AA30" s="16">
         <f>AA$1/$H30</f>
-        <v>2.4050632911392404</v>
+        <v>2.1000726169625086</v>
       </c>
       <c r="AB30" s="16">
         <f>AB$1/$H30</f>
-        <v>2.4683544303797467</v>
+        <v>2.1553376858299429</v>
       </c>
       <c r="AC30" s="16">
         <f>AC$1/$H30</f>
-        <v>2.5316455696202529</v>
+        <v>2.2106027546973777</v>
       </c>
       <c r="AD30" s="16">
         <f>AD$1/$H30</f>
-        <v>2.5949367088607591</v>
+        <v>2.265867823564812</v>
       </c>
       <c r="AE30" s="16">
         <f>AE$1/$H30</f>
-        <v>2.6582278481012658</v>
+        <v>2.3211328924322467</v>
       </c>
       <c r="AF30" s="16">
         <f>AF$1/$H30</f>
-        <v>2.721518987341772</v>
+        <v>2.3763979612996806</v>
       </c>
       <c r="AG30" s="16">
         <f>AG$1/$H30</f>
-        <v>2.7848101265822787</v>
+        <v>2.4316630301671154</v>
       </c>
       <c r="AH30" s="16">
         <f>AH$1/$H30</f>
-        <v>2.8481012658227849</v>
+        <v>2.4869280990345497</v>
       </c>
       <c r="AI30" s="16">
         <f>AI$1/$H30</f>
-        <v>2.9113924050632907</v>
+        <v>2.542193167901984</v>
       </c>
       <c r="AJ30" s="16">
         <f>AJ$1/$H30</f>
-        <v>2.9746835443037973</v>
+        <v>2.5974582367694188</v>
       </c>
       <c r="AK30" s="16">
         <f>AK$1/$H30</f>
-        <v>3.0379746835443036</v>
+        <v>2.6527233056368531</v>
       </c>
       <c r="AL30" s="16">
         <f>AL$1/$H30</f>
-        <v>3.1012658227848102</v>
+        <v>2.7079883745042879</v>
       </c>
       <c r="AM30" s="4">
         <f>AM$1/$H30</f>
-        <v>3.1645569620253164</v>
+        <v>2.7632534433717217</v>
       </c>
       <c r="AN30" s="16">
         <f>AN$1/$H30</f>
-        <v>3.2278481012658222</v>
+        <v>2.8185185122391561</v>
       </c>
       <c r="AO30" s="16">
         <f>AO$1/$H30</f>
-        <v>3.2911392405063289</v>
+        <v>2.8737835811065908</v>
       </c>
       <c r="AP30" s="16">
         <f>AP$1/$H30</f>
-        <v>3.3544303797468351</v>
+        <v>2.9290486499740251</v>
       </c>
       <c r="AQ30" s="16">
         <f>AQ$1/$H30</f>
-        <v>3.4177215189873418</v>
+        <v>2.9843137188414599</v>
       </c>
       <c r="AR30" s="16">
         <f>AR$1/$H30</f>
-        <v>3.481012658227848</v>
+        <v>3.0395787877088942</v>
       </c>
       <c r="AS30" s="16">
         <f>AS$1/$H30</f>
-        <v>3.5443037974683542</v>
+        <v>3.0948438565763285</v>
       </c>
       <c r="AT30" s="16">
         <f>AT$1/$H30</f>
-        <v>3.6075949367088609</v>
+        <v>3.1501089254437633</v>
       </c>
       <c r="AU30" s="16">
         <f>AU$1/$H30</f>
-        <v>3.6708860759493667</v>
+        <v>3.2053739943111972</v>
       </c>
       <c r="AV30" s="16">
         <f>AV$1/$H30</f>
-        <v>3.7974683544303796</v>
+        <v>3.3159041320460663</v>
       </c>
       <c r="AW30" s="17">
         <f>AW$1/$H30</f>
-        <v>3.9240506329113924</v>
+        <v>3.4264342697809353</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
@@ -7122,190 +6447,190 @@
         <v>19</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C31" s="13">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="D31" s="14">
-        <v>0.79</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="E31" s="30">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
       <c r="F31" s="15">
-        <v>0.45271781160152003</v>
+        <v>0.61883103893387004</v>
       </c>
       <c r="G31" s="15">
-        <v>1</v>
+        <v>0.96038965368870999</v>
       </c>
       <c r="H31" s="27">
-        <f>G31*D31</f>
-        <v>0.79</v>
+        <f>D31/G31</f>
+        <v>0.89026365154609444</v>
       </c>
       <c r="I31" s="16">
         <f>I$1/$H31</f>
-        <v>1.2658227848101264</v>
+        <v>1.1232627528522923</v>
       </c>
       <c r="J31" s="16">
         <f>J$1/$H31</f>
-        <v>1.3291139240506329</v>
+        <v>1.1794258904949071</v>
       </c>
       <c r="K31" s="16">
         <f>K$1/$H31</f>
-        <v>1.3924050632911393</v>
+        <v>1.2355890281375217</v>
       </c>
       <c r="L31" s="16">
         <f>L$1/$H31</f>
-        <v>1.4556962025316453</v>
+        <v>1.2917521657801361</v>
       </c>
       <c r="M31" s="16">
         <f>M$1/$H31</f>
-        <v>1.5189873417721518</v>
+        <v>1.3479153034227507</v>
       </c>
       <c r="N31" s="16">
         <f>N$1/$H31</f>
-        <v>1.5822784810126582</v>
+        <v>1.4040784410653655</v>
       </c>
       <c r="O31" s="16">
         <f>O$1/$H31</f>
-        <v>1.6455696202531644</v>
+        <v>1.4602415787079801</v>
       </c>
       <c r="P31" s="16">
         <f>P$1/$H31</f>
-        <v>1.7088607594936709</v>
+        <v>1.5164047163505947</v>
       </c>
       <c r="Q31" s="16">
         <f>Q$1/$H31</f>
-        <v>1.7721518987341771</v>
+        <v>1.5725678539932093</v>
       </c>
       <c r="R31" s="16">
         <f>R$1/$H31</f>
-        <v>1.8354430379746833</v>
+        <v>1.6287309916358239</v>
       </c>
       <c r="S31" s="16">
         <f>S$1/$H31</f>
-        <v>1.8987341772151898</v>
+        <v>1.6848941292784385</v>
       </c>
       <c r="T31" s="16">
         <f>T$1/$H31</f>
-        <v>1.9620253164556962</v>
+        <v>1.7410572669210531</v>
       </c>
       <c r="U31" s="16">
         <f>U$1/$H31</f>
-        <v>2.0253164556962027</v>
+        <v>1.7972204045636679</v>
       </c>
       <c r="V31" s="16">
         <f>V$1/$H31</f>
-        <v>2.0886075949367084</v>
+        <v>1.8533835422062823</v>
       </c>
       <c r="W31" s="16">
         <f>W$1/$H31</f>
-        <v>2.1518987341772151</v>
+        <v>1.9095466798488969</v>
       </c>
       <c r="X31" s="16">
         <f>X$1/$H31</f>
-        <v>2.2151898734177213</v>
+        <v>1.9657098174915115</v>
       </c>
       <c r="Y31" s="16">
         <f>Y$1/$H31</f>
-        <v>2.278481012658228</v>
+        <v>2.0218729551341261</v>
       </c>
       <c r="Z31" s="16">
         <f>Z$1/$H31</f>
-        <v>2.3417721518987342</v>
+        <v>2.078036092776741</v>
       </c>
       <c r="AA31" s="16">
         <f>AA$1/$H31</f>
-        <v>2.4050632911392404</v>
+        <v>2.1341992304193553</v>
       </c>
       <c r="AB31" s="16">
         <f>AB$1/$H31</f>
-        <v>2.4683544303797467</v>
+        <v>2.1903623680619702</v>
       </c>
       <c r="AC31" s="16">
         <f>AC$1/$H31</f>
-        <v>2.5316455696202529</v>
+        <v>2.2465255057045845</v>
       </c>
       <c r="AD31" s="16">
         <f>AD$1/$H31</f>
-        <v>2.5949367088607591</v>
+        <v>2.3026886433471989</v>
       </c>
       <c r="AE31" s="16">
         <f>AE$1/$H31</f>
-        <v>2.6582278481012658</v>
+        <v>2.3588517809898142</v>
       </c>
       <c r="AF31" s="16">
         <f>AF$1/$H31</f>
-        <v>2.721518987341772</v>
+        <v>2.4150149186324286</v>
       </c>
       <c r="AG31" s="16">
         <f>AG$1/$H31</f>
-        <v>2.7848101265822787</v>
+        <v>2.4711780562750434</v>
       </c>
       <c r="AH31" s="16">
         <f>AH$1/$H31</f>
-        <v>2.8481012658227849</v>
+        <v>2.5273411939176578</v>
       </c>
       <c r="AI31" s="16">
         <f>AI$1/$H31</f>
-        <v>2.9113924050632907</v>
+        <v>2.5835043315602721</v>
       </c>
       <c r="AJ31" s="16">
         <f>AJ$1/$H31</f>
-        <v>2.9746835443037973</v>
+        <v>2.639667469202887</v>
       </c>
       <c r="AK31" s="16">
         <f>AK$1/$H31</f>
-        <v>3.0379746835443036</v>
+        <v>2.6958306068455014</v>
       </c>
       <c r="AL31" s="16">
         <f>AL$1/$H31</f>
-        <v>3.1012658227848102</v>
+        <v>2.7519937444881166</v>
       </c>
       <c r="AM31" s="4">
         <f>AM$1/$H31</f>
-        <v>3.1645569620253164</v>
+        <v>2.808156882130731</v>
       </c>
       <c r="AN31" s="16">
         <f>AN$1/$H31</f>
-        <v>3.2278481012658222</v>
+        <v>2.8643200197733454</v>
       </c>
       <c r="AO31" s="16">
         <f>AO$1/$H31</f>
-        <v>3.2911392405063289</v>
+        <v>2.9204831574159602</v>
       </c>
       <c r="AP31" s="16">
         <f>AP$1/$H31</f>
-        <v>3.3544303797468351</v>
+        <v>2.9766462950585746</v>
       </c>
       <c r="AQ31" s="16">
         <f>AQ$1/$H31</f>
-        <v>3.4177215189873418</v>
+        <v>3.0328094327011894</v>
       </c>
       <c r="AR31" s="16">
         <f>AR$1/$H31</f>
-        <v>3.481012658227848</v>
+        <v>3.0889725703438038</v>
       </c>
       <c r="AS31" s="16">
         <f>AS$1/$H31</f>
-        <v>3.5443037974683542</v>
+        <v>3.1451357079864186</v>
       </c>
       <c r="AT31" s="16">
         <f>AT$1/$H31</f>
-        <v>3.6075949367088609</v>
+        <v>3.2012988456290334</v>
       </c>
       <c r="AU31" s="16">
         <f>AU$1/$H31</f>
-        <v>3.6708860759493667</v>
+        <v>3.2574619832716478</v>
       </c>
       <c r="AV31" s="16">
         <f>AV$1/$H31</f>
-        <v>3.7974683544303796</v>
+        <v>3.369788258556877</v>
       </c>
       <c r="AW31" s="17">
         <f>AW$1/$H31</f>
-        <v>3.9240506329113924</v>
+        <v>3.4821145338421062</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
@@ -7313,7 +6638,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -7325,178 +6650,178 @@
         <v>0.85</v>
       </c>
       <c r="F32" s="15">
-        <v>0.58615040953090003</v>
+        <v>0.83395381765585996</v>
       </c>
       <c r="G32" s="15">
-        <v>0.97128319682302999</v>
+        <v>0.88868206078138001</v>
       </c>
       <c r="H32" s="27">
-        <f>G32*D32</f>
-        <v>0.76731372549019372</v>
+        <f>D32/G32</f>
+        <v>0.88895684391939556</v>
       </c>
       <c r="I32" s="16">
         <f>I$1/$H32</f>
-        <v>1.3032478981933446</v>
+        <v>1.1249140009890886</v>
       </c>
       <c r="J32" s="16">
         <f>J$1/$H32</f>
-        <v>1.368410293103012</v>
+        <v>1.1811597010385431</v>
       </c>
       <c r="K32" s="16">
         <f>K$1/$H32</f>
-        <v>1.4335726880126793</v>
+        <v>1.2374054010879976</v>
       </c>
       <c r="L32" s="16">
         <f>L$1/$H32</f>
-        <v>1.4987350829223463</v>
+        <v>1.2936511011374519</v>
       </c>
       <c r="M32" s="16">
         <f>M$1/$H32</f>
-        <v>1.5638974778320136</v>
+        <v>1.3498968011869064</v>
       </c>
       <c r="N32" s="16">
         <f>N$1/$H32</f>
-        <v>1.6290598727416807</v>
+        <v>1.4061425012363606</v>
       </c>
       <c r="O32" s="16">
         <f>O$1/$H32</f>
-        <v>1.6942222676513481</v>
+        <v>1.4623882012858151</v>
       </c>
       <c r="P32" s="16">
         <f>P$1/$H32</f>
-        <v>1.7593846625610154</v>
+        <v>1.5186339013352697</v>
       </c>
       <c r="Q32" s="16">
         <f>Q$1/$H32</f>
-        <v>1.8245470574706824</v>
+        <v>1.5748796013847239</v>
       </c>
       <c r="R32" s="16">
         <f>R$1/$H32</f>
-        <v>1.8897094523803497</v>
+        <v>1.6311253014341784</v>
       </c>
       <c r="S32" s="16">
         <f>S$1/$H32</f>
-        <v>1.9548718472900171</v>
+        <v>1.6873710014836329</v>
       </c>
       <c r="T32" s="16">
         <f>T$1/$H32</f>
-        <v>2.0200342421996842</v>
+        <v>1.7436167015330875</v>
       </c>
       <c r="U32" s="16">
         <f>U$1/$H32</f>
-        <v>2.0851966371093518</v>
+        <v>1.7998624015825417</v>
       </c>
       <c r="V32" s="16">
         <f>V$1/$H32</f>
-        <v>2.1503590320190185</v>
+        <v>1.856108101631996</v>
       </c>
       <c r="W32" s="16">
         <f>W$1/$H32</f>
-        <v>2.215521426928686</v>
+        <v>1.9123538016814505</v>
       </c>
       <c r="X32" s="16">
         <f>X$1/$H32</f>
-        <v>2.2806838218383532</v>
+        <v>1.968599501730905</v>
       </c>
       <c r="Y32" s="16">
         <f>Y$1/$H32</f>
-        <v>2.3458462167480203</v>
+        <v>2.0248452017803595</v>
       </c>
       <c r="Z32" s="16">
         <f>Z$1/$H32</f>
-        <v>2.4110086116576879</v>
+        <v>2.081090901829814</v>
       </c>
       <c r="AA32" s="16">
         <f>AA$1/$H32</f>
-        <v>2.4761710065673546</v>
+        <v>2.1373366018792681</v>
       </c>
       <c r="AB32" s="16">
         <f>AB$1/$H32</f>
-        <v>2.5413334014770221</v>
+        <v>2.1935823019287226</v>
       </c>
       <c r="AC32" s="16">
         <f>AC$1/$H32</f>
-        <v>2.6064957963866893</v>
+        <v>2.2498280019781771</v>
       </c>
       <c r="AD32" s="16">
         <f>AD$1/$H32</f>
-        <v>2.6716581912963564</v>
+        <v>2.3060737020276312</v>
       </c>
       <c r="AE32" s="16">
         <f>AE$1/$H32</f>
-        <v>2.736820586206024</v>
+        <v>2.3623194020770861</v>
       </c>
       <c r="AF32" s="16">
         <f>AF$1/$H32</f>
-        <v>2.8019829811156911</v>
+        <v>2.4185651021265402</v>
       </c>
       <c r="AG32" s="16">
         <f>AG$1/$H32</f>
-        <v>2.8671453760253587</v>
+        <v>2.4748108021759951</v>
       </c>
       <c r="AH32" s="16">
         <f>AH$1/$H32</f>
-        <v>2.9323077709350254</v>
+        <v>2.5310565022254492</v>
       </c>
       <c r="AI32" s="16">
         <f>AI$1/$H32</f>
-        <v>2.9974701658446925</v>
+        <v>2.5873022022749037</v>
       </c>
       <c r="AJ32" s="16">
         <f>AJ$1/$H32</f>
-        <v>3.0626325607543601</v>
+        <v>2.6435479023243582</v>
       </c>
       <c r="AK32" s="16">
         <f>AK$1/$H32</f>
-        <v>3.1277949556640272</v>
+        <v>2.6997936023738127</v>
       </c>
       <c r="AL32" s="16">
         <f>AL$1/$H32</f>
-        <v>3.1929573505736948</v>
+        <v>2.7560393024232672</v>
       </c>
       <c r="AM32" s="4">
         <f>AM$1/$H32</f>
-        <v>3.2581197454833615</v>
+        <v>2.8122850024727213</v>
       </c>
       <c r="AN32" s="16">
         <f>AN$1/$H32</f>
-        <v>3.3232821403930286</v>
+        <v>2.8685307025221758</v>
       </c>
       <c r="AO32" s="16">
         <f>AO$1/$H32</f>
-        <v>3.3884445353026962</v>
+        <v>2.9247764025716303</v>
       </c>
       <c r="AP32" s="16">
         <f>AP$1/$H32</f>
-        <v>3.4536069302123633</v>
+        <v>2.9810221026210848</v>
       </c>
       <c r="AQ32" s="16">
         <f>AQ$1/$H32</f>
-        <v>3.5187693251220309</v>
+        <v>3.0372678026705393</v>
       </c>
       <c r="AR32" s="16">
         <f>AR$1/$H32</f>
-        <v>3.583931720031698</v>
+        <v>3.0935135027199938</v>
       </c>
       <c r="AS32" s="16">
         <f>AS$1/$H32</f>
-        <v>3.6490941149413647</v>
+        <v>3.1497592027694479</v>
       </c>
       <c r="AT32" s="16">
         <f>AT$1/$H32</f>
-        <v>3.7142565098510323</v>
+        <v>3.2060049028189024</v>
       </c>
       <c r="AU32" s="16">
         <f>AU$1/$H32</f>
-        <v>3.7794189047606994</v>
+        <v>3.2622506028683569</v>
       </c>
       <c r="AV32" s="16">
         <f>AV$1/$H32</f>
-        <v>3.9097436945800341</v>
+        <v>3.3747420029672659</v>
       </c>
       <c r="AW32" s="17">
         <f>AW$1/$H32</f>
-        <v>4.0400684843993684</v>
+        <v>3.4872334030661749</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
@@ -7504,190 +6829,190 @@
         <v>19</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
       <c r="D33" s="14">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="E33" s="30">
         <v>0.85</v>
       </c>
       <c r="F33" s="15">
-        <v>0.83395381765585996</v>
+        <v>1.9450980408778999</v>
       </c>
       <c r="G33" s="15">
-        <v>0.88868206078138001</v>
+        <v>0.51830065304071005</v>
       </c>
       <c r="H33" s="27">
-        <f>G33*D33</f>
-        <v>0.70205882801729025</v>
+        <f>D33/G33</f>
+        <v>0.86822194292055943</v>
       </c>
       <c r="I33" s="16">
         <f>I$1/$H33</f>
-        <v>1.4243820604380635</v>
+        <v>1.1517792289793556</v>
       </c>
       <c r="J33" s="16">
         <f>J$1/$H33</f>
-        <v>1.4956011634599669</v>
+        <v>1.2093681904283233</v>
       </c>
       <c r="K33" s="16">
         <f>K$1/$H33</f>
-        <v>1.56682026648187</v>
+        <v>1.2669571518772913</v>
       </c>
       <c r="L33" s="16">
         <f>L$1/$H33</f>
-        <v>1.6380393695037729</v>
+        <v>1.3245461133262588</v>
       </c>
       <c r="M33" s="16">
         <f>M$1/$H33</f>
-        <v>1.7092584725256763</v>
+        <v>1.3821350747752266</v>
       </c>
       <c r="N33" s="16">
         <f>N$1/$H33</f>
-        <v>1.7804775755475795</v>
+        <v>1.4397240362241945</v>
       </c>
       <c r="O33" s="16">
         <f>O$1/$H33</f>
-        <v>1.8516966785694826</v>
+        <v>1.4973129976731623</v>
       </c>
       <c r="P33" s="16">
         <f>P$1/$H33</f>
-        <v>1.922915781591386</v>
+        <v>1.55490195912213</v>
       </c>
       <c r="Q33" s="16">
         <f>Q$1/$H33</f>
-        <v>1.9941348846132889</v>
+        <v>1.6124909205710978</v>
       </c>
       <c r="R33" s="16">
         <f>R$1/$H33</f>
-        <v>2.0653539876351923</v>
+        <v>1.6700798820200655</v>
       </c>
       <c r="S33" s="16">
         <f>S$1/$H33</f>
-        <v>2.1365730906570954</v>
+        <v>1.7276688434690333</v>
       </c>
       <c r="T33" s="16">
         <f>T$1/$H33</f>
-        <v>2.2077921936789986</v>
+        <v>1.7852578049180012</v>
       </c>
       <c r="U33" s="16">
         <f>U$1/$H33</f>
-        <v>2.2790112967009017</v>
+        <v>1.842846766366969</v>
       </c>
       <c r="V33" s="16">
         <f>V$1/$H33</f>
-        <v>2.3502303997228049</v>
+        <v>1.9004357278159365</v>
       </c>
       <c r="W33" s="16">
         <f>W$1/$H33</f>
-        <v>2.421449502744708</v>
+        <v>1.9580246892649045</v>
       </c>
       <c r="X33" s="16">
         <f>X$1/$H33</f>
-        <v>2.4926686057666112</v>
+        <v>2.0156136507138722</v>
       </c>
       <c r="Y33" s="16">
         <f>Y$1/$H33</f>
-        <v>2.5638877087885144</v>
+        <v>2.0732026121628402</v>
       </c>
       <c r="Z33" s="16">
         <f>Z$1/$H33</f>
-        <v>2.6351068118104179</v>
+        <v>2.1307915736118077</v>
       </c>
       <c r="AA33" s="16">
         <f>AA$1/$H33</f>
-        <v>2.7063259148323207</v>
+        <v>2.1883805350607757</v>
       </c>
       <c r="AB33" s="16">
         <f>AB$1/$H33</f>
-        <v>2.7775450178542238</v>
+        <v>2.2459694965097432</v>
       </c>
       <c r="AC33" s="16">
         <f>AC$1/$H33</f>
-        <v>2.848764120876127</v>
+        <v>2.3035584579587112</v>
       </c>
       <c r="AD33" s="16">
         <f>AD$1/$H33</f>
-        <v>2.9199832238980301</v>
+        <v>2.3611474194076787</v>
       </c>
       <c r="AE33" s="16">
         <f>AE$1/$H33</f>
-        <v>2.9912023269199337</v>
+        <v>2.4187363808566467</v>
       </c>
       <c r="AF33" s="16">
         <f>AF$1/$H33</f>
-        <v>3.0624214299418364</v>
+        <v>2.4763253423056142</v>
       </c>
       <c r="AG33" s="16">
         <f>AG$1/$H33</f>
-        <v>3.13364053296374</v>
+        <v>2.5339143037545826</v>
       </c>
       <c r="AH33" s="16">
         <f>AH$1/$H33</f>
-        <v>3.2048596359856432</v>
+        <v>2.5915032652035501</v>
       </c>
       <c r="AI33" s="16">
         <f>AI$1/$H33</f>
-        <v>3.2760787390075459</v>
+        <v>2.6490922266525176</v>
       </c>
       <c r="AJ33" s="16">
         <f>AJ$1/$H33</f>
-        <v>3.3472978420294495</v>
+        <v>2.7066811881014856</v>
       </c>
       <c r="AK33" s="16">
         <f>AK$1/$H33</f>
-        <v>3.4185169450513526</v>
+        <v>2.7642701495504531</v>
       </c>
       <c r="AL33" s="16">
         <f>AL$1/$H33</f>
-        <v>3.4897360480732562</v>
+        <v>2.8218591109994215</v>
       </c>
       <c r="AM33" s="4">
         <f>AM$1/$H33</f>
-        <v>3.5609551510951589</v>
+        <v>2.8794480724483891</v>
       </c>
       <c r="AN33" s="16">
         <f>AN$1/$H33</f>
-        <v>3.6321742541170621</v>
+        <v>2.9370370338973566</v>
       </c>
       <c r="AO33" s="16">
         <f>AO$1/$H33</f>
-        <v>3.7033933571389652</v>
+        <v>2.9946259953463246</v>
       </c>
       <c r="AP33" s="16">
         <f>AP$1/$H33</f>
-        <v>3.7746124601608684</v>
+        <v>3.0522149567952921</v>
       </c>
       <c r="AQ33" s="16">
         <f>AQ$1/$H33</f>
-        <v>3.845831563182772</v>
+        <v>3.1098039182442601</v>
       </c>
       <c r="AR33" s="16">
         <f>AR$1/$H33</f>
-        <v>3.9170506662046747</v>
+        <v>3.167392879693228</v>
       </c>
       <c r="AS33" s="16">
         <f>AS$1/$H33</f>
-        <v>3.9882697692265778</v>
+        <v>3.2249818411421955</v>
       </c>
       <c r="AT33" s="16">
         <f>AT$1/$H33</f>
-        <v>4.0594888722484814</v>
+        <v>3.2825708025911635</v>
       </c>
       <c r="AU33" s="16">
         <f>AU$1/$H33</f>
-        <v>4.1307079752703846</v>
+        <v>3.340159764040131</v>
       </c>
       <c r="AV33" s="16">
         <f>AV$1/$H33</f>
-        <v>4.2731461813141909</v>
+        <v>3.4553376869380665</v>
       </c>
       <c r="AW33" s="17">
         <f>AW$1/$H33</f>
-        <v>4.4155843873579972</v>
+        <v>3.5705156098360025</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
@@ -7713,172 +7038,172 @@
         <v>0.90707909185743996</v>
       </c>
       <c r="H34" s="27">
-        <f>G34*D34</f>
-        <v>0.69845090073022875</v>
+        <f>D34/G34</f>
+        <v>0.84887856738408451</v>
       </c>
       <c r="I34" s="16">
         <f>I$1/$H34</f>
-        <v>1.4317398674044266</v>
+        <v>1.1780247946200519</v>
       </c>
       <c r="J34" s="16">
         <f>J$1/$H34</f>
-        <v>1.5033268607746479</v>
+        <v>1.2369260343510544</v>
       </c>
       <c r="K34" s="16">
         <f>K$1/$H34</f>
-        <v>1.5749138541448693</v>
+        <v>1.2958272740820571</v>
       </c>
       <c r="L34" s="16">
         <f>L$1/$H34</f>
-        <v>1.6465008475150904</v>
+        <v>1.3547285138130596</v>
       </c>
       <c r="M34" s="16">
         <f>M$1/$H34</f>
-        <v>1.7180878408853117</v>
+        <v>1.4136297535440621</v>
       </c>
       <c r="N34" s="16">
         <f>N$1/$H34</f>
-        <v>1.7896748342555331</v>
+        <v>1.4725309932750648</v>
       </c>
       <c r="O34" s="16">
         <f>O$1/$H34</f>
-        <v>1.8612618276257547</v>
+        <v>1.5314322330060675</v>
       </c>
       <c r="P34" s="16">
         <f>P$1/$H34</f>
-        <v>1.932848820995976</v>
+        <v>1.5903334727370702</v>
       </c>
       <c r="Q34" s="16">
         <f>Q$1/$H34</f>
-        <v>2.0044358143661971</v>
+        <v>1.6492347124680724</v>
       </c>
       <c r="R34" s="16">
         <f>R$1/$H34</f>
-        <v>2.0760228077364182</v>
+        <v>1.7081359521990751</v>
       </c>
       <c r="S34" s="16">
         <f>S$1/$H34</f>
-        <v>2.1476098011066398</v>
+        <v>1.7670371919300778</v>
       </c>
       <c r="T34" s="16">
         <f>T$1/$H34</f>
-        <v>2.2191967944768614</v>
+        <v>1.8259384316610805</v>
       </c>
       <c r="U34" s="16">
         <f>U$1/$H34</f>
-        <v>2.2907837878470825</v>
+        <v>1.884839671392083</v>
       </c>
       <c r="V34" s="16">
         <f>V$1/$H34</f>
-        <v>2.3623707812173036</v>
+        <v>1.9437409111230854</v>
       </c>
       <c r="W34" s="16">
         <f>W$1/$H34</f>
-        <v>2.4339577745875252</v>
+        <v>2.0026421508540881</v>
       </c>
       <c r="X34" s="16">
         <f>X$1/$H34</f>
-        <v>2.5055447679577463</v>
+        <v>2.0615433905850908</v>
       </c>
       <c r="Y34" s="16">
         <f>Y$1/$H34</f>
-        <v>2.5771317613279678</v>
+        <v>2.1204446303160935</v>
       </c>
       <c r="Z34" s="16">
         <f>Z$1/$H34</f>
-        <v>2.6487187546981894</v>
+        <v>2.1793458700470962</v>
       </c>
       <c r="AA34" s="16">
         <f>AA$1/$H34</f>
-        <v>2.7203057480684105</v>
+        <v>2.2382471097780985</v>
       </c>
       <c r="AB34" s="16">
         <f>AB$1/$H34</f>
-        <v>2.7918927414386316</v>
+        <v>2.2971483495091012</v>
       </c>
       <c r="AC34" s="16">
         <f>AC$1/$H34</f>
-        <v>2.8634797348088532</v>
+        <v>2.3560495892401039</v>
       </c>
       <c r="AD34" s="16">
         <f>AD$1/$H34</f>
-        <v>2.9350667281790743</v>
+        <v>2.4149508289711061</v>
       </c>
       <c r="AE34" s="16">
         <f>AE$1/$H34</f>
-        <v>3.0066537215492959</v>
+        <v>2.4738520687021088</v>
       </c>
       <c r="AF34" s="16">
         <f>AF$1/$H34</f>
-        <v>3.078240714919517</v>
+        <v>2.5327533084331115</v>
       </c>
       <c r="AG34" s="16">
         <f>AG$1/$H34</f>
-        <v>3.1498277082897386</v>
+        <v>2.5916545481641142</v>
       </c>
       <c r="AH34" s="16">
         <f>AH$1/$H34</f>
-        <v>3.2214147016599597</v>
+        <v>2.6505557878951165</v>
       </c>
       <c r="AI34" s="16">
         <f>AI$1/$H34</f>
-        <v>3.2930016950301808</v>
+        <v>2.7094570276261192</v>
       </c>
       <c r="AJ34" s="16">
         <f>AJ$1/$H34</f>
-        <v>3.3645886884004024</v>
+        <v>2.7683582673571219</v>
       </c>
       <c r="AK34" s="16">
         <f>AK$1/$H34</f>
-        <v>3.4361756817706235</v>
+        <v>2.8272595070881241</v>
       </c>
       <c r="AL34" s="16">
         <f>AL$1/$H34</f>
-        <v>3.5077626751408455</v>
+        <v>2.8861607468191273</v>
       </c>
       <c r="AM34" s="4">
         <f>AM$1/$H34</f>
-        <v>3.5793496685110662</v>
+        <v>2.9450619865501295</v>
       </c>
       <c r="AN34" s="16">
         <f>AN$1/$H34</f>
-        <v>3.6509366618812873</v>
+        <v>3.0039632262811318</v>
       </c>
       <c r="AO34" s="16">
         <f>AO$1/$H34</f>
-        <v>3.7225236552515093</v>
+        <v>3.0628644660121349</v>
       </c>
       <c r="AP34" s="16">
         <f>AP$1/$H34</f>
-        <v>3.7941106486217304</v>
+        <v>3.1217657057431372</v>
       </c>
       <c r="AQ34" s="16">
         <f>AQ$1/$H34</f>
-        <v>3.865697641991952</v>
+        <v>3.1806669454741403</v>
       </c>
       <c r="AR34" s="16">
         <f>AR$1/$H34</f>
-        <v>3.9372846353621731</v>
+        <v>3.2395681852051426</v>
       </c>
       <c r="AS34" s="16">
         <f>AS$1/$H34</f>
-        <v>4.0088716287323942</v>
+        <v>3.2984694249361448</v>
       </c>
       <c r="AT34" s="16">
         <f>AT$1/$H34</f>
-        <v>4.0804586221026158</v>
+        <v>3.357370664667148</v>
       </c>
       <c r="AU34" s="16">
         <f>AU$1/$H34</f>
-        <v>4.1520456154728365</v>
+        <v>3.4162719043981502</v>
       </c>
       <c r="AV34" s="16">
         <f>AV$1/$H34</f>
-        <v>4.2952196022132796</v>
+        <v>3.5340743838601556</v>
       </c>
       <c r="AW34" s="17">
         <f>AW$1/$H34</f>
-        <v>4.4383935889537227</v>
+        <v>3.651876863322161</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
@@ -7886,190 +7211,190 @@
         <v>19</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C35" s="13">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="D35" s="14">
-        <v>0.79</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="E35" s="30">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
       <c r="F35" s="15">
-        <v>1.1437080877535999</v>
+        <v>0.43827055091860001</v>
       </c>
       <c r="G35" s="15">
-        <v>0.78543063741548003</v>
+        <v>1</v>
       </c>
       <c r="H35" s="27">
-        <f>G35*D35</f>
-        <v>0.62049020355822926</v>
+        <f>D35/G35</f>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I35" s="16">
         <f>I$1/$H35</f>
-        <v>1.6116289898945295</v>
+        <v>1.2004801920768309</v>
       </c>
       <c r="J35" s="16">
         <f>J$1/$H35</f>
-        <v>1.6922104393892561</v>
+        <v>1.2605042016806725</v>
       </c>
       <c r="K35" s="16">
         <f>K$1/$H35</f>
-        <v>1.7727918888839826</v>
+        <v>1.320528211284514</v>
       </c>
       <c r="L35" s="16">
         <f>L$1/$H35</f>
-        <v>1.8533733383787088</v>
+        <v>1.3805522208883554</v>
       </c>
       <c r="M35" s="16">
         <f>M$1/$H35</f>
-        <v>1.9339547878734353</v>
+        <v>1.440576230492197</v>
       </c>
       <c r="N35" s="16">
         <f>N$1/$H35</f>
-        <v>2.0145362373681617</v>
+        <v>1.5006002400960385</v>
       </c>
       <c r="O35" s="16">
         <f>O$1/$H35</f>
-        <v>2.0951176868628885</v>
+        <v>1.5606242496998801</v>
       </c>
       <c r="P35" s="16">
         <f>P$1/$H35</f>
-        <v>2.1756991363576148</v>
+        <v>1.6206482593037217</v>
       </c>
       <c r="Q35" s="16">
         <f>Q$1/$H35</f>
-        <v>2.2562805858523411</v>
+        <v>1.680672268907563</v>
       </c>
       <c r="R35" s="16">
         <f>R$1/$H35</f>
-        <v>2.3368620353470675</v>
+        <v>1.7406962785114046</v>
       </c>
       <c r="S35" s="16">
         <f>S$1/$H35</f>
-        <v>2.4174434848417943</v>
+        <v>1.8007202881152462</v>
       </c>
       <c r="T35" s="16">
         <f>T$1/$H35</f>
-        <v>2.4980249343365206</v>
+        <v>1.8607442977190878</v>
       </c>
       <c r="U35" s="16">
         <f>U$1/$H35</f>
-        <v>2.5786063838312474</v>
+        <v>1.9207683073229294</v>
       </c>
       <c r="V35" s="16">
         <f>V$1/$H35</f>
-        <v>2.6591878333259733</v>
+        <v>1.9807923169267707</v>
       </c>
       <c r="W35" s="16">
         <f>W$1/$H35</f>
-        <v>2.7397692828207001</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="X35" s="16">
         <f>X$1/$H35</f>
-        <v>2.8203507323154264</v>
+        <v>2.1008403361344539</v>
       </c>
       <c r="Y35" s="16">
         <f>Y$1/$H35</f>
-        <v>2.9009321818101532</v>
+        <v>2.1608643457382954</v>
       </c>
       <c r="Z35" s="16">
         <f>Z$1/$H35</f>
-        <v>2.9815136313048796</v>
+        <v>2.220888355342137</v>
       </c>
       <c r="AA35" s="16">
         <f>AA$1/$H35</f>
-        <v>3.0620950807996059</v>
+        <v>2.2809123649459786</v>
       </c>
       <c r="AB35" s="16">
         <f>AB$1/$H35</f>
-        <v>3.1426765302943322</v>
+        <v>2.3409363745498202</v>
       </c>
       <c r="AC35" s="16">
         <f>AC$1/$H35</f>
-        <v>3.223257979789059</v>
+        <v>2.4009603841536618</v>
       </c>
       <c r="AD35" s="16">
         <f>AD$1/$H35</f>
-        <v>3.3038394292837849</v>
+        <v>2.4609843937575029</v>
       </c>
       <c r="AE35" s="16">
         <f>AE$1/$H35</f>
-        <v>3.3844208787785122</v>
+        <v>2.5210084033613449</v>
       </c>
       <c r="AF35" s="16">
         <f>AF$1/$H35</f>
-        <v>3.4650023282732381</v>
+        <v>2.581032412965186</v>
       </c>
       <c r="AG35" s="16">
         <f>AG$1/$H35</f>
-        <v>3.5455837777679653</v>
+        <v>2.6410564225690281</v>
       </c>
       <c r="AH35" s="16">
         <f>AH$1/$H35</f>
-        <v>3.6261652272626912</v>
+        <v>2.7010804321728692</v>
       </c>
       <c r="AI35" s="16">
         <f>AI$1/$H35</f>
-        <v>3.7067466767574175</v>
+        <v>2.7611044417767108</v>
       </c>
       <c r="AJ35" s="16">
         <f>AJ$1/$H35</f>
-        <v>3.7873281262521443</v>
+        <v>2.8211284513805523</v>
       </c>
       <c r="AK35" s="16">
         <f>AK$1/$H35</f>
-        <v>3.8679095757468707</v>
+        <v>2.8811524609843939</v>
       </c>
       <c r="AL35" s="16">
         <f>AL$1/$H35</f>
-        <v>3.9484910252415975</v>
+        <v>2.9411764705882355</v>
       </c>
       <c r="AM35" s="4">
         <f>AM$1/$H35</f>
-        <v>4.0290724747363234</v>
+        <v>3.0012004801920771</v>
       </c>
       <c r="AN35" s="16">
         <f>AN$1/$H35</f>
-        <v>4.1096539242310497</v>
+        <v>3.0612244897959182</v>
       </c>
       <c r="AO35" s="16">
         <f>AO$1/$H35</f>
-        <v>4.1902353737257769</v>
+        <v>3.1212484993997602</v>
       </c>
       <c r="AP35" s="16">
         <f>AP$1/$H35</f>
-        <v>4.2708168232205033</v>
+        <v>3.1812725090036014</v>
       </c>
       <c r="AQ35" s="16">
         <f>AQ$1/$H35</f>
-        <v>4.3513982727152296</v>
+        <v>3.2412965186074434</v>
       </c>
       <c r="AR35" s="16">
         <f>AR$1/$H35</f>
-        <v>4.431979722209956</v>
+        <v>3.3013205282112845</v>
       </c>
       <c r="AS35" s="16">
         <f>AS$1/$H35</f>
-        <v>4.5125611717046823</v>
+        <v>3.3613445378151261</v>
       </c>
       <c r="AT35" s="16">
         <f>AT$1/$H35</f>
-        <v>4.5931426211994095</v>
+        <v>3.4213685474189677</v>
       </c>
       <c r="AU35" s="16">
         <f>AU$1/$H35</f>
-        <v>4.673724070694135</v>
+        <v>3.4813925570228093</v>
       </c>
       <c r="AV35" s="16">
         <f>AV$1/$H35</f>
-        <v>4.8348869696835886</v>
+        <v>3.6014405762304924</v>
       </c>
       <c r="AW35" s="17">
         <f>AW$1/$H35</f>
-        <v>4.9960498686730412</v>
+        <v>3.7214885954381756</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
@@ -8077,7 +7402,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -8089,178 +7414,178 @@
         <v>0.85</v>
       </c>
       <c r="F36" s="15">
-        <v>1.2509307520477</v>
+        <v>0.58615040953090003</v>
       </c>
       <c r="G36" s="15">
-        <v>0.74968974931745003</v>
+        <v>0.97128319682302999</v>
       </c>
       <c r="H36" s="27">
-        <f>G36*D36</f>
-        <v>0.59225490196078556</v>
+        <f>D36/G36</f>
+        <v>0.81335701326246646</v>
       </c>
       <c r="I36" s="16">
         <f>I$1/$H36</f>
-        <v>1.6884621751365632</v>
+        <v>1.2294724010418101</v>
       </c>
       <c r="J36" s="16">
         <f>J$1/$H36</f>
-        <v>1.7728852838933915</v>
+        <v>1.2909460210939006</v>
       </c>
       <c r="K36" s="16">
         <f>K$1/$H36</f>
-        <v>1.8573083926502196</v>
+        <v>1.3524196411459912</v>
       </c>
       <c r="L36" s="16">
         <f>L$1/$H36</f>
-        <v>1.9417315014070475</v>
+        <v>1.4138932611980815</v>
       </c>
       <c r="M36" s="16">
         <f>M$1/$H36</f>
-        <v>2.0261546101638759</v>
+        <v>1.4753668812501721</v>
       </c>
       <c r="N36" s="16">
         <f>N$1/$H36</f>
-        <v>2.110577718920704</v>
+        <v>1.5368405013022626</v>
       </c>
       <c r="O36" s="16">
         <f>O$1/$H36</f>
-        <v>2.1950008276775321</v>
+        <v>1.5983141213543532</v>
       </c>
       <c r="P36" s="16">
         <f>P$1/$H36</f>
-        <v>2.2794239364343607</v>
+        <v>1.6597877414064437</v>
       </c>
       <c r="Q36" s="16">
         <f>Q$1/$H36</f>
-        <v>2.3638470451911884</v>
+        <v>1.7212613614585339</v>
       </c>
       <c r="R36" s="16">
         <f>R$1/$H36</f>
-        <v>2.4482701539480165</v>
+        <v>1.7827349815106246</v>
       </c>
       <c r="S36" s="16">
         <f>S$1/$H36</f>
-        <v>2.5326932627048451</v>
+        <v>1.844208601562715</v>
       </c>
       <c r="T36" s="16">
         <f>T$1/$H36</f>
-        <v>2.6171163714616732</v>
+        <v>1.9056822216148057</v>
       </c>
       <c r="U36" s="16">
         <f>U$1/$H36</f>
-        <v>2.7015394802185013</v>
+        <v>1.9671558416668962</v>
       </c>
       <c r="V36" s="16">
         <f>V$1/$H36</f>
-        <v>2.785962588975329</v>
+        <v>2.0286294617189866</v>
       </c>
       <c r="W36" s="16">
         <f>W$1/$H36</f>
-        <v>2.8703856977321576</v>
+        <v>2.0901030817710771</v>
       </c>
       <c r="X36" s="16">
         <f>X$1/$H36</f>
-        <v>2.9548088064889857</v>
+        <v>2.1515767018231675</v>
       </c>
       <c r="Y36" s="16">
         <f>Y$1/$H36</f>
-        <v>3.0392319152458138</v>
+        <v>2.2130503218752584</v>
       </c>
       <c r="Z36" s="16">
         <f>Z$1/$H36</f>
-        <v>3.1236550240026419</v>
+        <v>2.2745239419273489</v>
       </c>
       <c r="AA36" s="16">
         <f>AA$1/$H36</f>
-        <v>3.2080781327594701</v>
+        <v>2.3359975619794389</v>
       </c>
       <c r="AB36" s="16">
         <f>AB$1/$H36</f>
-        <v>3.2925012415162982</v>
+        <v>2.3974711820315298</v>
       </c>
       <c r="AC36" s="16">
         <f>AC$1/$H36</f>
-        <v>3.3769243502731263</v>
+        <v>2.4589448020836202</v>
       </c>
       <c r="AD36" s="16">
         <f>AD$1/$H36</f>
-        <v>3.4613474590299544</v>
+        <v>2.5204184221357107</v>
       </c>
       <c r="AE36" s="16">
         <f>AE$1/$H36</f>
-        <v>3.545770567786783</v>
+        <v>2.5818920421878011</v>
       </c>
       <c r="AF36" s="16">
         <f>AF$1/$H36</f>
-        <v>3.6301936765436107</v>
+        <v>2.6433656622398916</v>
       </c>
       <c r="AG36" s="16">
         <f>AG$1/$H36</f>
-        <v>3.7146167853004393</v>
+        <v>2.7048392822919824</v>
       </c>
       <c r="AH36" s="16">
         <f>AH$1/$H36</f>
-        <v>3.7990398940572674</v>
+        <v>2.7663129023440729</v>
       </c>
       <c r="AI36" s="16">
         <f>AI$1/$H36</f>
-        <v>3.8834630028140951</v>
+        <v>2.8277865223961629</v>
       </c>
       <c r="AJ36" s="16">
         <f>AJ$1/$H36</f>
-        <v>3.9678861115709236</v>
+        <v>2.8892601424482538</v>
       </c>
       <c r="AK36" s="16">
         <f>AK$1/$H36</f>
-        <v>4.0523092203277518</v>
+        <v>2.9507337625003442</v>
       </c>
       <c r="AL36" s="16">
         <f>AL$1/$H36</f>
-        <v>4.1367323290845803</v>
+        <v>3.0122073825524351</v>
       </c>
       <c r="AM36" s="4">
         <f>AM$1/$H36</f>
-        <v>4.221155437841408</v>
+        <v>3.0736810026045251</v>
       </c>
       <c r="AN36" s="16">
         <f>AN$1/$H36</f>
-        <v>4.3055785465982357</v>
+        <v>3.1351546226566156</v>
       </c>
       <c r="AO36" s="16">
         <f>AO$1/$H36</f>
-        <v>4.3900016553550643</v>
+        <v>3.1966282427087065</v>
       </c>
       <c r="AP36" s="16">
         <f>AP$1/$H36</f>
-        <v>4.4744247641118928</v>
+        <v>3.2581018627607965</v>
       </c>
       <c r="AQ36" s="16">
         <f>AQ$1/$H36</f>
-        <v>4.5588478728687214</v>
+        <v>3.3195754828128874</v>
       </c>
       <c r="AR36" s="16">
         <f>AR$1/$H36</f>
-        <v>4.6432709816255491</v>
+        <v>3.3810491028649778</v>
       </c>
       <c r="AS36" s="16">
         <f>AS$1/$H36</f>
-        <v>4.7276940903823768</v>
+        <v>3.4425227229170678</v>
       </c>
       <c r="AT36" s="16">
         <f>AT$1/$H36</f>
-        <v>4.8121171991392053</v>
+        <v>3.5039963429691587</v>
       </c>
       <c r="AU36" s="16">
         <f>AU$1/$H36</f>
-        <v>4.896540307896033</v>
+        <v>3.5654699630212492</v>
       </c>
       <c r="AV36" s="16">
         <f>AV$1/$H36</f>
-        <v>5.0653865254096901</v>
+        <v>3.6884172031254301</v>
       </c>
       <c r="AW36" s="17">
         <f>AW$1/$H36</f>
-        <v>5.2342327429233464</v>
+        <v>3.8113644432296114</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
@@ -8268,190 +7593,190 @@
         <v>19</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
       <c r="D37" s="14">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E37" s="30">
         <v>0.85</v>
       </c>
-      <c r="F37" s="15">
-        <v>1.2628443782576</v>
+      <c r="F37" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G37" s="15">
-        <v>0.74571854058079001</v>
+        <v>1</v>
       </c>
       <c r="H37" s="27">
-        <f>G37*D37</f>
-        <v>0.58911764705882419</v>
+        <f>D37/G37</f>
+        <v>0.8</v>
       </c>
       <c r="I37" s="16">
         <f>I$1/$H37</f>
-        <v>1.6974538192710915</v>
+        <v>1.25</v>
       </c>
       <c r="J37" s="16">
         <f>J$1/$H37</f>
-        <v>1.7823265102346462</v>
+        <v>1.3125</v>
       </c>
       <c r="K37" s="16">
         <f>K$1/$H37</f>
-        <v>1.8671992011982008</v>
+        <v>1.375</v>
       </c>
       <c r="L37" s="16">
         <f>L$1/$H37</f>
-        <v>1.952071892161755</v>
+        <v>1.4374999999999998</v>
       </c>
       <c r="M37" s="16">
         <f>M$1/$H37</f>
-        <v>2.0369445831253095</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="N37" s="16">
         <f>N$1/$H37</f>
-        <v>2.1218172740888641</v>
+        <v>1.5625</v>
       </c>
       <c r="O37" s="16">
         <f>O$1/$H37</f>
-        <v>2.2066899650524188</v>
+        <v>1.625</v>
       </c>
       <c r="P37" s="16">
         <f>P$1/$H37</f>
-        <v>2.2915626560159734</v>
+        <v>1.6875</v>
       </c>
       <c r="Q37" s="16">
         <f>Q$1/$H37</f>
-        <v>2.3764353469795281</v>
+        <v>1.7499999999999998</v>
       </c>
       <c r="R37" s="16">
         <f>R$1/$H37</f>
-        <v>2.4613080379430827</v>
+        <v>1.8124999999999998</v>
       </c>
       <c r="S37" s="16">
         <f>S$1/$H37</f>
-        <v>2.5461807289066374</v>
+        <v>1.875</v>
       </c>
       <c r="T37" s="16">
         <f>T$1/$H37</f>
-        <v>2.631053419870192</v>
+        <v>1.9375</v>
       </c>
       <c r="U37" s="16">
         <f>U$1/$H37</f>
-        <v>2.7159261108337467</v>
+        <v>2</v>
       </c>
       <c r="V37" s="16">
         <f>V$1/$H37</f>
-        <v>2.8007988017973009</v>
+        <v>2.0624999999999996</v>
       </c>
       <c r="W37" s="16">
         <f>W$1/$H37</f>
-        <v>2.8856714927608555</v>
+        <v>2.125</v>
       </c>
       <c r="X37" s="16">
         <f>X$1/$H37</f>
-        <v>2.9705441837244102</v>
+        <v>2.1875</v>
       </c>
       <c r="Y37" s="16">
         <f>Y$1/$H37</f>
-        <v>3.0554168746879649</v>
+        <v>2.25</v>
       </c>
       <c r="Z37" s="16">
         <f>Z$1/$H37</f>
-        <v>3.1402895656515195</v>
+        <v>2.3125</v>
       </c>
       <c r="AA37" s="16">
         <f>AA$1/$H37</f>
-        <v>3.2251622566150737</v>
+        <v>2.3749999999999996</v>
       </c>
       <c r="AB37" s="16">
         <f>AB$1/$H37</f>
-        <v>3.3100349475786284</v>
+        <v>2.4375</v>
       </c>
       <c r="AC37" s="16">
         <f>AC$1/$H37</f>
-        <v>3.394907638542183</v>
+        <v>2.5</v>
       </c>
       <c r="AD37" s="16">
         <f>AD$1/$H37</f>
-        <v>3.4797803295057372</v>
+        <v>2.5624999999999996</v>
       </c>
       <c r="AE37" s="16">
         <f>AE$1/$H37</f>
-        <v>3.5646530204692923</v>
+        <v>2.625</v>
       </c>
       <c r="AF37" s="16">
         <f>AF$1/$H37</f>
-        <v>3.6495257114328465</v>
+        <v>2.6874999999999996</v>
       </c>
       <c r="AG37" s="16">
         <f>AG$1/$H37</f>
-        <v>3.7343984023964016</v>
+        <v>2.75</v>
       </c>
       <c r="AH37" s="16">
         <f>AH$1/$H37</f>
-        <v>3.8192710933599558</v>
+        <v>2.8125</v>
       </c>
       <c r="AI37" s="16">
         <f>AI$1/$H37</f>
-        <v>3.9041437843235101</v>
+        <v>2.8749999999999996</v>
       </c>
       <c r="AJ37" s="16">
         <f>AJ$1/$H37</f>
-        <v>3.9890164752870652</v>
+        <v>2.9375</v>
       </c>
       <c r="AK37" s="16">
         <f>AK$1/$H37</f>
-        <v>4.0738891662506189</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="AL37" s="16">
         <f>AL$1/$H37</f>
-        <v>4.1587618572141745</v>
+        <v>3.0625</v>
       </c>
       <c r="AM37" s="4">
         <f>AM$1/$H37</f>
-        <v>4.2436345481777282</v>
+        <v>3.125</v>
       </c>
       <c r="AN37" s="16">
         <f>AN$1/$H37</f>
-        <v>4.3285072391412829</v>
+        <v>3.1874999999999996</v>
       </c>
       <c r="AO37" s="16">
         <f>AO$1/$H37</f>
-        <v>4.4133799301048375</v>
+        <v>3.25</v>
       </c>
       <c r="AP37" s="16">
         <f>AP$1/$H37</f>
-        <v>4.4982526210683922</v>
+        <v>3.3124999999999996</v>
       </c>
       <c r="AQ37" s="16">
         <f>AQ$1/$H37</f>
-        <v>4.5831253120319468</v>
+        <v>3.375</v>
       </c>
       <c r="AR37" s="16">
         <f>AR$1/$H37</f>
-        <v>4.6679980029955015</v>
+        <v>3.4375</v>
       </c>
       <c r="AS37" s="16">
         <f>AS$1/$H37</f>
-        <v>4.7528706939590561</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="AT37" s="16">
         <f>AT$1/$H37</f>
-        <v>4.8377433849226108</v>
+        <v>3.5625</v>
       </c>
       <c r="AU37" s="16">
         <f>AU$1/$H37</f>
-        <v>4.9226160758861655</v>
+        <v>3.6249999999999996</v>
       </c>
       <c r="AV37" s="16">
         <f>AV$1/$H37</f>
-        <v>5.0923614578132748</v>
+        <v>3.75</v>
       </c>
       <c r="AW37" s="17">
         <f>AW$1/$H37</f>
-        <v>5.2621068397403841</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
@@ -8459,190 +7784,190 @@
         <v>19</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
       <c r="D38" s="14">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="E38" s="30">
         <v>0.85</v>
       </c>
       <c r="F38" s="15">
-        <v>0.92669689418793999</v>
+        <v>0.47654504839910999</v>
       </c>
       <c r="G38" s="15">
-        <v>0.85776770193734997</v>
+        <v>1</v>
       </c>
       <c r="H38" s="27">
-        <f>G38*D38</f>
-        <v>0.5575490062592775</v>
+        <f>D38/G38</f>
+        <v>0.79</v>
       </c>
       <c r="I38" s="16">
         <f>I$1/$H38</f>
-        <v>1.7935643123269582</v>
+        <v>1.2658227848101264</v>
       </c>
       <c r="J38" s="16">
         <f>J$1/$H38</f>
-        <v>1.8832425279433063</v>
+        <v>1.3291139240506329</v>
       </c>
       <c r="K38" s="16">
         <f>K$1/$H38</f>
-        <v>1.9729207435596543</v>
+        <v>1.3924050632911393</v>
       </c>
       <c r="L38" s="16">
         <f>L$1/$H38</f>
-        <v>2.0625989591760017</v>
+        <v>1.4556962025316453</v>
       </c>
       <c r="M38" s="16">
         <f>M$1/$H38</f>
-        <v>2.1522771747923497</v>
+        <v>1.5189873417721518</v>
       </c>
       <c r="N38" s="16">
         <f>N$1/$H38</f>
-        <v>2.2419553904086977</v>
+        <v>1.5822784810126582</v>
       </c>
       <c r="O38" s="16">
         <f>O$1/$H38</f>
-        <v>2.3316336060250458</v>
+        <v>1.6455696202531644</v>
       </c>
       <c r="P38" s="16">
         <f>P$1/$H38</f>
-        <v>2.4213118216413938</v>
+        <v>1.7088607594936709</v>
       </c>
       <c r="Q38" s="16">
         <f>Q$1/$H38</f>
-        <v>2.5109900372577414</v>
+        <v>1.7721518987341771</v>
       </c>
       <c r="R38" s="16">
         <f>R$1/$H38</f>
-        <v>2.6006682528740894</v>
+        <v>1.8354430379746833</v>
       </c>
       <c r="S38" s="16">
         <f>S$1/$H38</f>
-        <v>2.6903464684904375</v>
+        <v>1.8987341772151898</v>
       </c>
       <c r="T38" s="16">
         <f>T$1/$H38</f>
-        <v>2.7800246841067855</v>
+        <v>1.9620253164556962</v>
       </c>
       <c r="U38" s="16">
         <f>U$1/$H38</f>
-        <v>2.8697028997231335</v>
+        <v>2.0253164556962027</v>
       </c>
       <c r="V38" s="16">
         <f>V$1/$H38</f>
-        <v>2.9593811153394811</v>
+        <v>2.0886075949367084</v>
       </c>
       <c r="W38" s="16">
         <f>W$1/$H38</f>
-        <v>3.0490593309558292</v>
+        <v>2.1518987341772151</v>
       </c>
       <c r="X38" s="16">
         <f>X$1/$H38</f>
-        <v>3.1387375465721767</v>
+        <v>2.2151898734177213</v>
       </c>
       <c r="Y38" s="16">
         <f>Y$1/$H38</f>
-        <v>3.2284157621885248</v>
+        <v>2.278481012658228</v>
       </c>
       <c r="Z38" s="16">
         <f>Z$1/$H38</f>
-        <v>3.3180939778048728</v>
+        <v>2.3417721518987342</v>
       </c>
       <c r="AA38" s="16">
         <f>AA$1/$H38</f>
-        <v>3.4077721934212204</v>
+        <v>2.4050632911392404</v>
       </c>
       <c r="AB38" s="16">
         <f>AB$1/$H38</f>
-        <v>3.4974504090375684</v>
+        <v>2.4683544303797467</v>
       </c>
       <c r="AC38" s="16">
         <f>AC$1/$H38</f>
-        <v>3.5871286246539165</v>
+        <v>2.5316455696202529</v>
       </c>
       <c r="AD38" s="16">
         <f>AD$1/$H38</f>
-        <v>3.6768068402702641</v>
+        <v>2.5949367088607591</v>
       </c>
       <c r="AE38" s="16">
         <f>AE$1/$H38</f>
-        <v>3.7664850558866125</v>
+        <v>2.6582278481012658</v>
       </c>
       <c r="AF38" s="16">
         <f>AF$1/$H38</f>
-        <v>3.8561632715029601</v>
+        <v>2.721518987341772</v>
       </c>
       <c r="AG38" s="16">
         <f>AG$1/$H38</f>
-        <v>3.9458414871193086</v>
+        <v>2.7848101265822787</v>
       </c>
       <c r="AH38" s="16">
         <f>AH$1/$H38</f>
-        <v>4.0355197027356562</v>
+        <v>2.8481012658227849</v>
       </c>
       <c r="AI38" s="16">
         <f>AI$1/$H38</f>
-        <v>4.1251979183520033</v>
+        <v>2.9113924050632907</v>
       </c>
       <c r="AJ38" s="16">
         <f>AJ$1/$H38</f>
-        <v>4.2148761339683523</v>
+        <v>2.9746835443037973</v>
       </c>
       <c r="AK38" s="16">
         <f>AK$1/$H38</f>
-        <v>4.3045543495846994</v>
+        <v>3.0379746835443036</v>
       </c>
       <c r="AL38" s="16">
         <f>AL$1/$H38</f>
-        <v>4.3942325652010483</v>
+        <v>3.1012658227848102</v>
       </c>
       <c r="AM38" s="4">
         <f>AM$1/$H38</f>
-        <v>4.4839107808173955</v>
+        <v>3.1645569620253164</v>
       </c>
       <c r="AN38" s="16">
         <f>AN$1/$H38</f>
-        <v>4.5735889964337435</v>
+        <v>3.2278481012658222</v>
       </c>
       <c r="AO38" s="16">
         <f>AO$1/$H38</f>
-        <v>4.6632672120500915</v>
+        <v>3.2911392405063289</v>
       </c>
       <c r="AP38" s="16">
         <f>AP$1/$H38</f>
-        <v>4.7529454276664396</v>
+        <v>3.3544303797468351</v>
       </c>
       <c r="AQ38" s="16">
         <f>AQ$1/$H38</f>
-        <v>4.8426236432827876</v>
+        <v>3.4177215189873418</v>
       </c>
       <c r="AR38" s="16">
         <f>AR$1/$H38</f>
-        <v>4.9323018588991356</v>
+        <v>3.481012658227848</v>
       </c>
       <c r="AS38" s="16">
         <f>AS$1/$H38</f>
-        <v>5.0219800745154828</v>
+        <v>3.5443037974683542</v>
       </c>
       <c r="AT38" s="16">
         <f>AT$1/$H38</f>
-        <v>5.1116582901318308</v>
+        <v>3.6075949367088609</v>
       </c>
       <c r="AU38" s="16">
         <f>AU$1/$H38</f>
-        <v>5.2013365057481789</v>
+        <v>3.6708860759493667</v>
       </c>
       <c r="AV38" s="16">
         <f>AV$1/$H38</f>
-        <v>5.3806929369808749</v>
+        <v>3.7974683544303796</v>
       </c>
       <c r="AW38" s="17">
         <f>AW$1/$H38</f>
-        <v>5.560049368213571</v>
+        <v>3.9240506329113924</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
@@ -8650,190 +7975,190 @@
         <v>19</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
       <c r="D39" s="14">
-        <v>0.55000000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="E39" s="30">
         <v>0.85</v>
       </c>
       <c r="F39" s="15">
-        <v>0.58181817634741995</v>
+        <v>0.47654504839910999</v>
       </c>
       <c r="G39" s="15">
-        <v>0.97272727455086005</v>
+        <v>1</v>
       </c>
       <c r="H39" s="27">
-        <f>G39*D39</f>
-        <v>0.53500000100297307</v>
+        <f>D39/G39</f>
+        <v>0.79</v>
       </c>
       <c r="I39" s="16">
         <f>I$1/$H39</f>
-        <v>1.8691588750005308</v>
+        <v>1.2658227848101264</v>
       </c>
       <c r="J39" s="16">
         <f>J$1/$H39</f>
-        <v>1.9626168187505575</v>
+        <v>1.3291139240506329</v>
       </c>
       <c r="K39" s="16">
         <f>K$1/$H39</f>
-        <v>2.0560747625005842</v>
+        <v>1.3924050632911393</v>
       </c>
       <c r="L39" s="16">
         <f>L$1/$H39</f>
-        <v>2.1495327062506102</v>
+        <v>1.4556962025316453</v>
       </c>
       <c r="M39" s="16">
         <f>M$1/$H39</f>
-        <v>2.2429906500006367</v>
+        <v>1.5189873417721518</v>
       </c>
       <c r="N39" s="16">
         <f>N$1/$H39</f>
-        <v>2.3364485937506636</v>
+        <v>1.5822784810126582</v>
       </c>
       <c r="O39" s="16">
         <f>O$1/$H39</f>
-        <v>2.4299065375006901</v>
+        <v>1.6455696202531644</v>
       </c>
       <c r="P39" s="16">
         <f>P$1/$H39</f>
-        <v>2.5233644812507166</v>
+        <v>1.7088607594936709</v>
       </c>
       <c r="Q39" s="16">
         <f>Q$1/$H39</f>
-        <v>2.616822425000743</v>
+        <v>1.7721518987341771</v>
       </c>
       <c r="R39" s="16">
         <f>R$1/$H39</f>
-        <v>2.7102803687507695</v>
+        <v>1.8354430379746833</v>
       </c>
       <c r="S39" s="16">
         <f>S$1/$H39</f>
-        <v>2.8037383125007964</v>
+        <v>1.8987341772151898</v>
       </c>
       <c r="T39" s="16">
         <f>T$1/$H39</f>
-        <v>2.8971962562508229</v>
+        <v>1.9620253164556962</v>
       </c>
       <c r="U39" s="16">
         <f>U$1/$H39</f>
-        <v>2.9906542000008494</v>
+        <v>2.0253164556962027</v>
       </c>
       <c r="V39" s="16">
         <f>V$1/$H39</f>
-        <v>3.0841121437508758</v>
+        <v>2.0886075949367084</v>
       </c>
       <c r="W39" s="16">
         <f>W$1/$H39</f>
-        <v>3.1775700875009023</v>
+        <v>2.1518987341772151</v>
       </c>
       <c r="X39" s="16">
         <f>X$1/$H39</f>
-        <v>3.2710280312509288</v>
+        <v>2.2151898734177213</v>
       </c>
       <c r="Y39" s="16">
         <f>Y$1/$H39</f>
-        <v>3.3644859750009557</v>
+        <v>2.278481012658228</v>
       </c>
       <c r="Z39" s="16">
         <f>Z$1/$H39</f>
-        <v>3.4579439187509822</v>
+        <v>2.3417721518987342</v>
       </c>
       <c r="AA39" s="16">
         <f>AA$1/$H39</f>
-        <v>3.5514018625010082</v>
+        <v>2.4050632911392404</v>
       </c>
       <c r="AB39" s="16">
         <f>AB$1/$H39</f>
-        <v>3.6448598062510351</v>
+        <v>2.4683544303797467</v>
       </c>
       <c r="AC39" s="16">
         <f>AC$1/$H39</f>
-        <v>3.7383177500010616</v>
+        <v>2.5316455696202529</v>
       </c>
       <c r="AD39" s="16">
         <f>AD$1/$H39</f>
-        <v>3.8317756937510876</v>
+        <v>2.5949367088607591</v>
       </c>
       <c r="AE39" s="16">
         <f>AE$1/$H39</f>
-        <v>3.925233637501115</v>
+        <v>2.6582278481012658</v>
       </c>
       <c r="AF39" s="16">
         <f>AF$1/$H39</f>
-        <v>4.018691581251141</v>
+        <v>2.721518987341772</v>
       </c>
       <c r="AG39" s="16">
         <f>AG$1/$H39</f>
-        <v>4.1121495250011684</v>
+        <v>2.7848101265822787</v>
       </c>
       <c r="AH39" s="16">
         <f>AH$1/$H39</f>
-        <v>4.205607468751194</v>
+        <v>2.8481012658227849</v>
       </c>
       <c r="AI39" s="16">
         <f>AI$1/$H39</f>
-        <v>4.2990654125012204</v>
+        <v>2.9113924050632907</v>
       </c>
       <c r="AJ39" s="16">
         <f>AJ$1/$H39</f>
-        <v>4.3925233562512478</v>
+        <v>2.9746835443037973</v>
       </c>
       <c r="AK39" s="16">
         <f>AK$1/$H39</f>
-        <v>4.4859813000012734</v>
+        <v>3.0379746835443036</v>
       </c>
       <c r="AL39" s="16">
         <f>AL$1/$H39</f>
-        <v>4.5794392437513007</v>
+        <v>3.1012658227848102</v>
       </c>
       <c r="AM39" s="4">
         <f>AM$1/$H39</f>
-        <v>4.6728971875013272</v>
+        <v>3.1645569620253164</v>
       </c>
       <c r="AN39" s="16">
         <f>AN$1/$H39</f>
-        <v>4.7663551312513537</v>
+        <v>3.2278481012658222</v>
       </c>
       <c r="AO39" s="16">
         <f>AO$1/$H39</f>
-        <v>4.8598130750013802</v>
+        <v>3.2911392405063289</v>
       </c>
       <c r="AP39" s="16">
         <f>AP$1/$H39</f>
-        <v>4.9532710187514066</v>
+        <v>3.3544303797468351</v>
       </c>
       <c r="AQ39" s="16">
         <f>AQ$1/$H39</f>
-        <v>5.0467289625014331</v>
+        <v>3.4177215189873418</v>
       </c>
       <c r="AR39" s="16">
         <f>AR$1/$H39</f>
-        <v>5.1401869062514596</v>
+        <v>3.481012658227848</v>
       </c>
       <c r="AS39" s="16">
         <f>AS$1/$H39</f>
-        <v>5.233644850001486</v>
+        <v>3.5443037974683542</v>
       </c>
       <c r="AT39" s="16">
         <f>AT$1/$H39</f>
-        <v>5.3271027937515134</v>
+        <v>3.6075949367088609</v>
       </c>
       <c r="AU39" s="16">
         <f>AU$1/$H39</f>
-        <v>5.420560737501539</v>
+        <v>3.6708860759493667</v>
       </c>
       <c r="AV39" s="16">
         <f>AV$1/$H39</f>
-        <v>5.6074766250015928</v>
+        <v>3.7974683544303796</v>
       </c>
       <c r="AW39" s="17">
         <f>AW$1/$H39</f>
-        <v>5.7943925125016458</v>
+        <v>3.9240506329113924</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
@@ -8841,190 +8166,190 @@
         <v>19</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
       <c r="D40" s="14">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="E40" s="30">
         <v>0.85</v>
       </c>
       <c r="F40" s="15">
-        <v>0.87843133764328996</v>
+        <v>0.47654504839910999</v>
       </c>
       <c r="G40" s="15">
-        <v>0.87385622078557001</v>
+        <v>1</v>
       </c>
       <c r="H40" s="27">
-        <f>G40*D40</f>
-        <v>0.52431373247134194</v>
+        <f>D40/G40</f>
+        <v>0.79</v>
       </c>
       <c r="I40" s="16">
         <f>I$1/$H40</f>
-        <v>1.9072550232215371</v>
+        <v>1.2658227848101264</v>
       </c>
       <c r="J40" s="16">
         <f>J$1/$H40</f>
-        <v>2.0026177743826139</v>
+        <v>1.3291139240506329</v>
       </c>
       <c r="K40" s="16">
         <f>K$1/$H40</f>
-        <v>2.097980525543691</v>
+        <v>1.3924050632911393</v>
       </c>
       <c r="L40" s="16">
         <f>L$1/$H40</f>
-        <v>2.1933432767047671</v>
+        <v>1.4556962025316453</v>
       </c>
       <c r="M40" s="16">
         <f>M$1/$H40</f>
-        <v>2.2887060278658442</v>
+        <v>1.5189873417721518</v>
       </c>
       <c r="N40" s="16">
         <f>N$1/$H40</f>
-        <v>2.3840687790269213</v>
+        <v>1.5822784810126582</v>
       </c>
       <c r="O40" s="16">
         <f>O$1/$H40</f>
-        <v>2.4794315301879983</v>
+        <v>1.6455696202531644</v>
       </c>
       <c r="P40" s="16">
         <f>P$1/$H40</f>
-        <v>2.574794281349075</v>
+        <v>1.7088607594936709</v>
       </c>
       <c r="Q40" s="16">
         <f>Q$1/$H40</f>
-        <v>2.6701570325101516</v>
+        <v>1.7721518987341771</v>
       </c>
       <c r="R40" s="16">
         <f>R$1/$H40</f>
-        <v>2.7655197836712286</v>
+        <v>1.8354430379746833</v>
       </c>
       <c r="S40" s="16">
         <f>S$1/$H40</f>
-        <v>2.8608825348323053</v>
+        <v>1.8987341772151898</v>
       </c>
       <c r="T40" s="16">
         <f>T$1/$H40</f>
-        <v>2.9562452859933823</v>
+        <v>1.9620253164556962</v>
       </c>
       <c r="U40" s="16">
         <f>U$1/$H40</f>
-        <v>3.0516080371544594</v>
+        <v>2.0253164556962027</v>
       </c>
       <c r="V40" s="16">
         <f>V$1/$H40</f>
-        <v>3.146970788315536</v>
+        <v>2.0886075949367084</v>
       </c>
       <c r="W40" s="16">
         <f>W$1/$H40</f>
-        <v>3.2423335394766126</v>
+        <v>2.1518987341772151</v>
       </c>
       <c r="X40" s="16">
         <f>X$1/$H40</f>
-        <v>3.3376962906376897</v>
+        <v>2.2151898734177213</v>
       </c>
       <c r="Y40" s="16">
         <f>Y$1/$H40</f>
-        <v>3.4330590417987668</v>
+        <v>2.278481012658228</v>
       </c>
       <c r="Z40" s="16">
         <f>Z$1/$H40</f>
-        <v>3.5284217929598434</v>
+        <v>2.3417721518987342</v>
       </c>
       <c r="AA40" s="16">
         <f>AA$1/$H40</f>
-        <v>3.62378454412092</v>
+        <v>2.4050632911392404</v>
       </c>
       <c r="AB40" s="16">
         <f>AB$1/$H40</f>
-        <v>3.7191472952819971</v>
+        <v>2.4683544303797467</v>
       </c>
       <c r="AC40" s="16">
         <f>AC$1/$H40</f>
-        <v>3.8145100464430741</v>
+        <v>2.5316455696202529</v>
       </c>
       <c r="AD40" s="16">
         <f>AD$1/$H40</f>
-        <v>3.9098727976041503</v>
+        <v>2.5949367088607591</v>
       </c>
       <c r="AE40" s="16">
         <f>AE$1/$H40</f>
-        <v>4.0052355487652278</v>
+        <v>2.6582278481012658</v>
       </c>
       <c r="AF40" s="16">
         <f>AF$1/$H40</f>
-        <v>4.100598299926304</v>
+        <v>2.721518987341772</v>
       </c>
       <c r="AG40" s="16">
         <f>AG$1/$H40</f>
-        <v>4.1959610510873819</v>
+        <v>2.7848101265822787</v>
       </c>
       <c r="AH40" s="16">
         <f>AH$1/$H40</f>
-        <v>4.2913238022484581</v>
+        <v>2.8481012658227849</v>
       </c>
       <c r="AI40" s="16">
         <f>AI$1/$H40</f>
-        <v>4.3866865534095343</v>
+        <v>2.9113924050632907</v>
       </c>
       <c r="AJ40" s="16">
         <f>AJ$1/$H40</f>
-        <v>4.4820493045706122</v>
+        <v>2.9746835443037973</v>
       </c>
       <c r="AK40" s="16">
         <f>AK$1/$H40</f>
-        <v>4.5774120557316884</v>
+        <v>3.0379746835443036</v>
       </c>
       <c r="AL40" s="16">
         <f>AL$1/$H40</f>
-        <v>4.6727748068927664</v>
+        <v>3.1012658227848102</v>
       </c>
       <c r="AM40" s="4">
         <f>AM$1/$H40</f>
-        <v>4.7681375580538425</v>
+        <v>3.1645569620253164</v>
       </c>
       <c r="AN40" s="16">
         <f>AN$1/$H40</f>
-        <v>4.8635003092149187</v>
+        <v>3.2278481012658222</v>
       </c>
       <c r="AO40" s="16">
         <f>AO$1/$H40</f>
-        <v>4.9588630603759967</v>
+        <v>3.2911392405063289</v>
       </c>
       <c r="AP40" s="16">
         <f>AP$1/$H40</f>
-        <v>5.0542258115370728</v>
+        <v>3.3544303797468351</v>
       </c>
       <c r="AQ40" s="16">
         <f>AQ$1/$H40</f>
-        <v>5.1495885626981499</v>
+        <v>3.4177215189873418</v>
       </c>
       <c r="AR40" s="16">
         <f>AR$1/$H40</f>
-        <v>5.244951313859227</v>
+        <v>3.481012658227848</v>
       </c>
       <c r="AS40" s="16">
         <f>AS$1/$H40</f>
-        <v>5.3403140650203031</v>
+        <v>3.5443037974683542</v>
       </c>
       <c r="AT40" s="16">
         <f>AT$1/$H40</f>
-        <v>5.4356768161813802</v>
+        <v>3.6075949367088609</v>
       </c>
       <c r="AU40" s="16">
         <f>AU$1/$H40</f>
-        <v>5.5310395673424573</v>
+        <v>3.6708860759493667</v>
       </c>
       <c r="AV40" s="16">
         <f>AV$1/$H40</f>
-        <v>5.7217650696646105</v>
+        <v>3.7974683544303796</v>
       </c>
       <c r="AW40" s="17">
         <f>AW$1/$H40</f>
-        <v>5.9124905719867646</v>
+        <v>3.9240506329113924</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
@@ -9032,190 +8357,190 @@
         <v>19</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C41" s="13">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="D41" s="14">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="E41" s="30">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="F41" s="15">
-        <v>0.99941209854627</v>
+        <v>0.45271781160152003</v>
       </c>
       <c r="G41" s="15">
-        <v>0.83352930048457996</v>
+        <v>1</v>
       </c>
       <c r="H41" s="27">
-        <f>G41*D41</f>
-        <v>0.50011758029074793</v>
+        <f>D41/G41</f>
+        <v>0.79</v>
       </c>
       <c r="I41" s="16">
         <f>I$1/$H41</f>
-        <v>1.9995297894120037</v>
+        <v>1.2658227848101264</v>
       </c>
       <c r="J41" s="16">
         <f>J$1/$H41</f>
-        <v>2.099506278882604</v>
+        <v>1.3291139240506329</v>
       </c>
       <c r="K41" s="16">
         <f>K$1/$H41</f>
-        <v>2.1994827683532039</v>
+        <v>1.3924050632911393</v>
       </c>
       <c r="L41" s="16">
         <f>L$1/$H41</f>
-        <v>2.2994592578238038</v>
+        <v>1.4556962025316453</v>
       </c>
       <c r="M41" s="16">
         <f>M$1/$H41</f>
-        <v>2.3994357472944041</v>
+        <v>1.5189873417721518</v>
       </c>
       <c r="N41" s="16">
         <f>N$1/$H41</f>
-        <v>2.4994122367650045</v>
+        <v>1.5822784810126582</v>
       </c>
       <c r="O41" s="16">
         <f>O$1/$H41</f>
-        <v>2.5993887262356048</v>
+        <v>1.6455696202531644</v>
       </c>
       <c r="P41" s="16">
         <f>P$1/$H41</f>
-        <v>2.6993652157062051</v>
+        <v>1.7088607594936709</v>
       </c>
       <c r="Q41" s="16">
         <f>Q$1/$H41</f>
-        <v>2.799341705176805</v>
+        <v>1.7721518987341771</v>
       </c>
       <c r="R41" s="16">
         <f>R$1/$H41</f>
-        <v>2.8993181946474049</v>
+        <v>1.8354430379746833</v>
       </c>
       <c r="S41" s="16">
         <f>S$1/$H41</f>
-        <v>2.9992946841180053</v>
+        <v>1.8987341772151898</v>
       </c>
       <c r="T41" s="16">
         <f>T$1/$H41</f>
-        <v>3.0992711735886056</v>
+        <v>1.9620253164556962</v>
       </c>
       <c r="U41" s="16">
         <f>U$1/$H41</f>
-        <v>3.1992476630592059</v>
+        <v>2.0253164556962027</v>
       </c>
       <c r="V41" s="16">
         <f>V$1/$H41</f>
-        <v>3.2992241525298058</v>
+        <v>2.0886075949367084</v>
       </c>
       <c r="W41" s="16">
         <f>W$1/$H41</f>
-        <v>3.3992006420004062</v>
+        <v>2.1518987341772151</v>
       </c>
       <c r="X41" s="16">
         <f>X$1/$H41</f>
-        <v>3.4991771314710061</v>
+        <v>2.2151898734177213</v>
       </c>
       <c r="Y41" s="16">
         <f>Y$1/$H41</f>
-        <v>3.5991536209416064</v>
+        <v>2.278481012658228</v>
       </c>
       <c r="Z41" s="16">
         <f>Z$1/$H41</f>
-        <v>3.6991301104122067</v>
+        <v>2.3417721518987342</v>
       </c>
       <c r="AA41" s="16">
         <f>AA$1/$H41</f>
-        <v>3.7991065998828066</v>
+        <v>2.4050632911392404</v>
       </c>
       <c r="AB41" s="16">
         <f>AB$1/$H41</f>
-        <v>3.899083089353407</v>
+        <v>2.4683544303797467</v>
       </c>
       <c r="AC41" s="16">
         <f>AC$1/$H41</f>
-        <v>3.9990595788240073</v>
+        <v>2.5316455696202529</v>
       </c>
       <c r="AD41" s="16">
         <f>AD$1/$H41</f>
-        <v>4.0990360682946072</v>
+        <v>2.5949367088607591</v>
       </c>
       <c r="AE41" s="16">
         <f>AE$1/$H41</f>
-        <v>4.199012557765208</v>
+        <v>2.6582278481012658</v>
       </c>
       <c r="AF41" s="16">
         <f>AF$1/$H41</f>
-        <v>4.2989890472358079</v>
+        <v>2.721518987341772</v>
       </c>
       <c r="AG41" s="16">
         <f>AG$1/$H41</f>
-        <v>4.3989655367064078</v>
+        <v>2.7848101265822787</v>
       </c>
       <c r="AH41" s="16">
         <f>AH$1/$H41</f>
-        <v>4.4989420261770077</v>
+        <v>2.8481012658227849</v>
       </c>
       <c r="AI41" s="16">
         <f>AI$1/$H41</f>
-        <v>4.5989185156476076</v>
+        <v>2.9113924050632907</v>
       </c>
       <c r="AJ41" s="16">
         <f>AJ$1/$H41</f>
-        <v>4.6988950051182083</v>
+        <v>2.9746835443037973</v>
       </c>
       <c r="AK41" s="16">
         <f>AK$1/$H41</f>
-        <v>4.7988714945888082</v>
+        <v>3.0379746835443036</v>
       </c>
       <c r="AL41" s="16">
         <f>AL$1/$H41</f>
-        <v>4.898847984059409</v>
+        <v>3.1012658227848102</v>
       </c>
       <c r="AM41" s="4">
         <f>AM$1/$H41</f>
-        <v>4.9988244735300089</v>
+        <v>3.1645569620253164</v>
       </c>
       <c r="AN41" s="16">
         <f>AN$1/$H41</f>
-        <v>5.0988009630006088</v>
+        <v>3.2278481012658222</v>
       </c>
       <c r="AO41" s="16">
         <f>AO$1/$H41</f>
-        <v>5.1987774524712096</v>
+        <v>3.2911392405063289</v>
       </c>
       <c r="AP41" s="16">
         <f>AP$1/$H41</f>
-        <v>5.2987539419418095</v>
+        <v>3.3544303797468351</v>
       </c>
       <c r="AQ41" s="16">
         <f>AQ$1/$H41</f>
-        <v>5.3987304314124103</v>
+        <v>3.4177215189873418</v>
       </c>
       <c r="AR41" s="16">
         <f>AR$1/$H41</f>
-        <v>5.4987069208830102</v>
+        <v>3.481012658227848</v>
       </c>
       <c r="AS41" s="16">
         <f>AS$1/$H41</f>
-        <v>5.5986834103536101</v>
+        <v>3.5443037974683542</v>
       </c>
       <c r="AT41" s="16">
         <f>AT$1/$H41</f>
-        <v>5.69865989982421</v>
+        <v>3.6075949367088609</v>
       </c>
       <c r="AU41" s="16">
         <f>AU$1/$H41</f>
-        <v>5.7986363892948098</v>
+        <v>3.6708860759493667</v>
       </c>
       <c r="AV41" s="16">
         <f>AV$1/$H41</f>
-        <v>5.9985893682360105</v>
+        <v>3.7974683544303796</v>
       </c>
       <c r="AW41" s="17">
         <f>AW$1/$H41</f>
-        <v>6.1985423471772112</v>
+        <v>3.9240506329113924</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
@@ -9223,190 +8548,190 @@
         <v>19</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
       <c r="D42" s="14">
-        <v>0.66600000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="E42" s="30">
         <v>0.85</v>
       </c>
       <c r="F42" s="15">
-        <v>1.497968537487</v>
+        <v>0.92669689418793999</v>
       </c>
       <c r="G42" s="15">
-        <v>0.66734382083765997</v>
+        <v>0.85776770193734997</v>
       </c>
       <c r="H42" s="27">
-        <f>G42*D42</f>
-        <v>0.44445098467788158</v>
+        <f>D42/G42</f>
+        <v>0.75778092195813995</v>
       </c>
       <c r="I42" s="16">
         <f>I$1/$H42</f>
-        <v>2.2499668905554473</v>
+        <v>1.3196426183651537</v>
       </c>
       <c r="J42" s="16">
         <f>J$1/$H42</f>
-        <v>2.3624652350832198</v>
+        <v>1.3856247492834115</v>
       </c>
       <c r="K42" s="16">
         <f>K$1/$H42</f>
-        <v>2.4749635796109923</v>
+        <v>1.4516068802016693</v>
       </c>
       <c r="L42" s="16">
         <f>L$1/$H42</f>
-        <v>2.5874619241387644</v>
+        <v>1.5175890111199266</v>
       </c>
       <c r="M42" s="16">
         <f>M$1/$H42</f>
-        <v>2.6999602686665369</v>
+        <v>1.5835711420381844</v>
       </c>
       <c r="N42" s="16">
         <f>N$1/$H42</f>
-        <v>2.812458613194309</v>
+        <v>1.6495532729564422</v>
       </c>
       <c r="O42" s="16">
         <f>O$1/$H42</f>
-        <v>2.9249569577220815</v>
+        <v>1.7155354038746999</v>
       </c>
       <c r="P42" s="16">
         <f>P$1/$H42</f>
-        <v>3.037455302249854</v>
+        <v>1.7815175347929577</v>
       </c>
       <c r="Q42" s="16">
         <f>Q$1/$H42</f>
-        <v>3.1499536467776261</v>
+        <v>1.847499665711215</v>
       </c>
       <c r="R42" s="16">
         <f>R$1/$H42</f>
-        <v>3.2624519913053986</v>
+        <v>1.9134817966294728</v>
       </c>
       <c r="S42" s="16">
         <f>S$1/$H42</f>
-        <v>3.3749503358331712</v>
+        <v>1.9794639275477306</v>
       </c>
       <c r="T42" s="16">
         <f>T$1/$H42</f>
-        <v>3.4874486803609437</v>
+        <v>2.0454460584659881</v>
       </c>
       <c r="U42" s="16">
         <f>U$1/$H42</f>
-        <v>3.5999470248887162</v>
+        <v>2.1114281893842461</v>
       </c>
       <c r="V42" s="16">
         <f>V$1/$H42</f>
-        <v>3.7124453694164878</v>
+        <v>2.1774103203025037</v>
       </c>
       <c r="W42" s="16">
         <f>W$1/$H42</f>
-        <v>3.8249437139442604</v>
+        <v>2.2433924512207613</v>
       </c>
       <c r="X42" s="16">
         <f>X$1/$H42</f>
-        <v>3.9374420584720329</v>
+        <v>2.3093745821390188</v>
       </c>
       <c r="Y42" s="16">
         <f>Y$1/$H42</f>
-        <v>4.0499404029998054</v>
+        <v>2.3753567130572768</v>
       </c>
       <c r="Z42" s="16">
         <f>Z$1/$H42</f>
-        <v>4.1624387475275775</v>
+        <v>2.4413388439755344</v>
       </c>
       <c r="AA42" s="16">
         <f>AA$1/$H42</f>
-        <v>4.2749370920553496</v>
+        <v>2.5073209748937919</v>
       </c>
       <c r="AB42" s="16">
         <f>AB$1/$H42</f>
-        <v>4.3874354365831225</v>
+        <v>2.5733031058120495</v>
       </c>
       <c r="AC42" s="16">
         <f>AC$1/$H42</f>
-        <v>4.4999337811108946</v>
+        <v>2.6392852367303075</v>
       </c>
       <c r="AD42" s="16">
         <f>AD$1/$H42</f>
-        <v>4.6124321256386667</v>
+        <v>2.705267367648565</v>
       </c>
       <c r="AE42" s="16">
         <f>AE$1/$H42</f>
-        <v>4.7249304701664396</v>
+        <v>2.771249498566823</v>
       </c>
       <c r="AF42" s="16">
         <f>AF$1/$H42</f>
-        <v>4.8374288146942117</v>
+        <v>2.8372316294850801</v>
       </c>
       <c r="AG42" s="16">
         <f>AG$1/$H42</f>
-        <v>4.9499271592219847</v>
+        <v>2.9032137604033386</v>
       </c>
       <c r="AH42" s="16">
         <f>AH$1/$H42</f>
-        <v>5.0624255037497567</v>
+        <v>2.9691958913215957</v>
       </c>
       <c r="AI42" s="16">
         <f>AI$1/$H42</f>
-        <v>5.1749238482775288</v>
+        <v>3.0351780222398532</v>
       </c>
       <c r="AJ42" s="16">
         <f>AJ$1/$H42</f>
-        <v>5.2874221928053018</v>
+        <v>3.1011601531581112</v>
       </c>
       <c r="AK42" s="16">
         <f>AK$1/$H42</f>
-        <v>5.3999205373330739</v>
+        <v>3.1671422840763688</v>
       </c>
       <c r="AL42" s="16">
         <f>AL$1/$H42</f>
-        <v>5.5124188818608468</v>
+        <v>3.2331244149946268</v>
       </c>
       <c r="AM42" s="4">
         <f>AM$1/$H42</f>
-        <v>5.624917226388618</v>
+        <v>3.2991065459128843</v>
       </c>
       <c r="AN42" s="16">
         <f>AN$1/$H42</f>
-        <v>5.7374155709163901</v>
+        <v>3.3650886768311419</v>
       </c>
       <c r="AO42" s="16">
         <f>AO$1/$H42</f>
-        <v>5.8499139154441631</v>
+        <v>3.4310708077493999</v>
       </c>
       <c r="AP42" s="16">
         <f>AP$1/$H42</f>
-        <v>5.9624122599719351</v>
+        <v>3.497052938667657</v>
       </c>
       <c r="AQ42" s="16">
         <f>AQ$1/$H42</f>
-        <v>6.0749106044997081</v>
+        <v>3.5630350695859154</v>
       </c>
       <c r="AR42" s="16">
         <f>AR$1/$H42</f>
-        <v>6.1874089490274802</v>
+        <v>3.6290172005041725</v>
       </c>
       <c r="AS42" s="16">
         <f>AS$1/$H42</f>
-        <v>6.2999072935552523</v>
+        <v>3.6949993314224301</v>
       </c>
       <c r="AT42" s="16">
         <f>AT$1/$H42</f>
-        <v>6.4124056380830252</v>
+        <v>3.7609814623406881</v>
       </c>
       <c r="AU42" s="16">
         <f>AU$1/$H42</f>
-        <v>6.5249039826107973</v>
+        <v>3.8269635932589456</v>
       </c>
       <c r="AV42" s="16">
         <f>AV$1/$H42</f>
-        <v>6.7499006716663423</v>
+        <v>3.9589278550954612</v>
       </c>
       <c r="AW42" s="17">
         <f>AW$1/$H42</f>
-        <v>6.9748973607218874</v>
+        <v>4.0908921169319763</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.25">
@@ -9414,190 +8739,190 @@
         <v>19</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C43" s="13">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="D43" s="14">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="E43" s="30">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
       <c r="F43" s="15">
-        <v>0.54379086407874</v>
+        <v>0.99941209854627</v>
       </c>
       <c r="G43" s="15">
-        <v>0.98540304530709</v>
+        <v>0.83352930048457996</v>
       </c>
       <c r="H43" s="27">
-        <f>G43*D43</f>
-        <v>0.44343137038819053</v>
+        <f>D43/G43</f>
+        <v>0.71983072418832117</v>
       </c>
       <c r="I43" s="16">
         <f>I$1/$H43</f>
-        <v>2.2551404045333459</v>
+        <v>1.3892155008076335</v>
       </c>
       <c r="J43" s="16">
         <f>J$1/$H43</f>
-        <v>2.3678974247600135</v>
+        <v>1.4586762758480152</v>
       </c>
       <c r="K43" s="16">
         <f>K$1/$H43</f>
-        <v>2.4806544449866808</v>
+        <v>1.5281370508883969</v>
       </c>
       <c r="L43" s="16">
         <f>L$1/$H43</f>
-        <v>2.593411465213348</v>
+        <v>1.5975978259287782</v>
       </c>
       <c r="M43" s="16">
         <f>M$1/$H43</f>
-        <v>2.7061684854400152</v>
+        <v>1.6670586009691599</v>
       </c>
       <c r="N43" s="16">
         <f>N$1/$H43</f>
-        <v>2.8189255056666824</v>
+        <v>1.7365193760095416</v>
       </c>
       <c r="O43" s="16">
         <f>O$1/$H43</f>
-        <v>2.9316825258933501</v>
+        <v>1.8059801510499234</v>
       </c>
       <c r="P43" s="16">
         <f>P$1/$H43</f>
-        <v>3.0444395461200173</v>
+        <v>1.8754409260903051</v>
       </c>
       <c r="Q43" s="16">
         <f>Q$1/$H43</f>
-        <v>3.1571965663466841</v>
+        <v>1.9449017011306866</v>
       </c>
       <c r="R43" s="16">
         <f>R$1/$H43</f>
-        <v>3.2699535865733518</v>
+        <v>2.0143624761710681</v>
       </c>
       <c r="S43" s="16">
         <f>S$1/$H43</f>
-        <v>3.382710606800019</v>
+        <v>2.0838232512114501</v>
       </c>
       <c r="T43" s="16">
         <f>T$1/$H43</f>
-        <v>3.4954676270266867</v>
+        <v>2.1532840262518316</v>
       </c>
       <c r="U43" s="16">
         <f>U$1/$H43</f>
-        <v>3.6082246472533539</v>
+        <v>2.2227448012922135</v>
       </c>
       <c r="V43" s="16">
         <f>V$1/$H43</f>
-        <v>3.7209816674800207</v>
+        <v>2.292205576332595</v>
       </c>
       <c r="W43" s="16">
         <f>W$1/$H43</f>
-        <v>3.8337386877066884</v>
+        <v>2.3616663513729765</v>
       </c>
       <c r="X43" s="16">
         <f>X$1/$H43</f>
-        <v>3.9464957079333556</v>
+        <v>2.4311271264133585</v>
       </c>
       <c r="Y43" s="16">
         <f>Y$1/$H43</f>
-        <v>4.0592527281600228</v>
+        <v>2.50058790145374</v>
       </c>
       <c r="Z43" s="16">
         <f>Z$1/$H43</f>
-        <v>4.1720097483866905</v>
+        <v>2.5700486764941219</v>
       </c>
       <c r="AA43" s="16">
         <f>AA$1/$H43</f>
-        <v>4.2847667686133573</v>
+        <v>2.6395094515345034</v>
       </c>
       <c r="AB43" s="16">
         <f>AB$1/$H43</f>
-        <v>4.3975237888400249</v>
+        <v>2.708970226574885</v>
       </c>
       <c r="AC43" s="16">
         <f>AC$1/$H43</f>
-        <v>4.5102808090666917</v>
+        <v>2.7784310016152669</v>
       </c>
       <c r="AD43" s="16">
         <f>AD$1/$H43</f>
-        <v>4.6230378292933594</v>
+        <v>2.847891776655648</v>
       </c>
       <c r="AE43" s="16">
         <f>AE$1/$H43</f>
-        <v>4.7357948495200271</v>
+        <v>2.9173525516960304</v>
       </c>
       <c r="AF43" s="16">
         <f>AF$1/$H43</f>
-        <v>4.8485518697466938</v>
+        <v>2.9868133267364114</v>
       </c>
       <c r="AG43" s="16">
         <f>AG$1/$H43</f>
-        <v>4.9613088899733615</v>
+        <v>3.0562741017767938</v>
       </c>
       <c r="AH43" s="16">
         <f>AH$1/$H43</f>
-        <v>5.0740659102000283</v>
+        <v>3.1257348768171749</v>
       </c>
       <c r="AI43" s="16">
         <f>AI$1/$H43</f>
-        <v>5.186822930426696</v>
+        <v>3.1951956518575564</v>
       </c>
       <c r="AJ43" s="16">
         <f>AJ$1/$H43</f>
-        <v>5.2995799506533636</v>
+        <v>3.2646564268979383</v>
       </c>
       <c r="AK43" s="16">
         <f>AK$1/$H43</f>
-        <v>5.4123369708800304</v>
+        <v>3.3341172019383198</v>
       </c>
       <c r="AL43" s="16">
         <f>AL$1/$H43</f>
-        <v>5.5250939911066981</v>
+        <v>3.4035779769787018</v>
       </c>
       <c r="AM43" s="4">
         <f>AM$1/$H43</f>
-        <v>5.6378510113333649</v>
+        <v>3.4730387520190833</v>
       </c>
       <c r="AN43" s="16">
         <f>AN$1/$H43</f>
-        <v>5.7506080315600316</v>
+        <v>3.5424995270594648</v>
       </c>
       <c r="AO43" s="16">
         <f>AO$1/$H43</f>
-        <v>5.8633650517867002</v>
+        <v>3.6119603020998468</v>
       </c>
       <c r="AP43" s="16">
         <f>AP$1/$H43</f>
-        <v>5.976122072013367</v>
+        <v>3.6814210771402283</v>
       </c>
       <c r="AQ43" s="16">
         <f>AQ$1/$H43</f>
-        <v>6.0888790922400347</v>
+        <v>3.7508818521806102</v>
       </c>
       <c r="AR43" s="16">
         <f>AR$1/$H43</f>
-        <v>6.2016361124667014</v>
+        <v>3.8203426272209917</v>
       </c>
       <c r="AS43" s="16">
         <f>AS$1/$H43</f>
-        <v>6.3143931326933682</v>
+        <v>3.8898034022613732</v>
       </c>
       <c r="AT43" s="16">
         <f>AT$1/$H43</f>
-        <v>6.4271501529200368</v>
+        <v>3.9592641773017552</v>
       </c>
       <c r="AU43" s="16">
         <f>AU$1/$H43</f>
-        <v>6.5399071731467036</v>
+        <v>4.0287249523421362</v>
       </c>
       <c r="AV43" s="16">
         <f>AV$1/$H43</f>
-        <v>6.765421213600038</v>
+        <v>4.1676465024229001</v>
       </c>
       <c r="AW43" s="17">
         <f>AW$1/$H43</f>
-        <v>6.9909352540533733</v>
+        <v>4.3065680525036631</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
@@ -9605,190 +8930,190 @@
         <v>19</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
       <c r="D44" s="14">
-        <v>0.47499999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E44" s="30">
         <v>0.85</v>
       </c>
       <c r="F44" s="15">
-        <v>0.73312696308037995</v>
+        <v>0.87843133764328996</v>
       </c>
       <c r="G44" s="15">
-        <v>0.92229101230653998</v>
+        <v>0.87385622078557001</v>
       </c>
       <c r="H44" s="27">
-        <f>G44*D44</f>
-        <v>0.4380882308456065</v>
+        <f>D44/G44</f>
+        <v>0.68661180835975322</v>
       </c>
       <c r="I44" s="16">
         <f>I$1/$H44</f>
-        <v>2.2826452061261278</v>
+        <v>1.4564270346426167</v>
       </c>
       <c r="J44" s="16">
         <f>J$1/$H44</f>
-        <v>2.3967774664324342</v>
+        <v>1.5292483863747477</v>
       </c>
       <c r="K44" s="16">
         <f>K$1/$H44</f>
-        <v>2.5109097267387406</v>
+        <v>1.6020697381068785</v>
       </c>
       <c r="L44" s="16">
         <f>L$1/$H44</f>
-        <v>2.6250419870450465</v>
+        <v>1.674891089839009</v>
       </c>
       <c r="M44" s="16">
         <f>M$1/$H44</f>
-        <v>2.739174247351353</v>
+        <v>1.74771244157114</v>
       </c>
       <c r="N44" s="16">
         <f>N$1/$H44</f>
-        <v>2.8533065076576594</v>
+        <v>1.8205337933032708</v>
       </c>
       <c r="O44" s="16">
         <f>O$1/$H44</f>
-        <v>2.9674387679639658</v>
+        <v>1.8933551450354018</v>
       </c>
       <c r="P44" s="16">
         <f>P$1/$H44</f>
-        <v>3.0815710282702726</v>
+        <v>1.9661764967675326</v>
       </c>
       <c r="Q44" s="16">
         <f>Q$1/$H44</f>
-        <v>3.1957032885765786</v>
+        <v>2.0389978484996631</v>
       </c>
       <c r="R44" s="16">
         <f>R$1/$H44</f>
-        <v>3.309835548882885</v>
+        <v>2.1118192002317944</v>
       </c>
       <c r="S44" s="16">
         <f>S$1/$H44</f>
-        <v>3.4239678091891914</v>
+        <v>2.1846405519639251</v>
       </c>
       <c r="T44" s="16">
         <f>T$1/$H44</f>
-        <v>3.5381000694954978</v>
+        <v>2.2574619036960559</v>
       </c>
       <c r="U44" s="16">
         <f>U$1/$H44</f>
-        <v>3.6522323298018042</v>
+        <v>2.3302832554281867</v>
       </c>
       <c r="V44" s="16">
         <f>V$1/$H44</f>
-        <v>3.7663645901081102</v>
+        <v>2.4031046071603175</v>
       </c>
       <c r="W44" s="16">
         <f>W$1/$H44</f>
-        <v>3.8804968504144166</v>
+        <v>2.4759259588924483</v>
       </c>
       <c r="X44" s="16">
         <f>X$1/$H44</f>
-        <v>3.9946291107207235</v>
+        <v>2.548747310624579</v>
       </c>
       <c r="Y44" s="16">
         <f>Y$1/$H44</f>
-        <v>4.1087613710270299</v>
+        <v>2.6215686623567103</v>
       </c>
       <c r="Z44" s="16">
         <f>Z$1/$H44</f>
-        <v>4.2228936313333358</v>
+        <v>2.694390014088841</v>
       </c>
       <c r="AA44" s="16">
         <f>AA$1/$H44</f>
-        <v>4.3370258916396418</v>
+        <v>2.7672113658209718</v>
       </c>
       <c r="AB44" s="16">
         <f>AB$1/$H44</f>
-        <v>4.4511581519459487</v>
+        <v>2.8400327175531026</v>
       </c>
       <c r="AC44" s="16">
         <f>AC$1/$H44</f>
-        <v>4.5652904122522555</v>
+        <v>2.9128540692852334</v>
       </c>
       <c r="AD44" s="16">
         <f>AD$1/$H44</f>
-        <v>4.6794226725585615</v>
+        <v>2.9856754210173642</v>
       </c>
       <c r="AE44" s="16">
         <f>AE$1/$H44</f>
-        <v>4.7935549328648683</v>
+        <v>3.0584967727494954</v>
       </c>
       <c r="AF44" s="16">
         <f>AF$1/$H44</f>
-        <v>4.9076871931711743</v>
+        <v>3.1313181244816257</v>
       </c>
       <c r="AG44" s="16">
         <f>AG$1/$H44</f>
-        <v>5.0218194534774812</v>
+        <v>3.2041394762137569</v>
       </c>
       <c r="AH44" s="16">
         <f>AH$1/$H44</f>
-        <v>5.1359517137837871</v>
+        <v>3.2769608279458877</v>
       </c>
       <c r="AI44" s="16">
         <f>AI$1/$H44</f>
-        <v>5.2500839740900931</v>
+        <v>3.3497821796780181</v>
       </c>
       <c r="AJ44" s="16">
         <f>AJ$1/$H44</f>
-        <v>5.3642162343963999</v>
+        <v>3.4226035314101493</v>
       </c>
       <c r="AK44" s="16">
         <f>AK$1/$H44</f>
-        <v>5.4783484947027059</v>
+        <v>3.4954248831422801</v>
       </c>
       <c r="AL44" s="16">
         <f>AL$1/$H44</f>
-        <v>5.5924807550090128</v>
+        <v>3.5682462348744113</v>
       </c>
       <c r="AM44" s="4">
         <f>AM$1/$H44</f>
-        <v>5.7066130153153187</v>
+        <v>3.6410675866065416</v>
       </c>
       <c r="AN44" s="16">
         <f>AN$1/$H44</f>
-        <v>5.8207452756216247</v>
+        <v>3.7138889383386724</v>
       </c>
       <c r="AO44" s="16">
         <f>AO$1/$H44</f>
-        <v>5.9348775359279315</v>
+        <v>3.7867102900708036</v>
       </c>
       <c r="AP44" s="16">
         <f>AP$1/$H44</f>
-        <v>6.0490097962342375</v>
+        <v>3.859531641802934</v>
       </c>
       <c r="AQ44" s="16">
         <f>AQ$1/$H44</f>
-        <v>6.1631420565405453</v>
+        <v>3.9323529935350652</v>
       </c>
       <c r="AR44" s="16">
         <f>AR$1/$H44</f>
-        <v>6.2772743168468512</v>
+        <v>4.0051743452671955</v>
       </c>
       <c r="AS44" s="16">
         <f>AS$1/$H44</f>
-        <v>6.3914065771531572</v>
+        <v>4.0779956969993263</v>
       </c>
       <c r="AT44" s="16">
         <f>AT$1/$H44</f>
-        <v>6.505538837459464</v>
+        <v>4.150817048731458</v>
       </c>
       <c r="AU44" s="16">
         <f>AU$1/$H44</f>
-        <v>6.61967109776577</v>
+        <v>4.2236384004635887</v>
       </c>
       <c r="AV44" s="16">
         <f>AV$1/$H44</f>
-        <v>6.8479356183783828</v>
+        <v>4.3692811039278503</v>
       </c>
       <c r="AW44" s="17">
         <f>AW$1/$H44</f>
-        <v>7.0762001389909956</v>
+        <v>4.5149238073921119</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
@@ -9796,190 +9121,190 @@
         <v>19</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
       <c r="D45" s="14">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E45" s="30">
         <v>0.85</v>
       </c>
       <c r="F45" s="15">
-        <v>1.9450980408778999</v>
+        <v>0.58181817634741995</v>
       </c>
       <c r="G45" s="15">
-        <v>0.51830065304071005</v>
+        <v>0.97272727455086005</v>
       </c>
       <c r="H45" s="27">
-        <f>G45*D45</f>
-        <v>0.23323529386831954</v>
+        <f>D45/G45</f>
+        <v>0.5654205596876607</v>
       </c>
       <c r="I45" s="16">
         <f>I$1/$H45</f>
-        <v>4.2875157675089346</v>
+        <v>1.768595044637927</v>
       </c>
       <c r="J45" s="16">
         <f>J$1/$H45</f>
-        <v>4.5018915558843817</v>
+        <v>1.8570247968698235</v>
       </c>
       <c r="K45" s="16">
         <f>K$1/$H45</f>
-        <v>4.7162673442598289</v>
+        <v>1.9454545491017199</v>
       </c>
       <c r="L45" s="16">
         <f>L$1/$H45</f>
-        <v>4.9306431326352751</v>
+        <v>2.0338843013336159</v>
       </c>
       <c r="M45" s="16">
         <f>M$1/$H45</f>
-        <v>5.1450189210107213</v>
+        <v>2.1223140535655123</v>
       </c>
       <c r="N45" s="16">
         <f>N$1/$H45</f>
-        <v>5.3593947093861685</v>
+        <v>2.2107438057974087</v>
       </c>
       <c r="O45" s="16">
         <f>O$1/$H45</f>
-        <v>5.5737704977616156</v>
+        <v>2.2991735580293051</v>
       </c>
       <c r="P45" s="16">
         <f>P$1/$H45</f>
-        <v>5.7881462861370627</v>
+        <v>2.387603310261202</v>
       </c>
       <c r="Q45" s="16">
         <f>Q$1/$H45</f>
-        <v>6.0025220745125081</v>
+        <v>2.476033062493098</v>
       </c>
       <c r="R45" s="16">
         <f>R$1/$H45</f>
-        <v>6.2168978628879552</v>
+        <v>2.5644628147249944</v>
       </c>
       <c r="S45" s="16">
         <f>S$1/$H45</f>
-        <v>6.4312736512634023</v>
+        <v>2.6528925669568908</v>
       </c>
       <c r="T45" s="16">
         <f>T$1/$H45</f>
-        <v>6.6456494396388495</v>
+        <v>2.7413223191887872</v>
       </c>
       <c r="U45" s="16">
         <f>U$1/$H45</f>
-        <v>6.8600252280142957</v>
+        <v>2.8297520714206836</v>
       </c>
       <c r="V45" s="16">
         <f>V$1/$H45</f>
-        <v>7.0744010163897419</v>
+        <v>2.9181818236525796</v>
       </c>
       <c r="W45" s="16">
         <f>W$1/$H45</f>
-        <v>7.2887768047651891</v>
+        <v>3.006611575884476</v>
       </c>
       <c r="X45" s="16">
         <f>X$1/$H45</f>
-        <v>7.5031525931406362</v>
+        <v>3.0950413281163724</v>
       </c>
       <c r="Y45" s="16">
         <f>Y$1/$H45</f>
-        <v>7.7175283815160824</v>
+        <v>3.1834710803482689</v>
       </c>
       <c r="Z45" s="16">
         <f>Z$1/$H45</f>
-        <v>7.9319041698915296</v>
+        <v>3.2719008325801653</v>
       </c>
       <c r="AA45" s="16">
         <f>AA$1/$H45</f>
-        <v>8.1462799582669749</v>
+        <v>3.3603305848120613</v>
       </c>
       <c r="AB45" s="16">
         <f>AB$1/$H45</f>
-        <v>8.3606557466424221</v>
+        <v>3.4487603370439577</v>
       </c>
       <c r="AC45" s="16">
         <f>AC$1/$H45</f>
-        <v>8.5750315350178692</v>
+        <v>3.5371900892758541</v>
       </c>
       <c r="AD45" s="16">
         <f>AD$1/$H45</f>
-        <v>8.7894073233933163</v>
+        <v>3.6256198415077501</v>
       </c>
       <c r="AE45" s="16">
         <f>AE$1/$H45</f>
-        <v>9.0037831117687634</v>
+        <v>3.7140495937396469</v>
       </c>
       <c r="AF45" s="16">
         <f>AF$1/$H45</f>
-        <v>9.2181589001442088</v>
+        <v>3.8024793459715434</v>
       </c>
       <c r="AG45" s="16">
         <f>AG$1/$H45</f>
-        <v>9.4325346885196577</v>
+        <v>3.8909090982034398</v>
       </c>
       <c r="AH45" s="16">
         <f>AH$1/$H45</f>
-        <v>9.6469104768951031</v>
+        <v>3.9793388504353362</v>
       </c>
       <c r="AI45" s="16">
         <f>AI$1/$H45</f>
-        <v>9.8612862652705502</v>
+        <v>4.0677686026672317</v>
       </c>
       <c r="AJ45" s="16">
         <f>AJ$1/$H45</f>
-        <v>10.075662053645997</v>
+        <v>4.1561983548991286</v>
       </c>
       <c r="AK45" s="16">
         <f>AK$1/$H45</f>
-        <v>10.290037842021443</v>
+        <v>4.2446281071310246</v>
       </c>
       <c r="AL45" s="16">
         <f>AL$1/$H45</f>
-        <v>10.504413630396892</v>
+        <v>4.3330578593629214</v>
       </c>
       <c r="AM45" s="4">
         <f>AM$1/$H45</f>
-        <v>10.718789418772337</v>
+        <v>4.4214876115948174</v>
       </c>
       <c r="AN45" s="16">
         <f>AN$1/$H45</f>
-        <v>10.933165207147782</v>
+        <v>4.5099173638267143</v>
       </c>
       <c r="AO45" s="16">
         <f>AO$1/$H45</f>
-        <v>11.147540995523231</v>
+        <v>4.5983471160586102</v>
       </c>
       <c r="AP45" s="16">
         <f>AP$1/$H45</f>
-        <v>11.361916783898677</v>
+        <v>4.6867768682905071</v>
       </c>
       <c r="AQ45" s="16">
         <f>AQ$1/$H45</f>
-        <v>11.576292572274125</v>
+        <v>4.775206620522404</v>
       </c>
       <c r="AR45" s="16">
         <f>AR$1/$H45</f>
-        <v>11.790668360649571</v>
+        <v>4.8636363727542999</v>
       </c>
       <c r="AS45" s="16">
         <f>AS$1/$H45</f>
-        <v>12.005044149025016</v>
+        <v>4.9520661249861959</v>
       </c>
       <c r="AT45" s="16">
         <f>AT$1/$H45</f>
-        <v>12.219419937400465</v>
+        <v>5.0404958772180928</v>
       </c>
       <c r="AU45" s="16">
         <f>AU$1/$H45</f>
-        <v>12.43379572577591</v>
+        <v>5.1289256294499888</v>
       </c>
       <c r="AV45" s="16">
         <f>AV$1/$H45</f>
-        <v>12.862547302526805</v>
+        <v>5.3057851339137816</v>
       </c>
       <c r="AW45" s="17">
         <f>AW$1/$H45</f>
-        <v>13.291298879277699</v>
+        <v>5.4826446383775744</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
@@ -9987,190 +9312,190 @@
         <v>19</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
       <c r="D46" s="14">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="E46" s="30">
         <v>0.85</v>
       </c>
       <c r="F46" s="15">
-        <v>2.0078431405793</v>
+        <v>0.73312696308037995</v>
       </c>
       <c r="G46" s="15">
-        <v>0.49738561980690998</v>
+        <v>0.92229101230653998</v>
       </c>
       <c r="H46" s="27">
-        <f>G46*D46</f>
-        <v>0.2238235289131095</v>
+        <f>D46/G46</f>
+        <v>0.51502182463220747</v>
       </c>
       <c r="I46" s="16">
         <f>I$1/$H46</f>
-        <v>4.4678055290076761</v>
+        <v>1.9416652890664001</v>
       </c>
       <c r="J46" s="16">
         <f>J$1/$H46</f>
-        <v>4.6911958054580598</v>
+        <v>2.0387485535197203</v>
       </c>
       <c r="K46" s="16">
         <f>K$1/$H46</f>
-        <v>4.9145860819084435</v>
+        <v>2.1358318179730404</v>
       </c>
       <c r="L46" s="16">
         <f>L$1/$H46</f>
-        <v>5.1379763583588272</v>
+        <v>2.2329150824263602</v>
       </c>
       <c r="M46" s="16">
         <f>M$1/$H46</f>
-        <v>5.3613666348092108</v>
+        <v>2.3299983468796803</v>
       </c>
       <c r="N46" s="16">
         <f>N$1/$H46</f>
-        <v>5.5847569112595945</v>
+        <v>2.4270816113330005</v>
       </c>
       <c r="O46" s="16">
         <f>O$1/$H46</f>
-        <v>5.8081471877099791</v>
+        <v>2.5241648757863202</v>
       </c>
       <c r="P46" s="16">
         <f>P$1/$H46</f>
-        <v>6.0315374641603627</v>
+        <v>2.6212481402396404</v>
       </c>
       <c r="Q46" s="16">
         <f>Q$1/$H46</f>
-        <v>6.2549277406107455</v>
+        <v>2.7183314046929601</v>
       </c>
       <c r="R46" s="16">
         <f>R$1/$H46</f>
-        <v>6.4783180170611301</v>
+        <v>2.8154146691462802</v>
       </c>
       <c r="S46" s="16">
         <f>S$1/$H46</f>
-        <v>6.7017082935115138</v>
+        <v>2.9124979335996004</v>
       </c>
       <c r="T46" s="16">
         <f>T$1/$H46</f>
-        <v>6.9250985699618974</v>
+        <v>3.0095811980529206</v>
       </c>
       <c r="U46" s="16">
         <f>U$1/$H46</f>
-        <v>7.148488846412282</v>
+        <v>3.1066644625062407</v>
       </c>
       <c r="V46" s="16">
         <f>V$1/$H46</f>
-        <v>7.3718791228626648</v>
+        <v>3.20374772695956</v>
       </c>
       <c r="W46" s="16">
         <f>W$1/$H46</f>
-        <v>7.5952693993130485</v>
+        <v>3.3008309914128802</v>
       </c>
       <c r="X46" s="16">
         <f>X$1/$H46</f>
-        <v>7.818659675763433</v>
+        <v>3.3979142558662003</v>
       </c>
       <c r="Y46" s="16">
         <f>Y$1/$H46</f>
-        <v>8.0420499522138158</v>
+        <v>3.4949975203195205</v>
       </c>
       <c r="Z46" s="16">
         <f>Z$1/$H46</f>
-        <v>8.2654402286642004</v>
+        <v>3.5920807847728407</v>
       </c>
       <c r="AA46" s="16">
         <f>AA$1/$H46</f>
-        <v>8.4888305051145831</v>
+        <v>3.6891640492261604</v>
       </c>
       <c r="AB46" s="16">
         <f>AB$1/$H46</f>
-        <v>8.7122207815649677</v>
+        <v>3.7862473136794805</v>
       </c>
       <c r="AC46" s="16">
         <f>AC$1/$H46</f>
-        <v>8.9356110580153523</v>
+        <v>3.8833305781328002</v>
       </c>
       <c r="AD46" s="16">
         <f>AD$1/$H46</f>
-        <v>9.1590013344657351</v>
+        <v>3.98041384258612</v>
       </c>
       <c r="AE46" s="16">
         <f>AE$1/$H46</f>
-        <v>9.3823916109161196</v>
+        <v>4.0774971070394406</v>
       </c>
       <c r="AF46" s="16">
         <f>AF$1/$H46</f>
-        <v>9.6057818873665024</v>
+        <v>4.1745803714927607</v>
       </c>
       <c r="AG46" s="16">
         <f>AG$1/$H46</f>
-        <v>9.829172163816887</v>
+        <v>4.2716636359460809</v>
       </c>
       <c r="AH46" s="16">
         <f>AH$1/$H46</f>
-        <v>10.05256244026727</v>
+        <v>4.3687469003994002</v>
       </c>
       <c r="AI46" s="16">
         <f>AI$1/$H46</f>
-        <v>10.275952716717654</v>
+        <v>4.4658301648527203</v>
       </c>
       <c r="AJ46" s="16">
         <f>AJ$1/$H46</f>
-        <v>10.499342993168039</v>
+        <v>4.5629134293060405</v>
       </c>
       <c r="AK46" s="16">
         <f>AK$1/$H46</f>
-        <v>10.722733269618422</v>
+        <v>4.6599966937593607</v>
       </c>
       <c r="AL46" s="16">
         <f>AL$1/$H46</f>
-        <v>10.946123546068806</v>
+        <v>4.7570799582126808</v>
       </c>
       <c r="AM46" s="4">
         <f>AM$1/$H46</f>
-        <v>11.169513822519189</v>
+        <v>4.854163222666001</v>
       </c>
       <c r="AN46" s="16">
         <f>AN$1/$H46</f>
-        <v>11.392904098969572</v>
+        <v>4.9512464871193202</v>
       </c>
       <c r="AO46" s="16">
         <f>AO$1/$H46</f>
-        <v>11.616294375419958</v>
+        <v>5.0483297515726404</v>
       </c>
       <c r="AP46" s="16">
         <f>AP$1/$H46</f>
-        <v>11.839684651870341</v>
+        <v>5.1454130160259606</v>
       </c>
       <c r="AQ46" s="16">
         <f>AQ$1/$H46</f>
-        <v>12.063074928320725</v>
+        <v>5.2424962804792807</v>
       </c>
       <c r="AR46" s="16">
         <f>AR$1/$H46</f>
-        <v>12.286465204771108</v>
+        <v>5.3395795449326009</v>
       </c>
       <c r="AS46" s="16">
         <f>AS$1/$H46</f>
-        <v>12.509855481221491</v>
+        <v>5.4366628093859202</v>
       </c>
       <c r="AT46" s="16">
         <f>AT$1/$H46</f>
-        <v>12.733245757671876</v>
+        <v>5.5337460738392412</v>
       </c>
       <c r="AU46" s="16">
         <f>AU$1/$H46</f>
-        <v>12.95663603412226</v>
+        <v>5.6308293382925605</v>
       </c>
       <c r="AV46" s="16">
         <f>AV$1/$H46</f>
-        <v>13.403416587023028</v>
+        <v>5.8249958671992008</v>
       </c>
       <c r="AW46" s="17">
         <f>AW$1/$H46</f>
-        <v>13.850197139923795</v>
+        <v>6.0191623961058411</v>
       </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
@@ -10178,7 +9503,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -10190,178 +9515,178 @@
         <v>0.85</v>
       </c>
       <c r="F47" s="15">
-        <v>2.0078431405793</v>
+        <v>0.54379086407874</v>
       </c>
       <c r="G47" s="15">
-        <v>0.49738561980690998</v>
+        <v>0.98540304530709</v>
       </c>
       <c r="H47" s="27">
-        <f>G47*D47</f>
-        <v>0.2238235289131095</v>
+        <f>D47/G47</f>
+        <v>0.45666593191800264</v>
       </c>
       <c r="I47" s="16">
         <f>I$1/$H47</f>
-        <v>4.4678055290076761</v>
+        <v>2.1897845451268667</v>
       </c>
       <c r="J47" s="16">
         <f>J$1/$H47</f>
-        <v>4.6911958054580598</v>
+        <v>2.2992737723832097</v>
       </c>
       <c r="K47" s="16">
         <f>K$1/$H47</f>
-        <v>4.9145860819084435</v>
+        <v>2.4087629996395532</v>
       </c>
       <c r="L47" s="16">
         <f>L$1/$H47</f>
-        <v>5.1379763583588272</v>
+        <v>2.5182522268958962</v>
       </c>
       <c r="M47" s="16">
         <f>M$1/$H47</f>
-        <v>5.3613666348092108</v>
+        <v>2.6277414541522397</v>
       </c>
       <c r="N47" s="16">
         <f>N$1/$H47</f>
-        <v>5.5847569112595945</v>
+        <v>2.7372306814085832</v>
       </c>
       <c r="O47" s="16">
         <f>O$1/$H47</f>
-        <v>5.8081471877099791</v>
+        <v>2.8467199086649266</v>
       </c>
       <c r="P47" s="16">
         <f>P$1/$H47</f>
-        <v>6.0315374641603627</v>
+        <v>2.9562091359212701</v>
       </c>
       <c r="Q47" s="16">
         <f>Q$1/$H47</f>
-        <v>6.2549277406107455</v>
+        <v>3.0656983631776127</v>
       </c>
       <c r="R47" s="16">
         <f>R$1/$H47</f>
-        <v>6.4783180170611301</v>
+        <v>3.1751875904339562</v>
       </c>
       <c r="S47" s="16">
         <f>S$1/$H47</f>
-        <v>6.7017082935115138</v>
+        <v>3.2846768176902996</v>
       </c>
       <c r="T47" s="16">
         <f>T$1/$H47</f>
-        <v>6.9250985699618974</v>
+        <v>3.3941660449466431</v>
       </c>
       <c r="U47" s="16">
         <f>U$1/$H47</f>
-        <v>7.148488846412282</v>
+        <v>3.5036552722029866</v>
       </c>
       <c r="V47" s="16">
         <f>V$1/$H47</f>
-        <v>7.3718791228626648</v>
+        <v>3.6131444994593296</v>
       </c>
       <c r="W47" s="16">
         <f>W$1/$H47</f>
-        <v>7.5952693993130485</v>
+        <v>3.7226337267156731</v>
       </c>
       <c r="X47" s="16">
         <f>X$1/$H47</f>
-        <v>7.818659675763433</v>
+        <v>3.8321229539720165</v>
       </c>
       <c r="Y47" s="16">
         <f>Y$1/$H47</f>
-        <v>8.0420499522138158</v>
+        <v>3.94161218122836</v>
       </c>
       <c r="Z47" s="16">
         <f>Z$1/$H47</f>
-        <v>8.2654402286642004</v>
+        <v>4.051101408484703</v>
       </c>
       <c r="AA47" s="16">
         <f>AA$1/$H47</f>
-        <v>8.4888305051145831</v>
+        <v>4.1605906357410465</v>
       </c>
       <c r="AB47" s="16">
         <f>AB$1/$H47</f>
-        <v>8.7122207815649677</v>
+        <v>4.27007986299739</v>
       </c>
       <c r="AC47" s="16">
         <f>AC$1/$H47</f>
-        <v>8.9356110580153523</v>
+        <v>4.3795690902537334</v>
       </c>
       <c r="AD47" s="16">
         <f>AD$1/$H47</f>
-        <v>9.1590013344657351</v>
+        <v>4.489058317510076</v>
       </c>
       <c r="AE47" s="16">
         <f>AE$1/$H47</f>
-        <v>9.3823916109161196</v>
+        <v>4.5985475447664195</v>
       </c>
       <c r="AF47" s="16">
         <f>AF$1/$H47</f>
-        <v>9.6057818873665024</v>
+        <v>4.7080367720227629</v>
       </c>
       <c r="AG47" s="16">
         <f>AG$1/$H47</f>
-        <v>9.829172163816887</v>
+        <v>4.8175259992791064</v>
       </c>
       <c r="AH47" s="16">
         <f>AH$1/$H47</f>
-        <v>10.05256244026727</v>
+        <v>4.9270152265354499</v>
       </c>
       <c r="AI47" s="16">
         <f>AI$1/$H47</f>
-        <v>10.275952716717654</v>
+        <v>5.0365044537917925</v>
       </c>
       <c r="AJ47" s="16">
         <f>AJ$1/$H47</f>
-        <v>10.499342993168039</v>
+        <v>5.1459936810481368</v>
       </c>
       <c r="AK47" s="16">
         <f>AK$1/$H47</f>
-        <v>10.722733269618422</v>
+        <v>5.2554829083044794</v>
       </c>
       <c r="AL47" s="16">
         <f>AL$1/$H47</f>
-        <v>10.946123546068806</v>
+        <v>5.3649721355608229</v>
       </c>
       <c r="AM47" s="4">
         <f>AM$1/$H47</f>
-        <v>11.169513822519189</v>
+        <v>5.4744613628171663</v>
       </c>
       <c r="AN47" s="16">
         <f>AN$1/$H47</f>
-        <v>11.392904098969572</v>
+        <v>5.5839505900735089</v>
       </c>
       <c r="AO47" s="16">
         <f>AO$1/$H47</f>
-        <v>11.616294375419958</v>
+        <v>5.6934398173298533</v>
       </c>
       <c r="AP47" s="16">
         <f>AP$1/$H47</f>
-        <v>11.839684651870341</v>
+        <v>5.8029290445861959</v>
       </c>
       <c r="AQ47" s="16">
         <f>AQ$1/$H47</f>
-        <v>12.063074928320725</v>
+        <v>5.9124182718425402</v>
       </c>
       <c r="AR47" s="16">
         <f>AR$1/$H47</f>
-        <v>12.286465204771108</v>
+        <v>6.0219074990988828</v>
       </c>
       <c r="AS47" s="16">
         <f>AS$1/$H47</f>
-        <v>12.509855481221491</v>
+        <v>6.1313967263552254</v>
       </c>
       <c r="AT47" s="16">
         <f>AT$1/$H47</f>
-        <v>12.733245757671876</v>
+        <v>6.2408859536115697</v>
       </c>
       <c r="AU47" s="16">
         <f>AU$1/$H47</f>
-        <v>12.95663603412226</v>
+        <v>6.3503751808679123</v>
       </c>
       <c r="AV47" s="16">
         <f>AV$1/$H47</f>
-        <v>13.403416587023028</v>
+        <v>6.5693536353805992</v>
       </c>
       <c r="AW47" s="17">
         <f>AW$1/$H47</f>
-        <v>13.850197139923795</v>
+        <v>6.7883320898932862</v>
       </c>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.25">
@@ -10387,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="28">
-        <f>G48*D48</f>
+        <f>D48/G48</f>
         <v>0.2</v>
       </c>
       <c r="I48" s="21">
@@ -10556,28 +9881,28 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A15:AW49">
-    <sortCondition descending="1" ref="H15:H49"/>
+  <sortState ref="A14:AW48">
+    <sortCondition descending="1" ref="H14:H48"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:AW48">
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="91" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="92" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="93" operator="between">
       <formula>2</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="94" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
